--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>17</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-5.88235294117647</v>
+      </c>
       <c r="L12" t="n">
         <v>990</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>17</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-5.88235294117647</v>
+      </c>
       <c r="L13" t="n">
         <v>989.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>18</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-38.46153846153847</v>
+      </c>
       <c r="L14" t="n">
         <v>989.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-20</v>
+      </c>
       <c r="L15" t="n">
         <v>989.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>989.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>30</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-18.18181818181818</v>
+      </c>
       <c r="L17" t="n">
         <v>989.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>37</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>989.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>38</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>28</v>
+      </c>
       <c r="L19" t="n">
         <v>990.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>38</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>991</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>44</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-3.703703703703703</v>
+      </c>
       <c r="L21" t="n">
         <v>991.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>44</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-3.703703703703703</v>
+      </c>
       <c r="L22" t="n">
         <v>991.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>51</v>
       </c>
       <c r="K23" t="n">
-        <v>9.803921568627452</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L23" t="n">
         <v>991.7</v>
@@ -1466,7 +1488,7 @@
         <v>52</v>
       </c>
       <c r="K24" t="n">
-        <v>7.692307692307693</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L24" t="n">
         <v>992.1</v>
@@ -1515,7 +1537,7 @@
         <v>54</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.122448979591836</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L25" t="n">
         <v>992.3</v>
@@ -1564,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L26" t="n">
         <v>992.4</v>
@@ -1613,7 +1635,7 @@
         <v>63</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.818181818181818</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L27" t="n">
         <v>992.7</v>
@@ -1662,7 +1684,7 @@
         <v>63</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.818181818181818</v>
+        <v>-12</v>
       </c>
       <c r="L28" t="n">
         <v>992.3</v>
@@ -1711,7 +1733,7 @@
         <v>63</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="L29" t="n">
         <v>992</v>
@@ -1760,7 +1782,7 @@
         <v>64</v>
       </c>
       <c r="K30" t="n">
-        <v>5.88235294117647</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>991.6</v>
@@ -1809,7 +1831,7 @@
         <v>66</v>
       </c>
       <c r="K31" t="n">
-        <v>11.53846153846154</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L31" t="n">
         <v>992</v>
@@ -1860,7 +1882,7 @@
         <v>68</v>
       </c>
       <c r="K32" t="n">
-        <v>1.96078431372549</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L32" t="n">
         <v>992.2</v>
@@ -1911,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="K33" t="n">
-        <v>5.660377358490567</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>991.9</v>
@@ -1962,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="K34" t="n">
-        <v>3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>991.7</v>
@@ -2013,7 +2035,7 @@
         <v>72</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L35" t="n">
         <v>991.5</v>
@@ -2064,7 +2086,7 @@
         <v>73</v>
       </c>
       <c r="K36" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L36" t="n">
         <v>990.8</v>
@@ -2115,7 +2137,7 @@
         <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>16</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L37" t="n">
         <v>991.3</v>
@@ -2166,7 +2188,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.72549019607843</v>
+        <v>-12</v>
       </c>
       <c r="L38" t="n">
         <v>991</v>
@@ -2217,7 +2239,7 @@
         <v>95</v>
       </c>
       <c r="K39" t="n">
-        <v>1.754385964912281</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L39" t="n">
         <v>991.4</v>
@@ -2268,7 +2290,7 @@
         <v>96</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L40" t="n">
         <v>991.8</v>
@@ -2319,7 +2341,7 @@
         <v>96</v>
       </c>
       <c r="K41" t="n">
-        <v>11.53846153846154</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>992</v>
@@ -2370,7 +2392,7 @@
         <v>99</v>
       </c>
       <c r="K42" t="n">
-        <v>5.454545454545454</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L42" t="n">
         <v>992.1</v>
@@ -2421,7 +2443,7 @@
         <v>99</v>
       </c>
       <c r="K43" t="n">
-        <v>-8.333333333333332</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L43" t="n">
         <v>992</v>
@@ -2472,7 +2494,7 @@
         <v>102</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>992.2</v>
@@ -2523,7 +2545,7 @@
         <v>104</v>
       </c>
       <c r="K45" t="n">
-        <v>8</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L45" t="n">
         <v>992.8</v>
@@ -2625,7 +2647,7 @@
         <v>105</v>
       </c>
       <c r="K47" t="n">
-        <v>14.28571428571428</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L47" t="n">
         <v>993.6</v>
@@ -2676,7 +2698,7 @@
         <v>105</v>
       </c>
       <c r="K48" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L48" t="n">
         <v>994.5</v>
@@ -2727,7 +2749,7 @@
         <v>105</v>
       </c>
       <c r="K49" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>994.7</v>
@@ -2778,7 +2800,7 @@
         <v>106</v>
       </c>
       <c r="K50" t="n">
-        <v>19.04761904761905</v>
+        <v>40</v>
       </c>
       <c r="L50" t="n">
         <v>995.1</v>
@@ -2829,7 +2851,7 @@
         <v>107</v>
       </c>
       <c r="K51" t="n">
-        <v>17.07317073170732</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>995.6</v>
@@ -2880,7 +2902,7 @@
         <v>107</v>
       </c>
       <c r="K52" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>996.4</v>
@@ -2931,7 +2953,7 @@
         <v>107</v>
       </c>
       <c r="K53" t="n">
-        <v>18.91891891891892</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>997.2</v>
@@ -2982,7 +3004,7 @@
         <v>107</v>
       </c>
       <c r="K54" t="n">
-        <v>18.91891891891892</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>997.7</v>
@@ -3033,7 +3055,7 @@
         <v>107</v>
       </c>
       <c r="K55" t="n">
-        <v>25.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>998</v>
@@ -3084,7 +3106,7 @@
         <v>113</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="L56" t="n">
         <v>997.7</v>
@@ -3135,7 +3157,7 @@
         <v>113</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L57" t="n">
         <v>997.3</v>
@@ -3186,7 +3208,7 @@
         <v>119</v>
       </c>
       <c r="K58" t="n">
-        <v>35.48387096774194</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>997.5</v>
@@ -3237,7 +3259,7 @@
         <v>119</v>
       </c>
       <c r="K59" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L59" t="n">
         <v>997.7</v>
@@ -3288,7 +3310,7 @@
         <v>119</v>
       </c>
       <c r="K60" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>997.8</v>
@@ -3339,7 +3361,7 @@
         <v>119</v>
       </c>
       <c r="K61" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>997.8</v>
@@ -3390,7 +3412,7 @@
         <v>123</v>
       </c>
       <c r="K62" t="n">
-        <v>16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L62" t="n">
         <v>997.4</v>
@@ -3441,7 +3463,7 @@
         <v>123</v>
       </c>
       <c r="K63" t="n">
-        <v>16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L63" t="n">
         <v>997</v>
@@ -3492,7 +3514,7 @@
         <v>126</v>
       </c>
       <c r="K64" t="n">
-        <v>16.66666666666666</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L64" t="n">
         <v>996.9</v>
@@ -3543,7 +3565,7 @@
         <v>128</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L65" t="n">
         <v>996.6</v>
@@ -3594,7 +3616,7 @@
         <v>131</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>997.2</v>
@@ -3645,7 +3667,7 @@
         <v>131</v>
       </c>
       <c r="K67" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>997.8</v>
@@ -3696,7 +3718,7 @@
         <v>131</v>
       </c>
       <c r="K68" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>997.8</v>
@@ -3747,7 +3769,7 @@
         <v>132</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L69" t="n">
         <v>997.9</v>
@@ -3798,7 +3820,7 @@
         <v>134</v>
       </c>
       <c r="K70" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>998.2</v>
@@ -3849,7 +3871,7 @@
         <v>137</v>
       </c>
       <c r="K71" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L71" t="n">
         <v>998.8</v>
@@ -3900,7 +3922,7 @@
         <v>137</v>
       </c>
       <c r="K72" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L72" t="n">
         <v>999.8</v>
@@ -3951,7 +3973,7 @@
         <v>140</v>
       </c>
       <c r="K73" t="n">
-        <v>27.27272727272727</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L73" t="n">
         <v>1001.1</v>
@@ -4002,7 +4024,7 @@
         <v>140</v>
       </c>
       <c r="K74" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>1002.1</v>
@@ -4053,7 +4075,7 @@
         <v>140</v>
       </c>
       <c r="K75" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>1003.3</v>
@@ -4104,7 +4126,7 @@
         <v>148</v>
       </c>
       <c r="K76" t="n">
-        <v>65.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>1005</v>
@@ -4155,7 +4177,7 @@
         <v>148</v>
       </c>
       <c r="K77" t="n">
-        <v>65.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>1006.7</v>
@@ -4206,7 +4228,7 @@
         <v>149</v>
       </c>
       <c r="K78" t="n">
-        <v>53.33333333333334</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L78" t="n">
         <v>1008.3</v>
@@ -4257,7 +4279,7 @@
         <v>150</v>
       </c>
       <c r="K79" t="n">
-        <v>54.83870967741935</v>
+        <v>87.5</v>
       </c>
       <c r="L79" t="n">
         <v>1009.9</v>
@@ -4308,7 +4330,7 @@
         <v>155</v>
       </c>
       <c r="K80" t="n">
-        <v>61.11111111111111</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L80" t="n">
         <v>1011.8</v>
@@ -4359,7 +4381,7 @@
         <v>155</v>
       </c>
       <c r="K81" t="n">
-        <v>61.11111111111111</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L81" t="n">
         <v>1013.4</v>
@@ -4410,7 +4432,7 @@
         <v>156</v>
       </c>
       <c r="K82" t="n">
-        <v>81.81818181818183</v>
+        <v>87.5</v>
       </c>
       <c r="L82" t="n">
         <v>1015.1</v>
@@ -4512,7 +4534,7 @@
         <v>157</v>
       </c>
       <c r="K84" t="n">
-        <v>74.19354838709677</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L84" t="n">
         <v>1017.7</v>
@@ -4563,7 +4585,7 @@
         <v>158</v>
       </c>
       <c r="K85" t="n">
-        <v>86.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L85" t="n">
         <v>1019.1</v>
@@ -4614,7 +4636,7 @@
         <v>158</v>
       </c>
       <c r="K86" t="n">
-        <v>85.18518518518519</v>
+        <v>60</v>
       </c>
       <c r="L86" t="n">
         <v>1019.7</v>
@@ -4665,7 +4687,7 @@
         <v>161</v>
       </c>
       <c r="K87" t="n">
-        <v>86.66666666666667</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L87" t="n">
         <v>1020.6</v>
@@ -4716,7 +4738,7 @@
         <v>161</v>
       </c>
       <c r="K88" t="n">
-        <v>86.66666666666667</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L88" t="n">
         <v>1021.6</v>
@@ -4767,7 +4789,7 @@
         <v>161</v>
       </c>
       <c r="K89" t="n">
-        <v>86.20689655172413</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>1022.5</v>
@@ -4818,7 +4840,7 @@
         <v>164</v>
       </c>
       <c r="K90" t="n">
-        <v>66.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L90" t="n">
         <v>1022.6</v>
@@ -4869,7 +4891,7 @@
         <v>166</v>
       </c>
       <c r="K91" t="n">
-        <v>65.51724137931035</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>1022.9</v>
@@ -4920,7 +4942,7 @@
         <v>166</v>
       </c>
       <c r="K92" t="n">
-        <v>65.51724137931035</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>1023.1</v>
@@ -4971,7 +4993,7 @@
         <v>166</v>
       </c>
       <c r="K93" t="n">
-        <v>61.53846153846154</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>1023.4</v>
@@ -5022,7 +5044,7 @@
         <v>171</v>
       </c>
       <c r="K94" t="n">
-        <v>35.48387096774194</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L94" t="n">
         <v>1023.2</v>
@@ -5073,7 +5095,7 @@
         <v>171</v>
       </c>
       <c r="K95" t="n">
-        <v>35.48387096774194</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L95" t="n">
         <v>1022.9</v>
@@ -5124,7 +5146,7 @@
         <v>172</v>
       </c>
       <c r="K96" t="n">
-        <v>8.333333333333332</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L96" t="n">
         <v>1022.5</v>
@@ -5175,7 +5197,7 @@
         <v>173</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L97" t="n">
         <v>1021.7</v>
@@ -5226,7 +5248,7 @@
         <v>173</v>
       </c>
       <c r="K98" t="n">
-        <v>8.333333333333332</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L98" t="n">
         <v>1020.9</v>
@@ -5277,7 +5299,7 @@
         <v>178</v>
       </c>
       <c r="K99" t="n">
-        <v>21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>1020.6</v>
@@ -5328,7 +5350,7 @@
         <v>182</v>
       </c>
       <c r="K100" t="n">
-        <v>-11.11111111111111</v>
+        <v>-37.5</v>
       </c>
       <c r="L100" t="n">
         <v>1020.2</v>
@@ -5379,7 +5401,7 @@
         <v>183</v>
       </c>
       <c r="K101" t="n">
-        <v>-14.28571428571428</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L101" t="n">
         <v>1019.5</v>
@@ -5430,7 +5452,7 @@
         <v>184</v>
       </c>
       <c r="K102" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>1018.9</v>
@@ -5481,7 +5503,7 @@
         <v>185</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>1018.4</v>
@@ -5532,7 +5554,7 @@
         <v>186</v>
       </c>
       <c r="K104" t="n">
-        <v>-10.3448275862069</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L104" t="n">
         <v>1018.3</v>
@@ -5583,7 +5605,7 @@
         <v>186</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>1018.2</v>
@@ -5634,7 +5656,7 @@
         <v>186</v>
       </c>
       <c r="K106" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L106" t="n">
         <v>1018.2</v>
@@ -5685,7 +5707,7 @@
         <v>186</v>
       </c>
       <c r="K107" t="n">
-        <v>-28</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L107" t="n">
         <v>1018.3</v>
@@ -5736,7 +5758,7 @@
         <v>187</v>
       </c>
       <c r="K108" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>1018.5</v>
@@ -5787,7 +5809,7 @@
         <v>190</v>
       </c>
       <c r="K109" t="n">
-        <v>-31.03448275862069</v>
+        <v>-25</v>
       </c>
       <c r="L109" t="n">
         <v>1017.9</v>
@@ -5838,7 +5860,7 @@
         <v>191</v>
       </c>
       <c r="K110" t="n">
-        <v>-25.92592592592592</v>
+        <v>-25</v>
       </c>
       <c r="L110" t="n">
         <v>1017.6</v>
@@ -5889,7 +5911,7 @@
         <v>192</v>
       </c>
       <c r="K111" t="n">
-        <v>-30.76923076923077</v>
+        <v>-25</v>
       </c>
       <c r="L111" t="n">
         <v>1017.5</v>
@@ -5940,7 +5962,7 @@
         <v>197</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.67741935483871</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L112" t="n">
         <v>1017.8</v>
@@ -5991,7 +6013,7 @@
         <v>198</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>1018.1</v>
@@ -6042,7 +6064,7 @@
         <v>198</v>
       </c>
       <c r="K114" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>1018.5</v>
@@ -6093,7 +6115,7 @@
         <v>198</v>
       </c>
       <c r="K115" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>1018.9</v>
@@ -6144,7 +6166,7 @@
         <v>198</v>
       </c>
       <c r="K116" t="n">
-        <v>15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>1019.3</v>
@@ -6195,7 +6217,7 @@
         <v>202</v>
       </c>
       <c r="K117" t="n">
-        <v>3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L117" t="n">
         <v>1019.3</v>
@@ -6246,7 +6268,7 @@
         <v>205</v>
       </c>
       <c r="K118" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>1019.5</v>
@@ -6297,7 +6319,7 @@
         <v>205</v>
       </c>
       <c r="K119" t="n">
-        <v>-3.703703703703703</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L119" t="n">
         <v>1020</v>
@@ -6348,7 +6370,7 @@
         <v>206</v>
       </c>
       <c r="K120" t="n">
-        <v>8.333333333333332</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L120" t="n">
         <v>1020.5</v>
@@ -6399,7 +6421,7 @@
         <v>206</v>
       </c>
       <c r="K121" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>1020.9</v>
@@ -6450,7 +6472,7 @@
         <v>207</v>
       </c>
       <c r="K122" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>1020.9</v>
@@ -6501,7 +6523,7 @@
         <v>208</v>
       </c>
       <c r="K123" t="n">
-        <v>4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L123" t="n">
         <v>1020.7</v>
@@ -6552,7 +6574,7 @@
         <v>210</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>1020.3</v>
@@ -6603,7 +6625,7 @@
         <v>211</v>
       </c>
       <c r="K125" t="n">
-        <v>4</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L125" t="n">
         <v>1020</v>
@@ -6654,7 +6676,7 @@
         <v>217</v>
       </c>
       <c r="K126" t="n">
-        <v>-16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>1019.1</v>
@@ -6705,7 +6727,7 @@
         <v>223</v>
       </c>
       <c r="K127" t="n">
-        <v>2.702702702702703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L127" t="n">
         <v>1019.2</v>
@@ -6756,7 +6778,7 @@
         <v>223</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L128" t="n">
         <v>1019</v>
@@ -6807,7 +6829,7 @@
         <v>223</v>
       </c>
       <c r="K129" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L129" t="n">
         <v>1018.8</v>
@@ -6858,7 +6880,7 @@
         <v>227</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L130" t="n">
         <v>1018.3</v>
@@ -6909,7 +6931,7 @@
         <v>229</v>
       </c>
       <c r="K131" t="n">
-        <v>2.702702702702703</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L131" t="n">
         <v>1018</v>
@@ -6960,7 +6982,7 @@
         <v>231</v>
       </c>
       <c r="K132" t="n">
-        <v>-17.64705882352941</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L132" t="n">
         <v>1017.4</v>
@@ -7011,7 +7033,7 @@
         <v>240</v>
       </c>
       <c r="K133" t="n">
-        <v>-38.09523809523809</v>
+        <v>-40</v>
       </c>
       <c r="L133" t="n">
         <v>1016</v>
@@ -7062,7 +7084,7 @@
         <v>242</v>
       </c>
       <c r="K134" t="n">
-        <v>-40.90909090909091</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L134" t="n">
         <v>1014.6</v>
@@ -7113,7 +7135,7 @@
         <v>247</v>
       </c>
       <c r="K135" t="n">
-        <v>-26.53061224489796</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>1013.6</v>
@@ -7164,7 +7186,7 @@
         <v>254</v>
       </c>
       <c r="K136" t="n">
-        <v>-35.71428571428572</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L136" t="n">
         <v>1012.5</v>
@@ -7215,7 +7237,7 @@
         <v>260</v>
       </c>
       <c r="K137" t="n">
-        <v>-17.24137931034483</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L137" t="n">
         <v>1011.4</v>
@@ -7266,7 +7288,7 @@
         <v>264</v>
       </c>
       <c r="K138" t="n">
-        <v>-28.8135593220339</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L138" t="n">
         <v>1009.9</v>
@@ -7317,7 +7339,7 @@
         <v>264</v>
       </c>
       <c r="K139" t="n">
-        <v>-28.8135593220339</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L139" t="n">
         <v>1008.4</v>
@@ -7368,7 +7390,7 @@
         <v>265</v>
       </c>
       <c r="K140" t="n">
-        <v>-25.42372881355932</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>1007.4</v>
@@ -7419,7 +7441,7 @@
         <v>265</v>
       </c>
       <c r="K141" t="n">
-        <v>-25.42372881355932</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L141" t="n">
         <v>1006.2</v>
@@ -7470,7 +7492,7 @@
         <v>267</v>
       </c>
       <c r="K142" t="n">
-        <v>-30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L142" t="n">
         <v>1005</v>
@@ -7521,7 +7543,7 @@
         <v>268</v>
       </c>
       <c r="K143" t="n">
-        <v>-30</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L143" t="n">
         <v>1004.6</v>
@@ -7572,7 +7594,7 @@
         <v>269</v>
       </c>
       <c r="K144" t="n">
-        <v>-25.42372881355932</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L144" t="n">
         <v>1004.5</v>
@@ -7623,7 +7645,7 @@
         <v>270</v>
       </c>
       <c r="K145" t="n">
-        <v>-25.42372881355932</v>
+        <v>12.5</v>
       </c>
       <c r="L145" t="n">
         <v>1004</v>
@@ -7674,7 +7696,7 @@
         <v>277</v>
       </c>
       <c r="K146" t="n">
-        <v>-26.66666666666667</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L146" t="n">
         <v>1003.5</v>
@@ -7725,7 +7747,7 @@
         <v>280</v>
       </c>
       <c r="K147" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L147" t="n">
         <v>1002.7</v>
@@ -7776,7 +7798,7 @@
         <v>280</v>
       </c>
       <c r="K148" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L148" t="n">
         <v>1002.3</v>
@@ -7827,7 +7849,7 @@
         <v>283</v>
       </c>
       <c r="K149" t="n">
-        <v>-36.66666666666666</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L149" t="n">
         <v>1001.6</v>
@@ -7878,7 +7900,7 @@
         <v>287</v>
       </c>
       <c r="K150" t="n">
-        <v>-36.66666666666666</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L150" t="n">
         <v>1000.4</v>
@@ -7929,7 +7951,7 @@
         <v>287</v>
       </c>
       <c r="K151" t="n">
-        <v>-41.37931034482759</v>
+        <v>-50</v>
       </c>
       <c r="L151" t="n">
         <v>999.2</v>
@@ -7980,7 +8002,7 @@
         <v>287</v>
       </c>
       <c r="K152" t="n">
-        <v>-39.28571428571428</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L152" t="n">
         <v>998.2</v>
@@ -8031,7 +8053,7 @@
         <v>288</v>
       </c>
       <c r="K153" t="n">
-        <v>-25</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L153" t="n">
         <v>997.4</v>
@@ -8082,7 +8104,7 @@
         <v>290</v>
       </c>
       <c r="K154" t="n">
-        <v>-16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L154" t="n">
         <v>996.7</v>
@@ -8133,7 +8155,7 @@
         <v>293</v>
       </c>
       <c r="K155" t="n">
-        <v>-34.78260869565217</v>
+        <v>-25</v>
       </c>
       <c r="L155" t="n">
         <v>995.6</v>
@@ -8184,7 +8206,7 @@
         <v>293</v>
       </c>
       <c r="K156" t="n">
-        <v>-23.07692307692308</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L156" t="n">
         <v>995.2</v>
@@ -8235,7 +8257,7 @@
         <v>294</v>
       </c>
       <c r="K157" t="n">
-        <v>-47.05882352941176</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L157" t="n">
         <v>994.4</v>
@@ -8286,7 +8308,7 @@
         <v>295</v>
       </c>
       <c r="K158" t="n">
-        <v>-35.48387096774194</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>993.7</v>
@@ -8337,7 +8359,7 @@
         <v>296</v>
       </c>
       <c r="K159" t="n">
-        <v>-37.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>993.2</v>
@@ -8388,7 +8410,7 @@
         <v>296</v>
       </c>
       <c r="K160" t="n">
-        <v>-41.93548387096774</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L160" t="n">
         <v>993.1</v>
@@ -8439,7 +8461,7 @@
         <v>296</v>
       </c>
       <c r="K161" t="n">
-        <v>-41.93548387096774</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L161" t="n">
         <v>993</v>
@@ -8490,7 +8512,7 @@
         <v>301</v>
       </c>
       <c r="K162" t="n">
-        <v>-17.64705882352941</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L162" t="n">
         <v>993.4</v>
@@ -8541,7 +8563,7 @@
         <v>306</v>
       </c>
       <c r="K163" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L163" t="n">
         <v>993.2</v>
@@ -8592,7 +8614,7 @@
         <v>308</v>
       </c>
       <c r="K164" t="n">
-        <v>-23.07692307692308</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L164" t="n">
         <v>993</v>
@@ -8643,7 +8665,7 @@
         <v>313</v>
       </c>
       <c r="K165" t="n">
-        <v>-11.62790697674419</v>
+        <v>30</v>
       </c>
       <c r="L165" t="n">
         <v>993.6</v>
@@ -8694,7 +8716,7 @@
         <v>315</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L166" t="n">
         <v>994</v>
@@ -8745,7 +8767,7 @@
         <v>317</v>
       </c>
       <c r="K167" t="n">
-        <v>-13.51351351351351</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L167" t="n">
         <v>994.3</v>
@@ -8796,7 +8818,7 @@
         <v>318</v>
       </c>
       <c r="K168" t="n">
-        <v>-15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L168" t="n">
         <v>994.4</v>
@@ -8847,7 +8869,7 @@
         <v>320</v>
       </c>
       <c r="K169" t="n">
-        <v>-2.702702702702703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L169" t="n">
         <v>994.8</v>
@@ -8898,7 +8920,7 @@
         <v>324</v>
       </c>
       <c r="K170" t="n">
-        <v>18.91891891891892</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L170" t="n">
         <v>995.6</v>
@@ -8949,7 +8971,7 @@
         <v>328</v>
       </c>
       <c r="K171" t="n">
-        <v>7.317073170731707</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L171" t="n">
         <v>996</v>
@@ -9000,7 +9022,7 @@
         <v>329</v>
       </c>
       <c r="K172" t="n">
-        <v>4.761904761904762</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L172" t="n">
         <v>995.8</v>
@@ -9051,7 +9073,7 @@
         <v>334</v>
       </c>
       <c r="K173" t="n">
-        <v>13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L173" t="n">
         <v>996.6</v>
@@ -9102,7 +9124,7 @@
         <v>337</v>
       </c>
       <c r="K174" t="n">
-        <v>2.127659574468085</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L174" t="n">
         <v>996.9</v>
@@ -9153,7 +9175,7 @@
         <v>338</v>
       </c>
       <c r="K175" t="n">
-        <v>6.666666666666667</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L175" t="n">
         <v>996.6</v>
@@ -9204,7 +9226,7 @@
         <v>340</v>
       </c>
       <c r="K176" t="n">
-        <v>10.63829787234043</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L176" t="n">
         <v>996.7</v>
@@ -9255,7 +9277,7 @@
         <v>341</v>
       </c>
       <c r="K177" t="n">
-        <v>14.8936170212766</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L177" t="n">
         <v>997.1</v>
@@ -9306,7 +9328,7 @@
         <v>344</v>
       </c>
       <c r="K178" t="n">
-        <v>18.36734693877551</v>
+        <v>25</v>
       </c>
       <c r="L178" t="n">
         <v>997.9</v>
@@ -9357,7 +9379,7 @@
         <v>347</v>
       </c>
       <c r="K179" t="n">
-        <v>13.72549019607843</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L179" t="n">
         <v>998.2</v>
@@ -9408,7 +9430,7 @@
         <v>350</v>
       </c>
       <c r="K180" t="n">
-        <v>18.51851851851852</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L180" t="n">
         <v>998.4</v>
@@ -9459,7 +9481,7 @@
         <v>353</v>
       </c>
       <c r="K181" t="n">
-        <v>12.28070175438596</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L181" t="n">
         <v>998.7</v>
@@ -9510,7 +9532,7 @@
         <v>353</v>
       </c>
       <c r="K182" t="n">
-        <v>3.846153846153846</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L182" t="n">
         <v>999.1</v>
@@ -9561,7 +9583,7 @@
         <v>354</v>
       </c>
       <c r="K183" t="n">
-        <v>16.66666666666666</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L183" t="n">
         <v>999.1</v>
@@ -9612,7 +9634,7 @@
         <v>355</v>
       </c>
       <c r="K184" t="n">
-        <v>14.8936170212766</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L184" t="n">
         <v>999.5</v>
@@ -9663,7 +9685,7 @@
         <v>357</v>
       </c>
       <c r="K185" t="n">
-        <v>9.090909090909092</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L185" t="n">
         <v>1000.2</v>
@@ -9714,7 +9736,7 @@
         <v>359</v>
       </c>
       <c r="K186" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L186" t="n">
         <v>1000.5</v>
@@ -9765,7 +9787,7 @@
         <v>362</v>
       </c>
       <c r="K187" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L187" t="n">
         <v>1001</v>
@@ -9816,7 +9838,7 @@
         <v>364</v>
       </c>
       <c r="K188" t="n">
-        <v>17.39130434782609</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L188" t="n">
         <v>1001</v>
@@ -9867,7 +9889,7 @@
         <v>371</v>
       </c>
       <c r="K189" t="n">
-        <v>25.49019607843137</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>1002</v>
@@ -9918,7 +9940,7 @@
         <v>376</v>
       </c>
       <c r="K190" t="n">
-        <v>7.692307692307693</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L190" t="n">
         <v>1002.2</v>
@@ -9969,7 +9991,7 @@
         <v>379</v>
       </c>
       <c r="K191" t="n">
-        <v>9.803921568627452</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L191" t="n">
         <v>1002.4</v>
@@ -10020,7 +10042,7 @@
         <v>385</v>
       </c>
       <c r="K192" t="n">
-        <v>21.42857142857143</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L192" t="n">
         <v>1003.2</v>
@@ -10071,7 +10093,7 @@
         <v>386</v>
       </c>
       <c r="K193" t="n">
-        <v>11.53846153846154</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L193" t="n">
         <v>1003.8</v>
@@ -10122,7 +10144,7 @@
         <v>386</v>
       </c>
       <c r="K194" t="n">
-        <v>18.36734693877551</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L194" t="n">
         <v>1004.3</v>
@@ -10173,7 +10195,7 @@
         <v>386</v>
       </c>
       <c r="K195" t="n">
-        <v>20.83333333333334</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L195" t="n">
         <v>1004.6</v>
@@ -10224,7 +10246,7 @@
         <v>391</v>
       </c>
       <c r="K196" t="n">
-        <v>25.49019607843137</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L196" t="n">
         <v>1005.6</v>
@@ -10275,7 +10297,7 @@
         <v>392</v>
       </c>
       <c r="K197" t="n">
-        <v>25.49019607843137</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L197" t="n">
         <v>1006.4</v>
@@ -10326,7 +10348,7 @@
         <v>392</v>
       </c>
       <c r="K198" t="n">
-        <v>20.83333333333334</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L198" t="n">
         <v>1007.4</v>
@@ -10377,7 +10399,7 @@
         <v>395</v>
       </c>
       <c r="K199" t="n">
-        <v>33.33333333333333</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L199" t="n">
         <v>1008</v>
@@ -10428,7 +10450,7 @@
         <v>395</v>
       </c>
       <c r="K200" t="n">
-        <v>28.88888888888889</v>
+        <v>87.5</v>
       </c>
       <c r="L200" t="n">
         <v>1009.1</v>
@@ -10479,7 +10501,7 @@
         <v>397</v>
       </c>
       <c r="K201" t="n">
-        <v>40.90909090909091</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L201" t="n">
         <v>1010.7</v>
@@ -10530,7 +10552,7 @@
         <v>398</v>
       </c>
       <c r="K202" t="n">
-        <v>42.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>1011.8</v>
@@ -10581,7 +10603,7 @@
         <v>399</v>
       </c>
       <c r="K203" t="n">
-        <v>42.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>1013.1</v>
@@ -10632,7 +10654,7 @@
         <v>399</v>
       </c>
       <c r="K204" t="n">
-        <v>40.90909090909091</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>1014.4</v>
@@ -10683,7 +10705,7 @@
         <v>399</v>
       </c>
       <c r="K205" t="n">
-        <v>38.09523809523809</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>1015.7</v>
@@ -10734,7 +10756,7 @@
         <v>400</v>
       </c>
       <c r="K206" t="n">
-        <v>46.34146341463415</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>1016.6</v>
@@ -10785,7 +10807,7 @@
         <v>401</v>
       </c>
       <c r="K207" t="n">
-        <v>38.46153846153847</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L207" t="n">
         <v>1017.3</v>
@@ -10836,7 +10858,7 @@
         <v>402</v>
       </c>
       <c r="K208" t="n">
-        <v>47.36842105263158</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L208" t="n">
         <v>1018.1</v>
@@ -10887,7 +10909,7 @@
         <v>402</v>
       </c>
       <c r="K209" t="n">
-        <v>35.48387096774194</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L209" t="n">
         <v>1018.6</v>
@@ -10938,7 +10960,7 @@
         <v>403</v>
       </c>
       <c r="K210" t="n">
-        <v>62.96296296296296</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L210" t="n">
         <v>1019.2</v>
@@ -10989,7 +11011,7 @@
         <v>403</v>
       </c>
       <c r="K211" t="n">
-        <v>83.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L211" t="n">
         <v>1019.6</v>
@@ -11040,7 +11062,7 @@
         <v>403</v>
       </c>
       <c r="K212" t="n">
-        <v>77.77777777777779</v>
+        <v>50</v>
       </c>
       <c r="L212" t="n">
         <v>1019.9</v>
@@ -11091,7 +11113,7 @@
         <v>403</v>
       </c>
       <c r="K213" t="n">
-        <v>88.23529411764706</v>
+        <v>50</v>
       </c>
       <c r="L213" t="n">
         <v>1020.1</v>
@@ -11142,7 +11164,7 @@
         <v>403</v>
       </c>
       <c r="K214" t="n">
-        <v>88.23529411764706</v>
+        <v>50</v>
       </c>
       <c r="L214" t="n">
         <v>1020.3</v>
@@ -11193,7 +11215,7 @@
         <v>403</v>
       </c>
       <c r="K215" t="n">
-        <v>88.23529411764706</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>1020.5</v>
@@ -11244,7 +11266,7 @@
         <v>403</v>
       </c>
       <c r="K216" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>1020.6</v>

--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>990.55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>990</v>
+      </c>
+      <c r="K2" t="n">
+        <v>990</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>990.4666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>990</v>
+      </c>
+      <c r="K3" t="n">
+        <v>990</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>990.3833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>990</v>
+      </c>
+      <c r="K4" t="n">
+        <v>990</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>990.3833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="K5" t="n">
+        <v>995</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>990.3833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>992</v>
+      </c>
+      <c r="K6" t="n">
+        <v>995</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>990.3666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>992</v>
+      </c>
+      <c r="K7" t="n">
+        <v>995</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +701,23 @@
         <v>990.2166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>992</v>
+      </c>
+      <c r="K8" t="n">
+        <v>995</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +744,23 @@
         <v>990.1333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>989</v>
+      </c>
+      <c r="K9" t="n">
+        <v>995</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +787,23 @@
         <v>990.0666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>987</v>
+      </c>
+      <c r="K10" t="n">
+        <v>995</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +830,23 @@
         <v>989.95</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>990.1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>986</v>
+      </c>
+      <c r="K11" t="n">
+        <v>995</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +873,23 @@
         <v>989.8833333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17</v>
+        <v>989</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L12" t="n">
-        <v>990</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>995</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +916,23 @@
         <v>989.8166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17</v>
+        <v>989</v>
       </c>
       <c r="K13" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L13" t="n">
-        <v>989.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>995</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +959,23 @@
         <v>989.7666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="K14" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L14" t="n">
-        <v>989.9</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>995</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +1002,23 @@
         <v>989.7666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="K15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L15" t="n">
-        <v>989.4</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>995</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1045,23 @@
         <v>989.8833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>995</v>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>989.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>995</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1088,23 @@
         <v>989.8833333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>988</v>
       </c>
       <c r="K17" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L17" t="n">
-        <v>989.3</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>995</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1131,23 @@
         <v>989.9833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>37</v>
+        <v>995</v>
       </c>
       <c r="K18" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>989.6</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>995</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1174,23 @@
         <v>990.0833333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>38</v>
+        <v>994</v>
       </c>
       <c r="K19" t="n">
-        <v>28</v>
-      </c>
-      <c r="L19" t="n">
-        <v>990.3</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>995</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1217,23 @@
         <v>990.1666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38</v>
+        <v>994</v>
       </c>
       <c r="K20" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>991</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>995</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1260,23 @@
         <v>990.15</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>44</v>
+        <v>993</v>
       </c>
       <c r="K21" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L21" t="n">
-        <v>991.2</v>
+        <v>995</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>990.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1303,23 @@
         <v>990.1333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>44</v>
+        <v>988</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L22" t="n">
-        <v>991.1</v>
+        <v>995</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>990.55</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1346,23 @@
         <v>990.2333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51</v>
+        <v>987</v>
       </c>
       <c r="K23" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L23" t="n">
-        <v>991.7</v>
+        <v>995</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>990.8</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1389,23 @@
         <v>990.3666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52</v>
+        <v>994</v>
       </c>
       <c r="K24" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L24" t="n">
-        <v>992.1</v>
+        <v>995</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>991</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1432,23 @@
         <v>990.4166666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>54</v>
+        <v>991</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.67741935483871</v>
-      </c>
-      <c r="L25" t="n">
-        <v>992.3</v>
+        <v>995</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>990.85</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1475,23 @@
         <v>990.5333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>58</v>
+        <v>989</v>
       </c>
       <c r="K26" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L26" t="n">
-        <v>992.4</v>
+        <v>995</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>991.05</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1518,23 @@
         <v>990.5666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>63</v>
+        <v>991</v>
       </c>
       <c r="K27" t="n">
-        <v>-15.38461538461539</v>
-      </c>
-      <c r="L27" t="n">
-        <v>992.7</v>
+        <v>995</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>991</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1561,23 @@
         <v>990.6</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63</v>
+        <v>991</v>
       </c>
       <c r="K28" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L28" t="n">
-        <v>992.3</v>
+        <v>995</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>990.95</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1604,23 @@
         <v>990.7166666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>63</v>
+        <v>991</v>
       </c>
       <c r="K29" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L29" t="n">
-        <v>992</v>
+        <v>995</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>991.15</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1647,23 @@
         <v>990.75</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64</v>
+        <v>990</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
-      </c>
-      <c r="L30" t="n">
-        <v>991.6</v>
+        <v>995</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>991.3</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1690,23 @@
         <v>990.8</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>66</v>
+        <v>992</v>
       </c>
       <c r="K31" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L31" t="n">
-        <v>992</v>
+        <v>995</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>991.6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>991.1</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1733,23 @@
         <v>990.8166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>68</v>
+        <v>990</v>
       </c>
       <c r="K32" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L32" t="n">
-        <v>992.2</v>
+        <v>995</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>991.65</v>
-      </c>
-      <c r="N32" t="n">
-        <v>991.1</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1776,23 @@
         <v>990.8666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70</v>
+        <v>992</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L33" t="n">
-        <v>991.9</v>
+        <v>995</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>991.8</v>
-      </c>
-      <c r="N33" t="n">
-        <v>991.1666666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1819,23 @@
         <v>990.9166666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70</v>
+        <v>992</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>991.7</v>
+        <v>995</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>991.9</v>
-      </c>
-      <c r="N34" t="n">
-        <v>991.2333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1862,23 @@
         <v>990.9333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72</v>
+        <v>990</v>
       </c>
       <c r="K35" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L35" t="n">
-        <v>991.5</v>
+        <v>995</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>991.9</v>
-      </c>
-      <c r="N35" t="n">
-        <v>991.0666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1905,23 @@
         <v>990.9166666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>73</v>
+        <v>989</v>
       </c>
       <c r="K36" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L36" t="n">
-        <v>990.8</v>
+        <v>995</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>991.6</v>
-      </c>
-      <c r="N36" t="n">
-        <v>990.9666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1948,23 @@
         <v>991.0166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80</v>
+        <v>988</v>
       </c>
       <c r="K37" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L37" t="n">
-        <v>991.3</v>
+        <v>995</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>992</v>
-      </c>
-      <c r="N37" t="n">
-        <v>991.1</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1991,23 @@
         <v>991</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88</v>
+        <v>992</v>
       </c>
       <c r="K38" t="n">
-        <v>-12</v>
-      </c>
-      <c r="L38" t="n">
-        <v>991</v>
+        <v>995</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>991.65</v>
-      </c>
-      <c r="N38" t="n">
-        <v>990.9666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +2034,23 @@
         <v>991.0833333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>95</v>
+        <v>995</v>
       </c>
       <c r="K39" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L39" t="n">
-        <v>991.4</v>
+        <v>995</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>991.7</v>
-      </c>
-      <c r="N39" t="n">
-        <v>991.2333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +2077,23 @@
         <v>991.15</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>96</v>
+        <v>994</v>
       </c>
       <c r="K40" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L40" t="n">
-        <v>991.8</v>
+        <v>995</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>991.7</v>
-      </c>
-      <c r="N40" t="n">
-        <v>991.4666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2120,23 @@
         <v>991.2166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>96</v>
+        <v>994</v>
       </c>
       <c r="K41" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L41" t="n">
-        <v>992</v>
+        <v>995</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>992</v>
-      </c>
-      <c r="N41" t="n">
-        <v>991.7333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2163,23 @@
         <v>991.2333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>99</v>
+        <v>991</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L42" t="n">
-        <v>992.1</v>
+        <v>995</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>992.15</v>
-      </c>
-      <c r="N42" t="n">
-        <v>991.8</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2206,23 @@
         <v>991.25</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>99</v>
+        <v>991</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L43" t="n">
-        <v>992</v>
+        <v>995</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>991.95</v>
-      </c>
-      <c r="N43" t="n">
-        <v>991.8666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2249,23 @@
         <v>991.3166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102</v>
+        <v>994</v>
       </c>
       <c r="K44" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="L44" t="n">
-        <v>992.2</v>
+        <v>995</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>991.95</v>
-      </c>
-      <c r="N44" t="n">
-        <v>992</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2292,23 @@
         <v>991.4166666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>104</v>
+        <v>996</v>
       </c>
       <c r="K45" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L45" t="n">
-        <v>992.8</v>
+        <v>995</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>992.15</v>
-      </c>
-      <c r="N45" t="n">
-        <v>992.2</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2335,23 @@
         <v>991.5166666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104</v>
+        <v>996</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>993.5</v>
+        <v>995</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>992.15</v>
-      </c>
-      <c r="N46" t="n">
-        <v>992.2333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2381,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="L47" t="n">
-        <v>993.6</v>
+        <v>995</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>992.45</v>
-      </c>
-      <c r="N47" t="n">
-        <v>992.5333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2422,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>20</v>
-      </c>
-      <c r="L48" t="n">
-        <v>994.5</v>
+        <v>995</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>992.75</v>
-      </c>
-      <c r="N48" t="n">
-        <v>992.6</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2463,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>994.7</v>
+        <v>995</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>993.05</v>
-      </c>
-      <c r="N49" t="n">
-        <v>992.7</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2504,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>40</v>
-      </c>
-      <c r="L50" t="n">
-        <v>995.1</v>
+        <v>995</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>993.45</v>
-      </c>
-      <c r="N50" t="n">
-        <v>992.8333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2545,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>995.6</v>
+        <v>995</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>993.8</v>
-      </c>
-      <c r="N51" t="n">
-        <v>993.2</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2586,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>996.4</v>
+        <v>995</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>994.25</v>
-      </c>
-      <c r="N52" t="n">
-        <v>993.5666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2627,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>100</v>
-      </c>
-      <c r="L53" t="n">
-        <v>997.2</v>
+        <v>995</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>994.6</v>
-      </c>
-      <c r="N53" t="n">
-        <v>993.7</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2668,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" t="n">
-        <v>997.7</v>
+        <v>995</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>994.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>993.8666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2709,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" t="n">
-        <v>998</v>
+        <v>995</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>995.4</v>
-      </c>
-      <c r="N55" t="n">
-        <v>994.1</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2750,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L56" t="n">
-        <v>997.7</v>
+        <v>995</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>995.6</v>
-      </c>
-      <c r="N56" t="n">
-        <v>994</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2791,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L57" t="n">
-        <v>997.3</v>
+        <v>995</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>995.45</v>
-      </c>
-      <c r="N57" t="n">
-        <v>994.0666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2832,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L58" t="n">
-        <v>997.5</v>
+        <v>995</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>996</v>
-      </c>
-      <c r="N58" t="n">
-        <v>994.3333333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2873,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L59" t="n">
-        <v>997.7</v>
+        <v>995</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>996.2</v>
-      </c>
-      <c r="N59" t="n">
-        <v>994.6</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2914,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>997.8</v>
+        <v>995</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>996.45</v>
-      </c>
-      <c r="N60" t="n">
-        <v>994.9</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2955,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>997.8</v>
+        <v>995</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>996.7</v>
-      </c>
-      <c r="N61" t="n">
-        <v>995.1333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2996,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>997.4</v>
+        <v>995</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>996.9</v>
-      </c>
-      <c r="N62" t="n">
-        <v>995.3</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +3037,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L63" t="n">
-        <v>997</v>
+        <v>995</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>997.1</v>
-      </c>
-      <c r="N63" t="n">
-        <v>995.4</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3078,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L64" t="n">
-        <v>996.9</v>
+        <v>995</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>997.3</v>
-      </c>
-      <c r="N64" t="n">
-        <v>995.6</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3119,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>20</v>
-      </c>
-      <c r="L65" t="n">
-        <v>996.6</v>
+        <v>995</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>997.3</v>
-      </c>
-      <c r="N65" t="n">
-        <v>995.8</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3160,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L66" t="n">
-        <v>997.2</v>
+        <v>995</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>997.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>996.1333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3201,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>997.8</v>
+        <v>995</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>997.55</v>
-      </c>
-      <c r="N67" t="n">
-        <v>996.2333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3242,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>997.8</v>
+        <v>995</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>997.65</v>
-      </c>
-      <c r="N68" t="n">
-        <v>996.6</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3283,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L69" t="n">
-        <v>997.9</v>
+        <v>995</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>997.8</v>
-      </c>
-      <c r="N69" t="n">
-        <v>996.7666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3324,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>20</v>
-      </c>
-      <c r="L70" t="n">
-        <v>998.2</v>
+        <v>995</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>998</v>
-      </c>
-      <c r="N70" t="n">
-        <v>997.0333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3365,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L71" t="n">
-        <v>998.8</v>
+        <v>995</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>998.3</v>
-      </c>
-      <c r="N71" t="n">
-        <v>997.4</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3406,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
-      </c>
-      <c r="J72" t="n">
-        <v>137</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L72" t="n">
-        <v>999.8</v>
+        <v>995</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>998.6</v>
-      </c>
-      <c r="N72" t="n">
-        <v>997.8666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3447,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
-      </c>
-      <c r="J73" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1001.1</v>
+        <v>995</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>999.05</v>
-      </c>
-      <c r="N73" t="n">
-        <v>998.4333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3488,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
-      </c>
-      <c r="J74" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1002.1</v>
+        <v>995</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>999.5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>998.9</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3529,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1003.3</v>
+        <v>995</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>999.95</v>
-      </c>
-      <c r="N75" t="n">
-        <v>999.3</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3570,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1005</v>
+        <v>995</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>1001.1</v>
-      </c>
-      <c r="N76" t="n">
-        <v>999.9666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3611,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>26</v>
-      </c>
-      <c r="J77" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1006.7</v>
+        <v>995</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>1002.25</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1000.6</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3652,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>25</v>
-      </c>
-      <c r="J78" t="n">
-        <v>149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>88.23529411764706</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1008.3</v>
+        <v>995</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>1003.05</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1001.2</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3693,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>26</v>
-      </c>
-      <c r="J79" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1009.9</v>
+        <v>995</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>1003.9</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1001.833333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3734,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1011.8</v>
+        <v>995</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1002.6</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3775,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>31</v>
-      </c>
-      <c r="J81" t="n">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1013.4</v>
+        <v>995</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>1006.1</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1003.333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,29 +3816,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>156</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1015.1</v>
+        <v>995</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>1007.45</v>
-      </c>
-      <c r="N82" t="n">
-        <v>1004.1</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
-        <v>1</v>
+        <v>1.02213567839196</v>
       </c>
     </row>
     <row r="83">
@@ -4477,28 +3857,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>31</v>
-      </c>
-      <c r="J83" t="n">
-        <v>157</v>
-      </c>
-      <c r="K83" t="n">
-        <v>76.47058823529412</v>
-      </c>
-      <c r="L83" t="n">
-        <v>1016.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1008.75</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1004.833333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3892,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>31</v>
-      </c>
-      <c r="J84" t="n">
-        <v>157</v>
-      </c>
-      <c r="K84" t="n">
-        <v>76.47058823529412</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1017.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>1009.9</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1005.566666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3927,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="n">
-        <v>158</v>
-      </c>
-      <c r="K85" t="n">
-        <v>60</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1019.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>1011.2</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1006.333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3962,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>158</v>
-      </c>
-      <c r="K86" t="n">
-        <v>60</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1019.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>1012.35</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1007.3</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3997,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>35</v>
-      </c>
-      <c r="J87" t="n">
-        <v>161</v>
-      </c>
-      <c r="K87" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1020.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>1013.65</v>
-      </c>
-      <c r="N87" t="n">
-        <v>1008.366666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +4032,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>35</v>
-      </c>
-      <c r="J88" t="n">
-        <v>161</v>
-      </c>
-      <c r="K88" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1021.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>1014.95</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1009.233333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +4067,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>161</v>
-      </c>
-      <c r="K89" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1022.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>1016.2</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1010.1</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4102,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>32</v>
-      </c>
-      <c r="J90" t="n">
-        <v>164</v>
-      </c>
-      <c r="K90" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1022.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>1017.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1010.866666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4137,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>34</v>
-      </c>
-      <c r="J91" t="n">
-        <v>166</v>
-      </c>
-      <c r="K91" t="n">
-        <v>20</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1022.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>1018.15</v>
-      </c>
-      <c r="N91" t="n">
-        <v>1011.7</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4172,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>34</v>
-      </c>
-      <c r="J92" t="n">
-        <v>166</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1023.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>1019.1</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1012.666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4207,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>166</v>
-      </c>
-      <c r="K93" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1023.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1019.9</v>
-      </c>
-      <c r="N93" t="n">
-        <v>1013.633333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4242,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>29</v>
-      </c>
-      <c r="J94" t="n">
-        <v>171</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1023.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>1020.45</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1014.333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4277,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>29</v>
-      </c>
-      <c r="J95" t="n">
-        <v>171</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1022.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1015.1</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4312,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>28</v>
-      </c>
-      <c r="J96" t="n">
-        <v>172</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L96" t="n">
-        <v>1022.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>1021.1</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1015.733333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4347,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>27</v>
-      </c>
-      <c r="J97" t="n">
-        <v>173</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1021.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>1021.15</v>
-      </c>
-      <c r="N97" t="n">
-        <v>1016.333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4382,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>173</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1020.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>1021.25</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1016.933333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4417,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>178</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1020.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>1021.55</v>
-      </c>
-      <c r="N99" t="n">
-        <v>1017.666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4452,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>28</v>
-      </c>
-      <c r="J100" t="n">
-        <v>182</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L100" t="n">
-        <v>1020.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>1021.4</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1018.2</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4487,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>27</v>
-      </c>
-      <c r="J101" t="n">
-        <v>183</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1019.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>1021.2</v>
-      </c>
-      <c r="N101" t="n">
-        <v>1018.6</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4522,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>28</v>
-      </c>
-      <c r="J102" t="n">
-        <v>184</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1018.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N102" t="n">
-        <v>1019.033333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4557,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>29</v>
-      </c>
-      <c r="J103" t="n">
-        <v>185</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>1018.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>1020.9</v>
-      </c>
-      <c r="N103" t="n">
-        <v>1019.4</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4592,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>28</v>
-      </c>
-      <c r="J104" t="n">
-        <v>186</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1018.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>1020.75</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1019.733333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4627,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>28</v>
-      </c>
-      <c r="J105" t="n">
-        <v>186</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1018.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1020.55</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1020.066666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4662,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>28</v>
-      </c>
-      <c r="J106" t="n">
-        <v>186</v>
-      </c>
-      <c r="K106" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L106" t="n">
-        <v>1018.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1020.35</v>
-      </c>
-      <c r="N106" t="n">
-        <v>1020.133333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4697,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>28</v>
-      </c>
-      <c r="J107" t="n">
-        <v>186</v>
-      </c>
-      <c r="K107" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L107" t="n">
-        <v>1018.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N107" t="n">
-        <v>1020.2</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4732,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>29</v>
-      </c>
-      <c r="J108" t="n">
-        <v>187</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1018.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>1019.7</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1020.333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4767,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>26</v>
-      </c>
-      <c r="J109" t="n">
-        <v>190</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1017.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>1019.25</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1020.333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4802,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>191</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L110" t="n">
-        <v>1017.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>1018.9</v>
-      </c>
-      <c r="N110" t="n">
-        <v>1020.133333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4837,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>26</v>
-      </c>
-      <c r="J111" t="n">
-        <v>192</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L111" t="n">
-        <v>1017.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>1018.5</v>
-      </c>
-      <c r="N111" t="n">
-        <v>1019.966666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4872,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>31</v>
-      </c>
-      <c r="J112" t="n">
-        <v>197</v>
-      </c>
-      <c r="K112" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1017.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>1018.35</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1019.933333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4907,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>32</v>
-      </c>
-      <c r="J113" t="n">
-        <v>198</v>
-      </c>
-      <c r="K113" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1018.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>1018.25</v>
-      </c>
-      <c r="N113" t="n">
-        <v>1019.966666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4942,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>32</v>
-      </c>
-      <c r="J114" t="n">
-        <v>198</v>
-      </c>
-      <c r="K114" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1018.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>1018.4</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1020</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4977,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>32</v>
-      </c>
-      <c r="J115" t="n">
-        <v>198</v>
-      </c>
-      <c r="K115" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1018.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>1018.55</v>
-      </c>
-      <c r="N115" t="n">
-        <v>1020</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +5012,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>32</v>
-      </c>
-      <c r="J116" t="n">
-        <v>198</v>
-      </c>
-      <c r="K116" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1019.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>1018.75</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1020</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +5047,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>28</v>
-      </c>
-      <c r="J117" t="n">
-        <v>202</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1019.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1018.8</v>
-      </c>
-      <c r="N117" t="n">
-        <v>1019.766666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +5082,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>31</v>
-      </c>
-      <c r="J118" t="n">
-        <v>205</v>
-      </c>
-      <c r="K118" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1019.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>1019</v>
-      </c>
-      <c r="N118" t="n">
-        <v>1019.633333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5117,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>31</v>
-      </c>
-      <c r="J119" t="n">
-        <v>205</v>
-      </c>
-      <c r="K119" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>1018.95</v>
-      </c>
-      <c r="N119" t="n">
-        <v>1019.5</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5152,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>30</v>
-      </c>
-      <c r="J120" t="n">
-        <v>206</v>
-      </c>
-      <c r="K120" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1020.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>1019.05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>1019.433333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5187,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>30</v>
-      </c>
-      <c r="J121" t="n">
-        <v>206</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1020.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>1019.2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1019.3</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5222,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>31</v>
-      </c>
-      <c r="J122" t="n">
-        <v>207</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L122" t="n">
-        <v>1020.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>1019.35</v>
-      </c>
-      <c r="N122" t="n">
-        <v>1019.2</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5257,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>30</v>
-      </c>
-      <c r="J123" t="n">
-        <v>208</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1020.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>1019.4</v>
-      </c>
-      <c r="N123" t="n">
-        <v>1019.066666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5292,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>28</v>
-      </c>
-      <c r="J124" t="n">
-        <v>210</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1020.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>1019.4</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1019.033333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5327,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>29</v>
-      </c>
-      <c r="J125" t="n">
-        <v>211</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L125" t="n">
-        <v>1020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>1019.45</v>
-      </c>
-      <c r="N125" t="n">
-        <v>1019.033333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5362,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>23</v>
-      </c>
-      <c r="J126" t="n">
-        <v>217</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1019.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>1019.2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>1018.866666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5397,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>29</v>
-      </c>
-      <c r="J127" t="n">
-        <v>223</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L127" t="n">
-        <v>1019.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>1019.25</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1018.933333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5432,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>29</v>
-      </c>
-      <c r="J128" t="n">
-        <v>223</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>1019.25</v>
-      </c>
-      <c r="N128" t="n">
-        <v>1019</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5467,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>29</v>
-      </c>
-      <c r="J129" t="n">
-        <v>223</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L129" t="n">
-        <v>1018.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>1019.4</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1018.9</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5502,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>25</v>
-      </c>
-      <c r="J130" t="n">
-        <v>227</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L130" t="n">
-        <v>1018.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>1019.4</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1018.8</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5537,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>27</v>
-      </c>
-      <c r="J131" t="n">
-        <v>229</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L131" t="n">
-        <v>1018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>1019.45</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1018.8</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5572,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>25</v>
-      </c>
-      <c r="J132" t="n">
-        <v>231</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-21.73913043478261</v>
-      </c>
-      <c r="L132" t="n">
-        <v>1017.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>1019.15</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1018.7</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5607,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>16</v>
-      </c>
-      <c r="J133" t="n">
-        <v>240</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L133" t="n">
-        <v>1016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>1018.35</v>
-      </c>
-      <c r="N133" t="n">
-        <v>1018.266666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5642,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>14</v>
-      </c>
-      <c r="J134" t="n">
-        <v>242</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-48.38709677419355</v>
-      </c>
-      <c r="L134" t="n">
-        <v>1014.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>1017.45</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1017.8</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5677,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>19</v>
-      </c>
-      <c r="J135" t="n">
-        <v>247</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-13.33333333333333</v>
-      </c>
-      <c r="L135" t="n">
-        <v>1013.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>1016.8</v>
-      </c>
-      <c r="N135" t="n">
-        <v>1017.5</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5712,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>12</v>
-      </c>
-      <c r="J136" t="n">
-        <v>254</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-54.83870967741935</v>
-      </c>
-      <c r="L136" t="n">
-        <v>1012.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>1015.8</v>
-      </c>
-      <c r="N136" t="n">
-        <v>1016.966666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5747,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>18</v>
-      </c>
-      <c r="J137" t="n">
-        <v>260</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-29.72972972972973</v>
-      </c>
-      <c r="L137" t="n">
-        <v>1011.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>1015.3</v>
-      </c>
-      <c r="N137" t="n">
-        <v>1016.633333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5782,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>14</v>
-      </c>
-      <c r="J138" t="n">
-        <v>264</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-36.58536585365854</v>
-      </c>
-      <c r="L138" t="n">
-        <v>1009.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>1014.45</v>
-      </c>
-      <c r="N138" t="n">
-        <v>1016.133333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5817,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>14</v>
-      </c>
-      <c r="J139" t="n">
-        <v>264</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-29.72972972972973</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1008.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>1013.6</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1015.733333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5852,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>15</v>
-      </c>
-      <c r="J140" t="n">
-        <v>265</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L140" t="n">
-        <v>1007.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>1012.85</v>
-      </c>
-      <c r="N140" t="n">
-        <v>1015.4</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5887,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>15</v>
-      </c>
-      <c r="J141" t="n">
-        <v>265</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L141" t="n">
-        <v>1006.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>1012.1</v>
-      </c>
-      <c r="N141" t="n">
-        <v>1015.033333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5922,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>13</v>
-      </c>
-      <c r="J142" t="n">
-        <v>267</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L142" t="n">
-        <v>1005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>1011.2</v>
-      </c>
-      <c r="N142" t="n">
-        <v>1014.433333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5957,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>12</v>
-      </c>
-      <c r="J143" t="n">
-        <v>268</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1004.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>1010.3</v>
-      </c>
-      <c r="N143" t="n">
-        <v>1013.766666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5992,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>13</v>
-      </c>
-      <c r="J144" t="n">
-        <v>269</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L144" t="n">
-        <v>1004.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>1009.55</v>
-      </c>
-      <c r="N144" t="n">
-        <v>1013.133333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +6027,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>14</v>
-      </c>
-      <c r="J145" t="n">
-        <v>270</v>
-      </c>
-      <c r="K145" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L145" t="n">
-        <v>1004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>1008.8</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1012.533333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +6062,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>7</v>
-      </c>
-      <c r="J146" t="n">
-        <v>277</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-64.70588235294117</v>
-      </c>
-      <c r="L146" t="n">
-        <v>1003.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>1008</v>
-      </c>
-      <c r="N146" t="n">
-        <v>1011.7</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +6097,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>10</v>
-      </c>
-      <c r="J147" t="n">
-        <v>280</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L147" t="n">
-        <v>1002.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>1007.05</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1011.1</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +6132,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>10</v>
-      </c>
-      <c r="J148" t="n">
-        <v>280</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L148" t="n">
-        <v>1002.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>1006.1</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1010.4</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +6167,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>283</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L149" t="n">
-        <v>1001.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N149" t="n">
-        <v>1009.6</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +6202,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
-      </c>
-      <c r="J150" t="n">
-        <v>287</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L150" t="n">
-        <v>1000.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>1003.9</v>
-      </c>
-      <c r="N150" t="n">
-        <v>1008.7</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6237,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>287</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L151" t="n">
-        <v>999.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>1002.7</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1007.8</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6272,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>287</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L152" t="n">
-        <v>998.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>1001.6</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1006.866666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6307,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>288</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L153" t="n">
-        <v>997.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>1001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6342,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>6</v>
-      </c>
-      <c r="J154" t="n">
-        <v>290</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L154" t="n">
-        <v>996.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>1000.6</v>
-      </c>
-      <c r="N154" t="n">
-        <v>1005.266666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6377,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
-      </c>
-      <c r="J155" t="n">
-        <v>293</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L155" t="n">
-        <v>995.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>999.8</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1004.4</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6412,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
-      </c>
-      <c r="J156" t="n">
-        <v>293</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L156" t="n">
-        <v>995.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>999.35</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1003.733333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6447,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
-      </c>
-      <c r="J157" t="n">
-        <v>294</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L157" t="n">
-        <v>994.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>998.55</v>
-      </c>
-      <c r="N157" t="n">
-        <v>1002.833333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6482,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>295</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>993.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>998</v>
-      </c>
-      <c r="N158" t="n">
-        <v>1001.966666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6517,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
-      </c>
-      <c r="J159" t="n">
-        <v>296</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L159" t="n">
-        <v>993.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>997.4</v>
-      </c>
-      <c r="N159" t="n">
-        <v>1001.066666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6552,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
-      </c>
-      <c r="J160" t="n">
-        <v>296</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L160" t="n">
-        <v>993.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>996.75</v>
-      </c>
-      <c r="N160" t="n">
-        <v>1000.3</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6587,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
-      </c>
-      <c r="J161" t="n">
-        <v>296</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L161" t="n">
-        <v>993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>996.1</v>
-      </c>
-      <c r="N161" t="n">
-        <v>999.4666666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6622,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>301</v>
-      </c>
-      <c r="K162" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L162" t="n">
-        <v>993.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>995.8</v>
-      </c>
-      <c r="N162" t="n">
-        <v>998.8666666666667</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6657,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
-      </c>
-      <c r="J163" t="n">
-        <v>306</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L163" t="n">
-        <v>993.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>995.3</v>
-      </c>
-      <c r="N163" t="n">
-        <v>998.4</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6692,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
-      </c>
-      <c r="J164" t="n">
-        <v>308</v>
-      </c>
-      <c r="K164" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L164" t="n">
-        <v>993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>994.85</v>
-      </c>
-      <c r="N164" t="n">
-        <v>998.0666666666667</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6727,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>9</v>
-      </c>
-      <c r="J165" t="n">
-        <v>313</v>
-      </c>
-      <c r="K165" t="n">
-        <v>30</v>
-      </c>
-      <c r="L165" t="n">
-        <v>993.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>994.6</v>
-      </c>
-      <c r="N165" t="n">
-        <v>997.7333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6762,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>315</v>
-      </c>
-      <c r="K166" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L166" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>994.6</v>
-      </c>
-      <c r="N166" t="n">
-        <v>997.5666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6797,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>5</v>
-      </c>
-      <c r="J167" t="n">
-        <v>317</v>
-      </c>
-      <c r="K167" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L167" t="n">
-        <v>994.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>994.35</v>
-      </c>
-      <c r="N167" t="n">
-        <v>997.1333333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6832,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>4</v>
-      </c>
-      <c r="J168" t="n">
-        <v>318</v>
-      </c>
-      <c r="K168" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L168" t="n">
-        <v>994.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>994.05</v>
-      </c>
-      <c r="N168" t="n">
-        <v>996.8</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6867,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>6</v>
-      </c>
-      <c r="J169" t="n">
-        <v>320</v>
-      </c>
-      <c r="K169" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L169" t="n">
-        <v>994.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>994</v>
-      </c>
-      <c r="N169" t="n">
-        <v>996.5333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6902,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>10</v>
-      </c>
-      <c r="J170" t="n">
-        <v>324</v>
-      </c>
-      <c r="K170" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L170" t="n">
-        <v>995.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>994.35</v>
-      </c>
-      <c r="N170" t="n">
-        <v>996.3666666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6937,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>6</v>
-      </c>
-      <c r="J171" t="n">
-        <v>328</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-3.703703703703703</v>
-      </c>
-      <c r="L171" t="n">
-        <v>996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>994.5</v>
-      </c>
-      <c r="N171" t="n">
-        <v>996.0666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6972,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>5</v>
-      </c>
-      <c r="J172" t="n">
-        <v>329</v>
-      </c>
-      <c r="K172" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L172" t="n">
-        <v>995.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>994.6</v>
-      </c>
-      <c r="N172" t="n">
-        <v>995.8</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +7007,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>10</v>
-      </c>
-      <c r="J173" t="n">
-        <v>334</v>
-      </c>
-      <c r="K173" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L173" t="n">
-        <v>996.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>994.9</v>
-      </c>
-      <c r="N173" t="n">
-        <v>995.7333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +7042,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>337</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L174" t="n">
-        <v>996.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>994.95</v>
-      </c>
-      <c r="N174" t="n">
-        <v>995.5333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +7077,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>6</v>
-      </c>
-      <c r="J175" t="n">
-        <v>338</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L175" t="n">
-        <v>996.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>995.1</v>
-      </c>
-      <c r="N175" t="n">
-        <v>995.2666666666667</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +7112,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>8</v>
-      </c>
-      <c r="J176" t="n">
-        <v>340</v>
-      </c>
-      <c r="K176" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L176" t="n">
-        <v>996.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>995.35</v>
-      </c>
-      <c r="N176" t="n">
-        <v>995.3</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +7147,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>9</v>
-      </c>
-      <c r="J177" t="n">
-        <v>341</v>
-      </c>
-      <c r="K177" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L177" t="n">
-        <v>997.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>995.7</v>
-      </c>
-      <c r="N177" t="n">
-        <v>995.2666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +7182,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>12</v>
-      </c>
-      <c r="J178" t="n">
-        <v>344</v>
-      </c>
-      <c r="K178" t="n">
-        <v>25</v>
-      </c>
-      <c r="L178" t="n">
-        <v>997.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>996.15</v>
-      </c>
-      <c r="N178" t="n">
-        <v>995.3333333333334</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +7217,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>9</v>
-      </c>
-      <c r="J179" t="n">
-        <v>347</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L179" t="n">
-        <v>998.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>996.5</v>
-      </c>
-      <c r="N179" t="n">
-        <v>995.4</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +7252,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>12</v>
-      </c>
-      <c r="J180" t="n">
-        <v>350</v>
-      </c>
-      <c r="K180" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L180" t="n">
-        <v>998.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>997</v>
-      </c>
-      <c r="N180" t="n">
-        <v>995.7</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +7287,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>9</v>
-      </c>
-      <c r="J181" t="n">
-        <v>353</v>
-      </c>
-      <c r="K181" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L181" t="n">
-        <v>998.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>997.35</v>
-      </c>
-      <c r="N181" t="n">
-        <v>995.9</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +7322,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>9</v>
-      </c>
-      <c r="J182" t="n">
-        <v>353</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L182" t="n">
-        <v>999.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>997.45</v>
-      </c>
-      <c r="N182" t="n">
-        <v>996.1</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +7357,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>10</v>
-      </c>
-      <c r="J183" t="n">
-        <v>354</v>
-      </c>
-      <c r="K183" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L183" t="n">
-        <v>999.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>997.85</v>
-      </c>
-      <c r="N183" t="n">
-        <v>996.3</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +7392,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>11</v>
-      </c>
-      <c r="J184" t="n">
-        <v>355</v>
-      </c>
-      <c r="K184" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L184" t="n">
-        <v>999.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>998.2</v>
-      </c>
-      <c r="N184" t="n">
-        <v>996.4666666666667</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +7427,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>13</v>
-      </c>
-      <c r="J185" t="n">
-        <v>357</v>
-      </c>
-      <c r="K185" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L185" t="n">
-        <v>1000.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>998.4</v>
-      </c>
-      <c r="N185" t="n">
-        <v>996.8</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +7462,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>11</v>
-      </c>
-      <c r="J186" t="n">
-        <v>359</v>
-      </c>
-      <c r="K186" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L186" t="n">
-        <v>1000.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>998.6</v>
-      </c>
-      <c r="N186" t="n">
-        <v>997.0666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +7497,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>14</v>
-      </c>
-      <c r="J187" t="n">
-        <v>362</v>
-      </c>
-      <c r="K187" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L187" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>999.05</v>
-      </c>
-      <c r="N187" t="n">
-        <v>997.4666666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +7532,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>12</v>
-      </c>
-      <c r="J188" t="n">
-        <v>364</v>
-      </c>
-      <c r="K188" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L188" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>999.45</v>
-      </c>
-      <c r="N188" t="n">
-        <v>997.7666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +7567,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>19</v>
-      </c>
-      <c r="J189" t="n">
-        <v>371</v>
-      </c>
-      <c r="K189" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L189" t="n">
-        <v>1002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>1000.1</v>
-      </c>
-      <c r="N189" t="n">
-        <v>998.3333333333334</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +7602,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>14</v>
-      </c>
-      <c r="J190" t="n">
-        <v>376</v>
-      </c>
-      <c r="K190" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L190" t="n">
-        <v>1002.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>1000.3</v>
-      </c>
-      <c r="N190" t="n">
-        <v>998.7333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +7637,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>11</v>
-      </c>
-      <c r="J191" t="n">
-        <v>379</v>
-      </c>
-      <c r="K191" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L191" t="n">
-        <v>1002.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>1000.55</v>
-      </c>
-      <c r="N191" t="n">
-        <v>999.0333333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +7672,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>17</v>
-      </c>
-      <c r="J192" t="n">
-        <v>385</v>
-      </c>
-      <c r="K192" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L192" t="n">
-        <v>1003.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>1001.15</v>
-      </c>
-      <c r="N192" t="n">
-        <v>999.3666666666667</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +7707,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>16</v>
-      </c>
-      <c r="J193" t="n">
-        <v>386</v>
-      </c>
-      <c r="K193" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L193" t="n">
-        <v>1003.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>1001.45</v>
-      </c>
-      <c r="N193" t="n">
-        <v>999.8333333333334</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +7742,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>16</v>
-      </c>
-      <c r="J194" t="n">
-        <v>386</v>
-      </c>
-      <c r="K194" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L194" t="n">
-        <v>1004.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>1001.9</v>
-      </c>
-      <c r="N194" t="n">
-        <v>1000.233333333333</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,1099 +7777,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>16</v>
-      </c>
-      <c r="J195" t="n">
-        <v>386</v>
-      </c>
-      <c r="K195" t="n">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="L195" t="n">
-        <v>1004.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>1002.4</v>
-      </c>
-      <c r="N195" t="n">
-        <v>1000.466666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2802.664</v>
-      </c>
-      <c r="G196" t="n">
-        <v>999.25</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>21</v>
-      </c>
-      <c r="J196" t="n">
-        <v>391</v>
-      </c>
-      <c r="K196" t="n">
-        <v>24.13793103448276</v>
-      </c>
-      <c r="L196" t="n">
-        <v>1005.6</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1003.05</v>
-      </c>
-      <c r="N196" t="n">
-        <v>1000.933333333333</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1012</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F197" t="n">
-        <v>516.6093</v>
-      </c>
-      <c r="G197" t="n">
-        <v>999.3166666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>22</v>
-      </c>
-      <c r="J197" t="n">
-        <v>392</v>
-      </c>
-      <c r="K197" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="L197" t="n">
-        <v>1006.4</v>
-      </c>
-      <c r="M197" t="n">
-        <v>1003.7</v>
-      </c>
-      <c r="N197" t="n">
-        <v>1001.5</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="F198" t="n">
-        <v>37.4169</v>
-      </c>
-      <c r="G198" t="n">
-        <v>999.45</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>22</v>
-      </c>
-      <c r="J198" t="n">
-        <v>392</v>
-      </c>
-      <c r="K198" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L198" t="n">
-        <v>1007.4</v>
-      </c>
-      <c r="M198" t="n">
-        <v>1004.2</v>
-      </c>
-      <c r="N198" t="n">
-        <v>1002.1</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1016</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1012</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5713.3689</v>
-      </c>
-      <c r="G199" t="n">
-        <v>999.6333333333333</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>25</v>
-      </c>
-      <c r="J199" t="n">
-        <v>395</v>
-      </c>
-      <c r="K199" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="L199" t="n">
-        <v>1008</v>
-      </c>
-      <c r="M199" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N199" t="n">
-        <v>1002.733333333333</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="F200" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="G200" t="n">
-        <v>999.8</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>25</v>
-      </c>
-      <c r="J200" t="n">
-        <v>395</v>
-      </c>
-      <c r="K200" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L200" t="n">
-        <v>1009.1</v>
-      </c>
-      <c r="M200" t="n">
-        <v>1005.65</v>
-      </c>
-      <c r="N200" t="n">
-        <v>1003.233333333333</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1017</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1015</v>
-      </c>
-      <c r="F201" t="n">
-        <v>824.2116</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>27</v>
-      </c>
-      <c r="J201" t="n">
-        <v>397</v>
-      </c>
-      <c r="K201" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L201" t="n">
-        <v>1010.7</v>
-      </c>
-      <c r="M201" t="n">
-        <v>1006.55</v>
-      </c>
-      <c r="N201" t="n">
-        <v>1003.933333333333</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1017</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1017</v>
-      </c>
-      <c r="F202" t="n">
-        <v>4557.5747</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1000.25</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>28</v>
-      </c>
-      <c r="J202" t="n">
-        <v>398</v>
-      </c>
-      <c r="K202" t="n">
-        <v>100</v>
-      </c>
-      <c r="L202" t="n">
-        <v>1011.8</v>
-      </c>
-      <c r="M202" t="n">
-        <v>1007.5</v>
-      </c>
-      <c r="N202" t="n">
-        <v>1004.7</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1018</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1380</v>
-      </c>
-      <c r="G203" t="n">
-        <v>1000.533333333333</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>29</v>
-      </c>
-      <c r="J203" t="n">
-        <v>399</v>
-      </c>
-      <c r="K203" t="n">
-        <v>100</v>
-      </c>
-      <c r="L203" t="n">
-        <v>1013.1</v>
-      </c>
-      <c r="M203" t="n">
-        <v>1008.45</v>
-      </c>
-      <c r="N203" t="n">
-        <v>1005.333333333333</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F204" t="n">
-        <v>915</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1000.8</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>29</v>
-      </c>
-      <c r="J204" t="n">
-        <v>399</v>
-      </c>
-      <c r="K204" t="n">
-        <v>100</v>
-      </c>
-      <c r="L204" t="n">
-        <v>1014.4</v>
-      </c>
-      <c r="M204" t="n">
-        <v>1009.35</v>
-      </c>
-      <c r="N204" t="n">
-        <v>1006.066666666667</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1855</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1001.05</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>29</v>
-      </c>
-      <c r="J205" t="n">
-        <v>399</v>
-      </c>
-      <c r="K205" t="n">
-        <v>100</v>
-      </c>
-      <c r="L205" t="n">
-        <v>1015.7</v>
-      </c>
-      <c r="M205" t="n">
-        <v>1010.15</v>
-      </c>
-      <c r="N205" t="n">
-        <v>1006.833333333333</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1430</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1001.433333333333</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>30</v>
-      </c>
-      <c r="J206" t="n">
-        <v>400</v>
-      </c>
-      <c r="K206" t="n">
-        <v>100</v>
-      </c>
-      <c r="L206" t="n">
-        <v>1016.6</v>
-      </c>
-      <c r="M206" t="n">
-        <v>1011.1</v>
-      </c>
-      <c r="N206" t="n">
-        <v>1007.566666666667</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F207" t="n">
-        <v>456.525</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1001.75</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>29</v>
-      </c>
-      <c r="J207" t="n">
-        <v>401</v>
-      </c>
-      <c r="K207" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L207" t="n">
-        <v>1017.3</v>
-      </c>
-      <c r="M207" t="n">
-        <v>1011.85</v>
-      </c>
-      <c r="N207" t="n">
-        <v>1008.233333333333</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F208" t="n">
-        <v>205</v>
-      </c>
-      <c r="G208" t="n">
-        <v>1002.083333333333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30</v>
-      </c>
-      <c r="J208" t="n">
-        <v>402</v>
-      </c>
-      <c r="K208" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L208" t="n">
-        <v>1018.1</v>
-      </c>
-      <c r="M208" t="n">
-        <v>1012.75</v>
-      </c>
-      <c r="N208" t="n">
-        <v>1008.833333333333</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1017</v>
-      </c>
-      <c r="F209" t="n">
-        <v>3822.7831</v>
-      </c>
-      <c r="G209" t="n">
-        <v>1002.466666666667</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>30</v>
-      </c>
-      <c r="J209" t="n">
-        <v>402</v>
-      </c>
-      <c r="K209" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L209" t="n">
-        <v>1018.6</v>
-      </c>
-      <c r="M209" t="n">
-        <v>1013.3</v>
-      </c>
-      <c r="N209" t="n">
-        <v>1009.533333333333</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F210" t="n">
-        <v>195</v>
-      </c>
-      <c r="G210" t="n">
-        <v>1002.933333333333</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>31</v>
-      </c>
-      <c r="J210" t="n">
-        <v>403</v>
-      </c>
-      <c r="K210" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L210" t="n">
-        <v>1019.2</v>
-      </c>
-      <c r="M210" t="n">
-        <v>1014.15</v>
-      </c>
-      <c r="N210" t="n">
-        <v>1010.166666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F211" t="n">
-        <v>240</v>
-      </c>
-      <c r="G211" t="n">
-        <v>1003.4</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>31</v>
-      </c>
-      <c r="J211" t="n">
-        <v>403</v>
-      </c>
-      <c r="K211" t="n">
-        <v>60</v>
-      </c>
-      <c r="L211" t="n">
-        <v>1019.6</v>
-      </c>
-      <c r="M211" t="n">
-        <v>1015.15</v>
-      </c>
-      <c r="N211" t="n">
-        <v>1010.9</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F212" t="n">
-        <v>407.0049</v>
-      </c>
-      <c r="G212" t="n">
-        <v>1003.866666666667</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>31</v>
-      </c>
-      <c r="J212" t="n">
-        <v>403</v>
-      </c>
-      <c r="K212" t="n">
-        <v>50</v>
-      </c>
-      <c r="L212" t="n">
-        <v>1019.9</v>
-      </c>
-      <c r="M212" t="n">
-        <v>1015.85</v>
-      </c>
-      <c r="N212" t="n">
-        <v>1011.633333333333</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1103.6625</v>
-      </c>
-      <c r="G213" t="n">
-        <v>1004.316666666667</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>31</v>
-      </c>
-      <c r="J213" t="n">
-        <v>403</v>
-      </c>
-      <c r="K213" t="n">
-        <v>50</v>
-      </c>
-      <c r="L213" t="n">
-        <v>1020.1</v>
-      </c>
-      <c r="M213" t="n">
-        <v>1016.6</v>
-      </c>
-      <c r="N213" t="n">
-        <v>1012.333333333333</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1031.0242</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1004.733333333333</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>31</v>
-      </c>
-      <c r="J214" t="n">
-        <v>403</v>
-      </c>
-      <c r="K214" t="n">
-        <v>50</v>
-      </c>
-      <c r="L214" t="n">
-        <v>1020.3</v>
-      </c>
-      <c r="M214" t="n">
-        <v>1017.35</v>
-      </c>
-      <c r="N214" t="n">
-        <v>1013</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F215" t="n">
-        <v>100</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1005.2</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>31</v>
-      </c>
-      <c r="J215" t="n">
-        <v>403</v>
-      </c>
-      <c r="K215" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L215" t="n">
-        <v>1020.5</v>
-      </c>
-      <c r="M215" t="n">
-        <v>1018.1</v>
-      </c>
-      <c r="N215" t="n">
-        <v>1013.6</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F216" t="n">
-        <v>4532.8126</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1005.666666666667</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>31</v>
-      </c>
-      <c r="J216" t="n">
-        <v>403</v>
-      </c>
-      <c r="K216" t="n">
-        <v>100</v>
-      </c>
-      <c r="L216" t="n">
-        <v>1020.6</v>
-      </c>
-      <c r="M216" t="n">
-        <v>1018.6</v>
-      </c>
-      <c r="N216" t="n">
-        <v>1014.266666666667</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -451,17 +451,13 @@
         <v>990.55</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>990</v>
-      </c>
-      <c r="K2" t="n">
-        <v>990</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>990.4666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>990</v>
-      </c>
-      <c r="K3" t="n">
-        <v>990</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>990.3833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>990</v>
-      </c>
-      <c r="K4" t="n">
-        <v>990</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>990.3833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>995</v>
-      </c>
-      <c r="K5" t="n">
-        <v>995</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>990.3833333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>992</v>
-      </c>
-      <c r="K6" t="n">
-        <v>995</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>990.3666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>992</v>
-      </c>
-      <c r="K7" t="n">
-        <v>995</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>990.2166666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>992</v>
-      </c>
-      <c r="K8" t="n">
-        <v>995</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>990.1333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>989</v>
-      </c>
-      <c r="K9" t="n">
-        <v>995</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>990.0666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>987</v>
-      </c>
-      <c r="K10" t="n">
-        <v>995</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>989.95</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>986</v>
-      </c>
-      <c r="K11" t="n">
-        <v>995</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>989.8833333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>989</v>
-      </c>
-      <c r="K12" t="n">
-        <v>995</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>989.8166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>989</v>
-      </c>
-      <c r="K13" t="n">
-        <v>995</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>989.7666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>990</v>
-      </c>
-      <c r="K14" t="n">
-        <v>995</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>989.7666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>990</v>
-      </c>
-      <c r="K15" t="n">
-        <v>995</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>989.8833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>995</v>
-      </c>
-      <c r="K16" t="n">
-        <v>995</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>989.8833333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>988</v>
-      </c>
-      <c r="K17" t="n">
-        <v>995</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>989.9833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>995</v>
-      </c>
-      <c r="K18" t="n">
-        <v>995</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>990.0833333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>994</v>
-      </c>
-      <c r="K19" t="n">
-        <v>995</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>990.1666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>994</v>
-      </c>
-      <c r="K20" t="n">
-        <v>995</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>990.15</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>993</v>
-      </c>
-      <c r="K21" t="n">
-        <v>995</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>990.1333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>988</v>
-      </c>
-      <c r="K22" t="n">
-        <v>995</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>990.2333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>987</v>
-      </c>
-      <c r="K23" t="n">
-        <v>995</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>990.3666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>994</v>
-      </c>
-      <c r="K24" t="n">
-        <v>995</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>990.4166666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>991</v>
-      </c>
-      <c r="K25" t="n">
-        <v>995</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1291,14 @@
         <v>990.5333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>989</v>
-      </c>
-      <c r="K26" t="n">
-        <v>995</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1326,14 @@
         <v>990.5666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>991</v>
-      </c>
-      <c r="K27" t="n">
-        <v>995</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1361,14 @@
         <v>990.6</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>991</v>
-      </c>
-      <c r="K28" t="n">
-        <v>995</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1396,14 @@
         <v>990.7166666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>991</v>
-      </c>
-      <c r="K29" t="n">
-        <v>995</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1431,14 @@
         <v>990.75</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>990</v>
-      </c>
-      <c r="K30" t="n">
-        <v>995</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1466,14 @@
         <v>990.8</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>992</v>
-      </c>
-      <c r="K31" t="n">
-        <v>995</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,22 +1501,14 @@
         <v>990.8166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>990</v>
-      </c>
-      <c r="K32" t="n">
-        <v>995</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1776,22 +1536,14 @@
         <v>990.8666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>992</v>
-      </c>
-      <c r="K33" t="n">
-        <v>995</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1571,14 @@
         <v>990.9166666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>992</v>
-      </c>
-      <c r="K34" t="n">
-        <v>995</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1606,14 @@
         <v>990.9333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>990</v>
-      </c>
-      <c r="K35" t="n">
-        <v>995</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1905,22 +1641,14 @@
         <v>990.9166666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>989</v>
-      </c>
-      <c r="K36" t="n">
-        <v>995</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1676,14 @@
         <v>991.0166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>988</v>
-      </c>
-      <c r="K37" t="n">
-        <v>995</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1991,22 +1711,14 @@
         <v>991</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>992</v>
-      </c>
-      <c r="K38" t="n">
-        <v>995</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +1746,14 @@
         <v>991.0833333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>995</v>
-      </c>
-      <c r="K39" t="n">
-        <v>995</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +1781,14 @@
         <v>991.15</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>994</v>
-      </c>
-      <c r="K40" t="n">
-        <v>995</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1816,14 @@
         <v>991.2166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>994</v>
-      </c>
-      <c r="K41" t="n">
-        <v>995</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2163,22 +1851,14 @@
         <v>991.2333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>991</v>
-      </c>
-      <c r="K42" t="n">
-        <v>995</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2206,22 +1886,14 @@
         <v>991.25</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>991</v>
-      </c>
-      <c r="K43" t="n">
-        <v>995</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2249,22 +1921,14 @@
         <v>991.3166666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>994</v>
-      </c>
-      <c r="K44" t="n">
-        <v>995</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +1956,14 @@
         <v>991.4166666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>996</v>
-      </c>
-      <c r="K45" t="n">
-        <v>995</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2335,22 +1991,14 @@
         <v>991.5166666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>996</v>
-      </c>
-      <c r="K46" t="n">
-        <v>995</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2384,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>995</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>995</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2466,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>995</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>995</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2548,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>995</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>995</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>995</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2671,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>995</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2712,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>995</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>995</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>995</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>995</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>995</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>995</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2958,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>995</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2999,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>995</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>995</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3081,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>995</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3122,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>995</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>995</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3204,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>995</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3245,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>995</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>995</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>995</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>995</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3409,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>995</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3450,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>995</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3491,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>995</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3532,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>995</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>995</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>995</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3652,17 +3114,11 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>995</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3693,17 +3149,11 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>995</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>995</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3778,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>995</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3816,19 +3254,13 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>995</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>1.02213567839196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3857,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3892,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3927,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3962,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3997,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4032,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4102,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -6619,14 +6051,20 @@
         <v>1008.783333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>992</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6654,14 +6092,20 @@
         <v>1008.333333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>997</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6689,14 +6133,20 @@
         <v>1007.933333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>992</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6724,14 +6174,20 @@
         <v>1007.616666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>994</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6759,14 +6215,20 @@
         <v>1007.266666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>999</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6801,7 +6263,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6836,7 +6302,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6871,7 +6341,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6906,7 +6380,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6941,7 +6419,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6976,7 +6458,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7011,7 +6497,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7046,7 +6536,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7081,7 +6575,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +6614,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7151,7 +6653,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7186,7 +6692,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7221,7 +6731,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7256,7 +6770,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7291,7 +6809,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +6848,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7361,7 +6887,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7396,7 +6926,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7431,7 +6965,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7466,7 +7004,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7501,7 +7043,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7536,7 +7082,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7571,7 +7121,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7606,7 +7160,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7641,7 +7199,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7676,7 +7238,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7711,7 +7277,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7746,7 +7316,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7355,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F2" t="n">
-        <v>1651.0428</v>
+        <v>39.8144</v>
       </c>
       <c r="G2" t="n">
-        <v>990.55</v>
+        <v>990.65</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>990</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>1651.0428</v>
       </c>
       <c r="G3" t="n">
-        <v>990.4666666666667</v>
+        <v>990.55</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>990</v>
       </c>
       <c r="F4" t="n">
-        <v>397.0316</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>990.3833333333333</v>
+        <v>990.4666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>397.0316</v>
       </c>
       <c r="G5" t="n">
         <v>990.3833333333333</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C6" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D6" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E6" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F6" t="n">
-        <v>572.4732</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>990.3833333333333</v>
@@ -614,16 +614,16 @@
         <v>992</v>
       </c>
       <c r="D7" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E7" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9406</v>
+        <v>572.4732</v>
       </c>
       <c r="G7" t="n">
-        <v>990.3666666666667</v>
+        <v>990.3833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>992</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0594</v>
+        <v>59.9406</v>
       </c>
       <c r="G8" t="n">
-        <v>990.2166666666667</v>
+        <v>990.3666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C9" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="D9" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E9" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>1.0594</v>
       </c>
       <c r="G9" t="n">
-        <v>990.1333333333333</v>
+        <v>990.2166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C10" t="n">
         <v>987</v>
       </c>
       <c r="D10" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E10" t="n">
         <v>987</v>
       </c>
       <c r="F10" t="n">
-        <v>67.1747</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>990.0666666666667</v>
+        <v>990.1333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F11" t="n">
-        <v>552.7843</v>
+        <v>67.1747</v>
       </c>
       <c r="G11" t="n">
-        <v>989.95</v>
+        <v>990.0666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F12" t="n">
-        <v>34.431</v>
+        <v>552.7843</v>
       </c>
       <c r="G12" t="n">
-        <v>989.8833333333333</v>
+        <v>989.95</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>989</v>
       </c>
       <c r="F13" t="n">
-        <v>47.5559</v>
+        <v>34.431</v>
       </c>
       <c r="G13" t="n">
-        <v>989.8166666666667</v>
+        <v>989.8833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,31 +853,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F14" t="n">
-        <v>75.2475</v>
+        <v>47.5559</v>
       </c>
       <c r="G14" t="n">
-        <v>989.7666666666667</v>
+        <v>989.8166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>989</v>
+      </c>
+      <c r="K14" t="n">
+        <v>989</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -900,20 +904,28 @@
         <v>990</v>
       </c>
       <c r="F15" t="n">
-        <v>518.7525000000001</v>
+        <v>75.2475</v>
       </c>
       <c r="G15" t="n">
         <v>989.7666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>989</v>
+      </c>
+      <c r="K15" t="n">
+        <v>989</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +935,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F16" t="n">
-        <v>3.6914</v>
+        <v>518.7525000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>989.8833333333333</v>
+        <v>989.7666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>989</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,31 +976,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="C17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="E17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F17" t="n">
-        <v>6.6914</v>
+        <v>3.6914</v>
       </c>
       <c r="G17" t="n">
         <v>989.8833333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>990</v>
+      </c>
+      <c r="K17" t="n">
+        <v>990</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -993,22 +1015,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="C18" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D18" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="E18" t="n">
         <v>988</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>6.6914</v>
       </c>
       <c r="G18" t="n">
-        <v>989.9833333333333</v>
+        <v>989.8833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>990</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1056,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C19" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D19" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E19" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>990.0833333333334</v>
+        <v>989.9833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>990</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1109,10 @@
         <v>994</v>
       </c>
       <c r="F20" t="n">
-        <v>8.1502</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>990.1666666666666</v>
+        <v>990.0833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>990</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1138,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C21" t="n">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="D21" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E21" t="n">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="F21" t="n">
-        <v>1188.8908</v>
+        <v>8.1502</v>
       </c>
       <c r="G21" t="n">
-        <v>990.15</v>
+        <v>990.1666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>990</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1179,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C22" t="n">
         <v>988</v>
       </c>
       <c r="D22" t="n">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="E22" t="n">
         <v>988</v>
       </c>
       <c r="F22" t="n">
-        <v>414.6776</v>
+        <v>1188.8908</v>
       </c>
       <c r="G22" t="n">
-        <v>990.1333333333333</v>
+        <v>990.15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1203,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>990</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1220,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C23" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D23" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="E23" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F23" t="n">
-        <v>2193.0012</v>
+        <v>414.6776</v>
       </c>
       <c r="G23" t="n">
-        <v>990.2333333333333</v>
+        <v>990.1333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1244,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>990</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1261,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="C24" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D24" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E24" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2193.0012</v>
       </c>
       <c r="G24" t="n">
-        <v>990.3666666666667</v>
+        <v>990.2333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1285,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>990</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1302,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C25" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D25" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E25" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F25" t="n">
-        <v>1018.1634</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>990.4166666666666</v>
+        <v>990.3666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1326,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>990</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C26" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D26" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E26" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F26" t="n">
-        <v>1190.1534</v>
+        <v>1018.1634</v>
       </c>
       <c r="G26" t="n">
-        <v>990.5333333333333</v>
+        <v>990.4166666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>990</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1384,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C27" t="n">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="D27" t="n">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="E27" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1190.1534</v>
       </c>
       <c r="G27" t="n">
-        <v>990.5666666666667</v>
+        <v>990.5333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1408,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>990</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,10 +1437,10 @@
         <v>991</v>
       </c>
       <c r="F28" t="n">
-        <v>104.5159</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>990.6</v>
+        <v>990.5666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1449,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>990</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1478,10 @@
         <v>991</v>
       </c>
       <c r="F29" t="n">
-        <v>68.7311</v>
+        <v>104.5159</v>
       </c>
       <c r="G29" t="n">
-        <v>990.7166666666667</v>
+        <v>990.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1490,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>990</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1507,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F30" t="n">
-        <v>1063.0363</v>
+        <v>68.7311</v>
       </c>
       <c r="G30" t="n">
-        <v>990.75</v>
+        <v>990.7166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1531,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>990</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1548,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F31" t="n">
-        <v>1.008</v>
+        <v>1063.0363</v>
       </c>
       <c r="G31" t="n">
-        <v>990.8</v>
+        <v>990.75</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1572,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>990</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1589,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>1.008</v>
       </c>
       <c r="G32" t="n">
-        <v>990.8166666666667</v>
+        <v>990.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>990</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1630,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>990.8666666666667</v>
+        <v>990.8166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1654,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>990</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1565,10 +1683,10 @@
         <v>992</v>
       </c>
       <c r="F34" t="n">
-        <v>243.4011</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>990.9166666666666</v>
+        <v>990.8666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1695,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>990</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1712,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F35" t="n">
-        <v>698.8681</v>
+        <v>243.4011</v>
       </c>
       <c r="G35" t="n">
-        <v>990.9333333333333</v>
+        <v>990.9166666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1736,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>990</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1753,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F36" t="n">
-        <v>231.1437</v>
+        <v>698.8681</v>
       </c>
       <c r="G36" t="n">
-        <v>990.9166666666666</v>
+        <v>990.9333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1777,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>990</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1794,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C37" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D37" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E37" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F37" t="n">
-        <v>1465.014</v>
+        <v>231.1437</v>
       </c>
       <c r="G37" t="n">
-        <v>991.0166666666667</v>
+        <v>990.9166666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1818,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>990</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1835,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C38" t="n">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D38" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="E38" t="n">
         <v>988</v>
       </c>
       <c r="F38" t="n">
-        <v>229.8766</v>
+        <v>1465.014</v>
       </c>
       <c r="G38" t="n">
-        <v>991</v>
+        <v>991.0166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1859,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>990</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1876,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C39" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D39" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E39" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F39" t="n">
-        <v>42.8536</v>
+        <v>229.8766</v>
       </c>
       <c r="G39" t="n">
-        <v>991.0833333333334</v>
+        <v>991</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>990</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1917,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F40" t="n">
-        <v>391.0465</v>
+        <v>42.8536</v>
       </c>
       <c r="G40" t="n">
-        <v>991.15</v>
+        <v>991.0833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1941,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>990</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1970,10 @@
         <v>994</v>
       </c>
       <c r="F41" t="n">
-        <v>403.809</v>
+        <v>391.0465</v>
       </c>
       <c r="G41" t="n">
-        <v>991.2166666666667</v>
+        <v>991.15</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1982,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>990</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1999,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F42" t="n">
-        <v>1090.5341</v>
+        <v>403.809</v>
       </c>
       <c r="G42" t="n">
-        <v>991.2333333333333</v>
+        <v>991.2166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +2023,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>990</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +2052,10 @@
         <v>991</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>1090.5341</v>
       </c>
       <c r="G43" t="n">
-        <v>991.25</v>
+        <v>991.2333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,8 +2064,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>990</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +2081,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>991.3166666666667</v>
+        <v>991.25</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2105,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>990</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2122,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F45" t="n">
-        <v>1732.6206</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>991.4166666666666</v>
+        <v>991.3166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2146,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>990</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2175,10 @@
         <v>996</v>
       </c>
       <c r="F46" t="n">
-        <v>240.9727</v>
+        <v>1732.6206</v>
       </c>
       <c r="G46" t="n">
-        <v>991.5166666666667</v>
+        <v>991.4166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2187,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>990</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2204,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F47" t="n">
-        <v>1896.2676</v>
+        <v>240.9727</v>
       </c>
       <c r="G47" t="n">
-        <v>991.6333333333333</v>
+        <v>991.5166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2228,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>990</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2257,10 @@
         <v>997</v>
       </c>
       <c r="F48" t="n">
-        <v>144.1545</v>
+        <v>1896.2676</v>
       </c>
       <c r="G48" t="n">
-        <v>991.75</v>
+        <v>991.6333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2269,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>990</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2298,10 @@
         <v>997</v>
       </c>
       <c r="F49" t="n">
-        <v>998.41</v>
+        <v>144.1545</v>
       </c>
       <c r="G49" t="n">
-        <v>991.8666666666667</v>
+        <v>991.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2310,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>990</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2327,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F50" t="n">
-        <v>283.58</v>
+        <v>998.41</v>
       </c>
       <c r="G50" t="n">
-        <v>992</v>
+        <v>991.8666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2351,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>990</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2368,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F51" t="n">
-        <v>2970.1779</v>
+        <v>283.58</v>
       </c>
       <c r="G51" t="n">
-        <v>992.15</v>
+        <v>992</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2392,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>990</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2421,10 @@
         <v>999</v>
       </c>
       <c r="F52" t="n">
-        <v>203.9399</v>
+        <v>2970.1779</v>
       </c>
       <c r="G52" t="n">
-        <v>992.3</v>
+        <v>992.15</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2433,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>990</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2462,10 @@
         <v>999</v>
       </c>
       <c r="F53" t="n">
-        <v>50.6789</v>
+        <v>203.9399</v>
       </c>
       <c r="G53" t="n">
-        <v>992.45</v>
+        <v>992.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2474,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>990</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2503,10 @@
         <v>999</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>50.6789</v>
       </c>
       <c r="G54" t="n">
-        <v>992.55</v>
+        <v>992.45</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>990</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2544,10 @@
         <v>999</v>
       </c>
       <c r="F55" t="n">
-        <v>1.04204204</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>992.65</v>
+        <v>992.55</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2556,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>990</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2326,19 +2576,19 @@
         <v>999</v>
       </c>
       <c r="C56" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="D56" t="n">
         <v>999</v>
       </c>
       <c r="E56" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F56" t="n">
-        <v>175.33</v>
+        <v>1.04204204</v>
       </c>
       <c r="G56" t="n">
-        <v>992.6833333333333</v>
+        <v>992.65</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>990</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2614,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="C57" t="n">
         <v>993</v>
       </c>
       <c r="D57" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E57" t="n">
         <v>993</v>
       </c>
       <c r="F57" t="n">
-        <v>3420.6184</v>
+        <v>175.33</v>
       </c>
       <c r="G57" t="n">
-        <v>992.7333333333333</v>
+        <v>992.6833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>990</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2655,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F58" t="n">
-        <v>100.1001</v>
+        <v>3420.6184</v>
       </c>
       <c r="G58" t="n">
-        <v>992.8333333333334</v>
+        <v>992.7333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>990</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2708,10 @@
         <v>999</v>
       </c>
       <c r="F59" t="n">
-        <v>37.2686</v>
+        <v>100.1001</v>
       </c>
       <c r="G59" t="n">
-        <v>992.9</v>
+        <v>992.8333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>990</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2749,10 @@
         <v>999</v>
       </c>
       <c r="F60" t="n">
-        <v>209.59</v>
+        <v>37.2686</v>
       </c>
       <c r="G60" t="n">
-        <v>992.9833333333333</v>
+        <v>992.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2761,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>990</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2790,10 @@
         <v>999</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>209.59</v>
       </c>
       <c r="G61" t="n">
-        <v>993.1166666666667</v>
+        <v>992.9833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>990</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2819,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="D62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>993.2</v>
+        <v>993.1166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2843,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>990</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2872,10 @@
         <v>995</v>
       </c>
       <c r="F63" t="n">
-        <v>3210.9761</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>993.2833333333333</v>
+        <v>993.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2884,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>990</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2901,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C64" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D64" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E64" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F64" t="n">
-        <v>360.1296</v>
+        <v>3210.9761</v>
       </c>
       <c r="G64" t="n">
-        <v>993.4166666666666</v>
+        <v>993.2833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2925,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>990</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2942,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C65" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D65" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E65" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F65" t="n">
-        <v>1644.9222</v>
+        <v>360.1296</v>
       </c>
       <c r="G65" t="n">
-        <v>993.4333333333333</v>
+        <v>993.4166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>990</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2986,19 @@
         <v>996</v>
       </c>
       <c r="C66" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D66" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E66" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F66" t="n">
-        <v>1020.6724</v>
+        <v>1644.9222</v>
       </c>
       <c r="G66" t="n">
-        <v>993.55</v>
+        <v>993.4333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>990</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,7 +3024,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C67" t="n">
         <v>999</v>
@@ -2717,13 +3033,13 @@
         <v>999</v>
       </c>
       <c r="E67" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F67" t="n">
-        <v>528.9868</v>
+        <v>1020.6724</v>
       </c>
       <c r="G67" t="n">
-        <v>993.6666666666666</v>
+        <v>993.55</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +3048,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>990</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +3077,10 @@
         <v>999</v>
       </c>
       <c r="F68" t="n">
-        <v>82.20820000000001</v>
+        <v>528.9868</v>
       </c>
       <c r="G68" t="n">
-        <v>993.7833333333333</v>
+        <v>993.6666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>990</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +3109,19 @@
         <v>999</v>
       </c>
       <c r="C69" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D69" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E69" t="n">
         <v>999</v>
       </c>
       <c r="F69" t="n">
-        <v>130</v>
+        <v>82.20820000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>994</v>
+        <v>993.7833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3130,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>990</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3147,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>999</v>
+      </c>
+      <c r="C70" t="n">
         <v>1000</v>
       </c>
-      <c r="C70" t="n">
-        <v>1002</v>
-      </c>
       <c r="D70" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E70" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F70" t="n">
-        <v>77.05410000000001</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
-        <v>994.25</v>
+        <v>994</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3171,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>990</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3188,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C71" t="n">
         <v>1002</v>
       </c>
-      <c r="C71" t="n">
-        <v>1005</v>
-      </c>
       <c r="D71" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E71" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F71" t="n">
-        <v>1026.9564</v>
+        <v>77.05410000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>994.5666666666667</v>
+        <v>994.25</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>990</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,7 +3229,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C72" t="n">
         <v>1005</v>
@@ -2892,13 +3238,13 @@
         <v>1005</v>
       </c>
       <c r="E72" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F72" t="n">
-        <v>80.5911</v>
+        <v>1026.9564</v>
       </c>
       <c r="G72" t="n">
-        <v>994.8333333333334</v>
+        <v>994.5666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3253,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>990</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3270,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C73" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D73" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E73" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F73" t="n">
-        <v>2077.4125</v>
+        <v>80.5911</v>
       </c>
       <c r="G73" t="n">
-        <v>995.15</v>
+        <v>994.8333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3294,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>990</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,7 +3311,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C74" t="n">
         <v>1008</v>
@@ -2962,13 +3320,13 @@
         <v>1008</v>
       </c>
       <c r="E74" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F74" t="n">
-        <v>306.4119</v>
+        <v>2077.4125</v>
       </c>
       <c r="G74" t="n">
-        <v>995.45</v>
+        <v>995.15</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>990</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3364,10 @@
         <v>1008</v>
       </c>
       <c r="F75" t="n">
-        <v>1025</v>
+        <v>306.4119</v>
       </c>
       <c r="G75" t="n">
-        <v>995.75</v>
+        <v>995.45</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>990</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3026,19 +3396,19 @@
         <v>1008</v>
       </c>
       <c r="C76" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="D76" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="E76" t="n">
         <v>1008</v>
       </c>
       <c r="F76" t="n">
-        <v>7424.1231</v>
+        <v>1025</v>
       </c>
       <c r="G76" t="n">
-        <v>996.1</v>
+        <v>995.75</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3417,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>990</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,7 +3434,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="C77" t="n">
         <v>1016</v>
@@ -3067,13 +3443,13 @@
         <v>1016</v>
       </c>
       <c r="E77" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="F77" t="n">
-        <v>3600.0957</v>
+        <v>7424.1231</v>
       </c>
       <c r="G77" t="n">
-        <v>996.5666666666667</v>
+        <v>996.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>990</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3475,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F78" t="n">
-        <v>406.3082</v>
+        <v>3600.0957</v>
       </c>
       <c r="G78" t="n">
-        <v>996.9</v>
+        <v>996.5666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,10 +3499,16 @@
         <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>990</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>1.021262626262626</v>
       </c>
     </row>
     <row r="79">
@@ -3131,25 +3519,25 @@
         <v>1015</v>
       </c>
       <c r="C79" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D79" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E79" t="n">
         <v>1015</v>
       </c>
       <c r="F79" t="n">
-        <v>447.6918</v>
+        <v>406.3082</v>
       </c>
       <c r="G79" t="n">
-        <v>997.2666666666667</v>
+        <v>996.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3163,28 +3551,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C80" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D80" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E80" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>447.6918</v>
       </c>
       <c r="G80" t="n">
-        <v>997.7166666666667</v>
+        <v>997.2666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3204,16 +3592,16 @@
         <v>1021</v>
       </c>
       <c r="D81" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E81" t="n">
         <v>1021</v>
       </c>
       <c r="F81" t="n">
-        <v>415.5</v>
+        <v>250</v>
       </c>
       <c r="G81" t="n">
-        <v>998.2666666666667</v>
+        <v>997.7166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,7 +3624,7 @@
         <v>1021</v>
       </c>
       <c r="C82" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D82" t="n">
         <v>1022</v>
@@ -3245,10 +3633,10 @@
         <v>1021</v>
       </c>
       <c r="F82" t="n">
-        <v>557.9778</v>
+        <v>415.5</v>
       </c>
       <c r="G82" t="n">
-        <v>998.8333333333334</v>
+        <v>998.2666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3659,19 @@
         <v>1021</v>
       </c>
       <c r="C83" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D83" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E83" t="n">
         <v>1021</v>
       </c>
       <c r="F83" t="n">
-        <v>125</v>
+        <v>557.9778</v>
       </c>
       <c r="G83" t="n">
-        <v>999.2666666666667</v>
+        <v>998.8333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3703,10 @@
         <v>1021</v>
       </c>
       <c r="F84" t="n">
-        <v>2254.2465</v>
+        <v>125</v>
       </c>
       <c r="G84" t="n">
-        <v>999.7166666666667</v>
+        <v>999.2666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3729,19 @@
         <v>1021</v>
       </c>
       <c r="C85" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D85" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E85" t="n">
         <v>1021</v>
       </c>
       <c r="F85" t="n">
-        <v>1330.3155</v>
+        <v>2254.2465</v>
       </c>
       <c r="G85" t="n">
-        <v>1000.216666666667</v>
+        <v>999.7166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3761,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C86" t="n">
         <v>1022</v>
@@ -3382,13 +3770,13 @@
         <v>1022</v>
       </c>
       <c r="E86" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F86" t="n">
-        <v>1288.1455</v>
+        <v>1330.3155</v>
       </c>
       <c r="G86" t="n">
-        <v>1000.65</v>
+        <v>1000.216666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3799,19 @@
         <v>1022</v>
       </c>
       <c r="C87" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D87" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E87" t="n">
         <v>1022</v>
       </c>
       <c r="F87" t="n">
-        <v>1551.4001</v>
+        <v>1288.1455</v>
       </c>
       <c r="G87" t="n">
-        <v>1001.216666666667</v>
+        <v>1000.65</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3831,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C88" t="n">
         <v>1025</v>
       </c>
       <c r="D88" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E88" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F88" t="n">
-        <v>945.8772</v>
+        <v>1551.4001</v>
       </c>
       <c r="G88" t="n">
-        <v>1001.783333333333</v>
+        <v>1001.216666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3878,10 @@
         <v>1025</v>
       </c>
       <c r="F89" t="n">
-        <v>282.8058</v>
+        <v>945.8772</v>
       </c>
       <c r="G89" t="n">
-        <v>1002.35</v>
+        <v>1001.783333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,28 +3901,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="F90" t="n">
-        <v>25.6282</v>
+        <v>282.8058</v>
       </c>
       <c r="G90" t="n">
-        <v>1002.883333333333</v>
+        <v>1002.35</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3548,22 +3936,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F91" t="n">
-        <v>560</v>
+        <v>25.6282</v>
       </c>
       <c r="G91" t="n">
-        <v>1003.416666666667</v>
+        <v>1002.883333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3983,10 @@
         <v>1024</v>
       </c>
       <c r="F92" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="G92" t="n">
-        <v>1003.983333333333</v>
+        <v>1003.416666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,7 +4006,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C93" t="n">
         <v>1024</v>
@@ -3627,13 +4015,13 @@
         <v>1024</v>
       </c>
       <c r="E93" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F93" t="n">
-        <v>3652.7643</v>
+        <v>280</v>
       </c>
       <c r="G93" t="n">
-        <v>1004.516666666667</v>
+        <v>1003.983333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +4041,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C94" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="D94" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E94" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F94" t="n">
-        <v>4949.3824</v>
+        <v>3652.7643</v>
       </c>
       <c r="G94" t="n">
-        <v>1004.966666666667</v>
+        <v>1004.516666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +4076,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="C95" t="n">
         <v>1019</v>
       </c>
       <c r="D95" t="n">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="E95" t="n">
         <v>1019</v>
       </c>
       <c r="F95" t="n">
-        <v>399.92</v>
+        <v>4949.3824</v>
       </c>
       <c r="G95" t="n">
-        <v>1005.45</v>
+        <v>1004.966666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +4114,19 @@
         <v>1019</v>
       </c>
       <c r="C96" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D96" t="n">
         <v>1019</v>
       </c>
       <c r="E96" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F96" t="n">
-        <v>347.1815</v>
+        <v>399.92</v>
       </c>
       <c r="G96" t="n">
-        <v>1005.933333333333</v>
+        <v>1005.45</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +4146,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C97" t="n">
         <v>1018</v>
       </c>
-      <c r="C97" t="n">
-        <v>1017</v>
-      </c>
       <c r="D97" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E97" t="n">
         <v>1018</v>
       </c>
-      <c r="E97" t="n">
-        <v>1017</v>
-      </c>
       <c r="F97" t="n">
-        <v>361.8779</v>
+        <v>347.1815</v>
       </c>
       <c r="G97" t="n">
-        <v>1006.283333333333</v>
+        <v>1005.933333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +4181,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C98" t="n">
         <v>1017</v>
       </c>
       <c r="D98" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E98" t="n">
         <v>1017</v>
       </c>
       <c r="F98" t="n">
-        <v>430.021</v>
+        <v>361.8779</v>
       </c>
       <c r="G98" t="n">
-        <v>1006.766666666667</v>
+        <v>1006.283333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4216,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F99" t="n">
-        <v>1467.7103</v>
+        <v>430.021</v>
       </c>
       <c r="G99" t="n">
-        <v>1007.216666666667</v>
+        <v>1006.766666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4251,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="E100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F100" t="n">
-        <v>17.2875</v>
+        <v>1467.7103</v>
       </c>
       <c r="G100" t="n">
-        <v>1007.616666666667</v>
+        <v>1007.216666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +4289,19 @@
         <v>1018</v>
       </c>
       <c r="C101" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D101" t="n">
         <v>1018</v>
       </c>
       <c r="E101" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F101" t="n">
-        <v>1125.3224</v>
+        <v>17.2875</v>
       </c>
       <c r="G101" t="n">
-        <v>1008</v>
+        <v>1007.616666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3936,19 +4324,19 @@
         <v>1018</v>
       </c>
       <c r="C102" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D102" t="n">
         <v>1018</v>
       </c>
       <c r="E102" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F102" t="n">
-        <v>976.043</v>
+        <v>1125.3224</v>
       </c>
       <c r="G102" t="n">
-        <v>1008.45</v>
+        <v>1008</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4356,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C103" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D103" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E103" t="n">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="F103" t="n">
-        <v>10553.0261</v>
+        <v>976.043</v>
       </c>
       <c r="G103" t="n">
-        <v>1008.916666666667</v>
+        <v>1008.45</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4391,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C104" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D104" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E104" t="n">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="F104" t="n">
-        <v>416.6747</v>
+        <v>10553.0261</v>
       </c>
       <c r="G104" t="n">
-        <v>1009.316666666667</v>
+        <v>1008.916666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4426,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C105" t="n">
         <v>1018</v>
@@ -4047,13 +4435,13 @@
         <v>1018</v>
       </c>
       <c r="E105" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F105" t="n">
-        <v>2467.5417</v>
+        <v>416.6747</v>
       </c>
       <c r="G105" t="n">
-        <v>1009.683333333333</v>
+        <v>1009.316666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,7 +4461,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C106" t="n">
         <v>1018</v>
@@ -4082,13 +4470,13 @@
         <v>1018</v>
       </c>
       <c r="E106" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F106" t="n">
-        <v>404.6194</v>
+        <v>2467.5417</v>
       </c>
       <c r="G106" t="n">
-        <v>1010.05</v>
+        <v>1009.683333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4508,10 @@
         <v>1018</v>
       </c>
       <c r="F107" t="n">
-        <v>57.7541</v>
+        <v>404.6194</v>
       </c>
       <c r="G107" t="n">
-        <v>1010.4</v>
+        <v>1010.05</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4531,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F108" t="n">
-        <v>101.45</v>
+        <v>57.7541</v>
       </c>
       <c r="G108" t="n">
-        <v>1010.766666666667</v>
+        <v>1010.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4566,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F109" t="n">
-        <v>218.3092</v>
+        <v>101.45</v>
       </c>
       <c r="G109" t="n">
-        <v>1011.083333333333</v>
+        <v>1010.766666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4601,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F110" t="n">
-        <v>150</v>
+        <v>218.3092</v>
       </c>
       <c r="G110" t="n">
-        <v>1011.366666666667</v>
+        <v>1011.083333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4636,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C111" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D111" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E111" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F111" t="n">
-        <v>374.5641</v>
+        <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>1011.65</v>
+        <v>1011.366666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4671,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C112" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D112" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E112" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F112" t="n">
-        <v>1489.041</v>
+        <v>374.5641</v>
       </c>
       <c r="G112" t="n">
-        <v>1012.016666666667</v>
+        <v>1011.65</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4706,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C113" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D113" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E113" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F113" t="n">
-        <v>870</v>
+        <v>1489.041</v>
       </c>
       <c r="G113" t="n">
-        <v>1012.4</v>
+        <v>1012.016666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4741,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C114" t="n">
         <v>1022</v>
@@ -4362,13 +4750,13 @@
         <v>1022</v>
       </c>
       <c r="E114" t="n">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F114" t="n">
-        <v>26.779</v>
+        <v>870</v>
       </c>
       <c r="G114" t="n">
-        <v>1012.783333333333</v>
+        <v>1012.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4788,10 @@
         <v>1022</v>
       </c>
       <c r="F115" t="n">
-        <v>166.8928</v>
+        <v>26.779</v>
       </c>
       <c r="G115" t="n">
-        <v>1013.166666666667</v>
+        <v>1012.783333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4823,10 @@
         <v>1022</v>
       </c>
       <c r="F116" t="n">
-        <v>842.93146947</v>
+        <v>166.8928</v>
       </c>
       <c r="G116" t="n">
-        <v>1013.65</v>
+        <v>1013.166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4846,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C117" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D117" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E117" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F117" t="n">
-        <v>210</v>
+        <v>842.93146947</v>
       </c>
       <c r="G117" t="n">
-        <v>1014.066666666667</v>
+        <v>1013.65</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4881,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C118" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D118" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E118" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F118" t="n">
-        <v>20.2981</v>
+        <v>210</v>
       </c>
       <c r="G118" t="n">
-        <v>1014.433333333333</v>
+        <v>1014.066666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4928,10 @@
         <v>1021</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3355</v>
+        <v>20.2981</v>
       </c>
       <c r="G119" t="n">
-        <v>1014.8</v>
+        <v>1014.433333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4951,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>0.3355</v>
       </c>
       <c r="G120" t="n">
-        <v>1015.15</v>
+        <v>1014.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4998,10 @@
         <v>1020</v>
       </c>
       <c r="F121" t="n">
-        <v>209.9499</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>1015.5</v>
+        <v>1015.15</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +5021,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F122" t="n">
-        <v>466.8099</v>
+        <v>209.9499</v>
       </c>
       <c r="G122" t="n">
-        <v>1015.933333333333</v>
+        <v>1015.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +5056,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F123" t="n">
-        <v>1246.1353</v>
+        <v>466.8099</v>
       </c>
       <c r="G123" t="n">
-        <v>1016.35</v>
+        <v>1015.933333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +5091,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F124" t="n">
-        <v>639.2755</v>
+        <v>1246.1353</v>
       </c>
       <c r="G124" t="n">
-        <v>1016.683333333333</v>
+        <v>1016.35</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +5126,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F125" t="n">
-        <v>216.06</v>
+        <v>639.2755</v>
       </c>
       <c r="G125" t="n">
-        <v>1017.066666666667</v>
+        <v>1016.683333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +5161,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C126" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D126" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E126" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F126" t="n">
-        <v>1532.6114</v>
+        <v>216.06</v>
       </c>
       <c r="G126" t="n">
-        <v>1017.3</v>
+        <v>1017.066666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5196,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C127" t="n">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D127" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E127" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F127" t="n">
-        <v>308.2787</v>
+        <v>1532.6114</v>
       </c>
       <c r="G127" t="n">
-        <v>1017.633333333333</v>
+        <v>1017.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4852,13 +5240,13 @@
         <v>1019</v>
       </c>
       <c r="E128" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F128" t="n">
-        <v>42.2498</v>
+        <v>308.2787</v>
       </c>
       <c r="G128" t="n">
-        <v>1017.966666666667</v>
+        <v>1017.633333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +5278,10 @@
         <v>1019</v>
       </c>
       <c r="F129" t="n">
-        <v>47.9194</v>
+        <v>42.2498</v>
       </c>
       <c r="G129" t="n">
-        <v>1018.283333333333</v>
+        <v>1017.966666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +5301,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F130" t="n">
-        <v>181.2481</v>
+        <v>47.9194</v>
       </c>
       <c r="G130" t="n">
-        <v>1018.5</v>
+        <v>1018.283333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +5339,19 @@
         <v>1015</v>
       </c>
       <c r="C131" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D131" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E131" t="n">
         <v>1015</v>
       </c>
       <c r="F131" t="n">
-        <v>181.0448</v>
+        <v>181.2481</v>
       </c>
       <c r="G131" t="n">
-        <v>1018.7</v>
+        <v>1018.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5371,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C132" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E132" t="n">
         <v>1015</v>
       </c>
-      <c r="D132" t="n">
-        <v>1015</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1012</v>
-      </c>
       <c r="F132" t="n">
-        <v>280.2976</v>
+        <v>181.0448</v>
       </c>
       <c r="G132" t="n">
-        <v>1018.866666666667</v>
+        <v>1018.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5406,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C133" t="n">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="D133" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E133" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F133" t="n">
-        <v>626.9482</v>
+        <v>280.2976</v>
       </c>
       <c r="G133" t="n">
-        <v>1018.833333333333</v>
+        <v>1018.866666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5441,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C134" t="n">
         <v>1006</v>
       </c>
-      <c r="C134" t="n">
-        <v>1004</v>
-      </c>
       <c r="D134" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E134" t="n">
         <v>1006</v>
       </c>
-      <c r="E134" t="n">
-        <v>1004</v>
-      </c>
       <c r="F134" t="n">
-        <v>1413.4452</v>
+        <v>626.9482</v>
       </c>
       <c r="G134" t="n">
-        <v>1018.766666666667</v>
+        <v>1018.833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5476,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C135" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D135" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E135" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F135" t="n">
-        <v>67.12220000000001</v>
+        <v>1413.4452</v>
       </c>
       <c r="G135" t="n">
-        <v>1018.783333333333</v>
+        <v>1018.766666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5511,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C136" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D136" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E136" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F136" t="n">
-        <v>962.3884</v>
+        <v>67.12220000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>1018.55</v>
+        <v>1018.783333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,32 +5546,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C137" t="n">
         <v>1002</v>
       </c>
-      <c r="C137" t="n">
-        <v>1008</v>
-      </c>
       <c r="D137" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E137" t="n">
         <v>1002</v>
       </c>
       <c r="F137" t="n">
-        <v>25</v>
+        <v>962.3884</v>
       </c>
       <c r="G137" t="n">
-        <v>1018.416666666667</v>
+        <v>1018.55</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1009</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5587,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C138" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="D138" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="E138" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F138" t="n">
-        <v>429.1526</v>
+        <v>25</v>
       </c>
       <c r="G138" t="n">
-        <v>1018.233333333333</v>
+        <v>1018.416666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,7 +5612,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5240,20 +5638,26 @@
         <v>1004</v>
       </c>
       <c r="F139" t="n">
-        <v>293.0333</v>
+        <v>429.1526</v>
       </c>
       <c r="G139" t="n">
-        <v>1018.033333333333</v>
+        <v>1018.233333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1008</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5667,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C140" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D140" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E140" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F140" t="n">
-        <v>272.33</v>
+        <v>293.0333</v>
       </c>
       <c r="G140" t="n">
-        <v>1017.766666666667</v>
+        <v>1018.033333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,7 +5692,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5706,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C141" t="n">
         <v>1005</v>
       </c>
       <c r="D141" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E141" t="n">
         <v>1005</v>
       </c>
       <c r="F141" t="n">
-        <v>37.114</v>
+        <v>272.33</v>
       </c>
       <c r="G141" t="n">
-        <v>1017.5</v>
+        <v>1017.766666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5731,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5745,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F142" t="n">
-        <v>647.2785</v>
+        <v>37.114</v>
       </c>
       <c r="G142" t="n">
-        <v>1017.183333333333</v>
+        <v>1017.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5770,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5784,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C143" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D143" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E143" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F143" t="n">
-        <v>420</v>
+        <v>647.2785</v>
       </c>
       <c r="G143" t="n">
-        <v>1016.866666666667</v>
+        <v>1017.183333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5809,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5823,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C144" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D144" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E144" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F144" t="n">
-        <v>6.3429</v>
+        <v>420</v>
       </c>
       <c r="G144" t="n">
-        <v>1016.566666666667</v>
+        <v>1016.866666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5848,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5862,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C145" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D145" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E145" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F145" t="n">
-        <v>3914.1643</v>
+        <v>6.3429</v>
       </c>
       <c r="G145" t="n">
-        <v>1016.266666666667</v>
+        <v>1016.566666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5887,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5901,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C146" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D146" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E146" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F146" t="n">
-        <v>738.8143</v>
+        <v>3914.1643</v>
       </c>
       <c r="G146" t="n">
-        <v>1015.85</v>
+        <v>1016.266666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5926,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5940,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C147" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D147" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E147" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F147" t="n">
-        <v>41.6681</v>
+        <v>738.8143</v>
       </c>
       <c r="G147" t="n">
-        <v>1015.433333333333</v>
+        <v>1015.85</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +5965,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5555,10 +5991,10 @@
         <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>31.7806</v>
+        <v>41.6681</v>
       </c>
       <c r="G148" t="n">
-        <v>1015.016666666667</v>
+        <v>1015.433333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +6004,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +6018,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C149" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D149" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E149" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>225.3699</v>
+        <v>31.7806</v>
       </c>
       <c r="G149" t="n">
-        <v>1014.55</v>
+        <v>1015.016666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +6043,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +6057,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>998</v>
+      </c>
+      <c r="C150" t="n">
         <v>997</v>
       </c>
-      <c r="C150" t="n">
-        <v>993</v>
-      </c>
       <c r="D150" t="n">
+        <v>998</v>
+      </c>
+      <c r="E150" t="n">
         <v>997</v>
       </c>
-      <c r="E150" t="n">
-        <v>993</v>
-      </c>
       <c r="F150" t="n">
-        <v>360.0486</v>
+        <v>225.3699</v>
       </c>
       <c r="G150" t="n">
-        <v>1014.066666666667</v>
+        <v>1014.55</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,7 +6082,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +6096,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C151" t="n">
         <v>993</v>
       </c>
       <c r="D151" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E151" t="n">
         <v>993</v>
       </c>
       <c r="F151" t="n">
-        <v>301.5849</v>
+        <v>360.0486</v>
       </c>
       <c r="G151" t="n">
-        <v>1013.55</v>
+        <v>1014.066666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +6121,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +6135,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C152" t="n">
         <v>993</v>
       </c>
       <c r="D152" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E152" t="n">
         <v>993</v>
       </c>
       <c r="F152" t="n">
-        <v>2041.6269</v>
+        <v>301.5849</v>
       </c>
       <c r="G152" t="n">
-        <v>1013.033333333333</v>
+        <v>1013.55</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,7 +6160,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5721,29 +6177,35 @@
         <v>995</v>
       </c>
       <c r="C153" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D153" t="n">
         <v>995</v>
       </c>
       <c r="E153" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F153" t="n">
-        <v>379.7424</v>
+        <v>2041.6269</v>
       </c>
       <c r="G153" t="n">
-        <v>1012.533333333333</v>
+        <v>1013.033333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>993</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5756,19 +6218,19 @@
         <v>995</v>
       </c>
       <c r="C154" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D154" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E154" t="n">
         <v>994</v>
       </c>
       <c r="F154" t="n">
-        <v>920.8681</v>
+        <v>379.7424</v>
       </c>
       <c r="G154" t="n">
-        <v>1012.15</v>
+        <v>1012.533333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,7 +6240,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,32 +6254,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C155" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D155" t="n">
+        <v>996</v>
+      </c>
+      <c r="E155" t="n">
         <v>994</v>
       </c>
-      <c r="E155" t="n">
-        <v>993</v>
-      </c>
       <c r="F155" t="n">
-        <v>1588</v>
+        <v>920.8681</v>
       </c>
       <c r="G155" t="n">
-        <v>1011.716666666667</v>
+        <v>1012.15</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>994</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5829,26 +6301,32 @@
         <v>993</v>
       </c>
       <c r="D156" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E156" t="n">
         <v>993</v>
       </c>
       <c r="F156" t="n">
-        <v>2181.7309</v>
+        <v>1588</v>
       </c>
       <c r="G156" t="n">
-        <v>1011.3</v>
+        <v>1011.716666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>996</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5861,29 +6339,35 @@
         <v>993</v>
       </c>
       <c r="C157" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D157" t="n">
         <v>993</v>
       </c>
       <c r="E157" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F157" t="n">
-        <v>1998.2197</v>
+        <v>2181.7309</v>
       </c>
       <c r="G157" t="n">
-        <v>1010.883333333333</v>
+        <v>1011.3</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>993</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,32 +6377,38 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>993</v>
+      </c>
+      <c r="C158" t="n">
         <v>992</v>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>993</v>
-      </c>
-      <c r="D158" t="n">
-        <v>996</v>
       </c>
       <c r="E158" t="n">
         <v>992</v>
       </c>
       <c r="F158" t="n">
-        <v>1178.47</v>
+        <v>1998.2197</v>
       </c>
       <c r="G158" t="n">
-        <v>1010.483333333333</v>
+        <v>1010.883333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>993</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,32 +6418,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>992</v>
+      </c>
+      <c r="C159" t="n">
         <v>993</v>
       </c>
-      <c r="C159" t="n">
-        <v>992</v>
-      </c>
       <c r="D159" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E159" t="n">
         <v>992</v>
       </c>
       <c r="F159" t="n">
-        <v>1541.1467</v>
+        <v>1178.47</v>
       </c>
       <c r="G159" t="n">
-        <v>1009.983333333333</v>
+        <v>1010.483333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>992</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,32 +6459,38 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C160" t="n">
         <v>992</v>
       </c>
       <c r="D160" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E160" t="n">
         <v>992</v>
       </c>
       <c r="F160" t="n">
-        <v>1336</v>
+        <v>1541.1467</v>
       </c>
       <c r="G160" t="n">
-        <v>1009.55</v>
+        <v>1009.983333333333</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>993</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6007,23 +6509,29 @@
         <v>992</v>
       </c>
       <c r="E161" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F161" t="n">
-        <v>2662.9746</v>
+        <v>1336</v>
       </c>
       <c r="G161" t="n">
-        <v>1009.133333333333</v>
+        <v>1009.55</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>992</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6036,19 +6544,19 @@
         <v>992</v>
       </c>
       <c r="C162" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D162" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E162" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F162" t="n">
-        <v>2598.57</v>
+        <v>2662.9746</v>
       </c>
       <c r="G162" t="n">
-        <v>1008.783333333333</v>
+        <v>1009.133333333333</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -6062,7 +6570,7 @@
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -6074,22 +6582,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C163" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="D163" t="n">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E163" t="n">
         <v>992</v>
       </c>
       <c r="F163" t="n">
-        <v>1594.7089</v>
+        <v>2598.57</v>
       </c>
       <c r="G163" t="n">
-        <v>1008.333333333333</v>
+        <v>1008.783333333333</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -6098,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
@@ -6115,22 +6623,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>994</v>
+      </c>
+      <c r="C164" t="n">
         <v>992</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>994</v>
-      </c>
-      <c r="D164" t="n">
-        <v>996</v>
       </c>
       <c r="E164" t="n">
         <v>992</v>
       </c>
       <c r="F164" t="n">
-        <v>2247</v>
+        <v>1594.7089</v>
       </c>
       <c r="G164" t="n">
-        <v>1007.933333333333</v>
+        <v>1008.333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -6139,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
@@ -6156,22 +6664,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C165" t="n">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D165" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E165" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F165" t="n">
-        <v>2607.161</v>
+        <v>2247</v>
       </c>
       <c r="G165" t="n">
-        <v>1007.616666666667</v>
+        <v>1007.933333333333</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -6180,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
@@ -6197,31 +6705,31 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C166" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D166" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E166" t="n">
+        <v>993</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2607.161</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1007.616666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>994</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2790</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1007.266666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>999</v>
       </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
@@ -6241,19 +6749,19 @@
         <v>995</v>
       </c>
       <c r="C167" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D167" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E167" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F167" t="n">
-        <v>177.6519</v>
+        <v>2790</v>
       </c>
       <c r="G167" t="n">
-        <v>1006.883333333333</v>
+        <v>1007.266666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6277,22 +6785,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F168" t="n">
-        <v>397</v>
+        <v>177.6519</v>
       </c>
       <c r="G168" t="n">
-        <v>1006.466666666667</v>
+        <v>1006.883333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6316,22 +6824,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C169" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D169" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E169" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F169" t="n">
-        <v>1719</v>
+        <v>397</v>
       </c>
       <c r="G169" t="n">
-        <v>1006.133333333333</v>
+        <v>1006.466666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6355,22 +6863,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C170" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D170" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E170" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F170" t="n">
-        <v>1884.8194</v>
+        <v>1719</v>
       </c>
       <c r="G170" t="n">
-        <v>1005.883333333333</v>
+        <v>1006.133333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6394,22 +6902,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C171" t="n">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E171" t="n">
         <v>997</v>
       </c>
-      <c r="E171" t="n">
-        <v>996</v>
-      </c>
       <c r="F171" t="n">
-        <v>2240</v>
+        <v>1884.8194</v>
       </c>
       <c r="G171" t="n">
-        <v>1005.55</v>
+        <v>1005.883333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6436,19 +6944,19 @@
         <v>996</v>
       </c>
       <c r="C172" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D172" t="n">
+        <v>997</v>
+      </c>
+      <c r="E172" t="n">
         <v>996</v>
       </c>
-      <c r="E172" t="n">
-        <v>995</v>
-      </c>
       <c r="F172" t="n">
-        <v>2225</v>
+        <v>2240</v>
       </c>
       <c r="G172" t="n">
-        <v>1005.116666666667</v>
+        <v>1005.55</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6472,22 +6980,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C173" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D173" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E173" t="n">
         <v>995</v>
       </c>
       <c r="F173" t="n">
-        <v>3200.046</v>
+        <v>2225</v>
       </c>
       <c r="G173" t="n">
-        <v>1004.75</v>
+        <v>1005.116666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6511,22 +7019,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C174" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D174" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E174" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F174" t="n">
-        <v>1569.5546</v>
+        <v>3200.046</v>
       </c>
       <c r="G174" t="n">
-        <v>1004.333333333333</v>
+        <v>1004.75</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6553,7 +7061,7 @@
         <v>996</v>
       </c>
       <c r="C175" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D175" t="n">
         <v>997</v>
@@ -6562,10 +7070,10 @@
         <v>996</v>
       </c>
       <c r="F175" t="n">
-        <v>650</v>
+        <v>1569.5546</v>
       </c>
       <c r="G175" t="n">
-        <v>1003.9</v>
+        <v>1004.333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6592,19 +7100,19 @@
         <v>996</v>
       </c>
       <c r="C176" t="n">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D176" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E176" t="n">
         <v>996</v>
       </c>
       <c r="F176" t="n">
-        <v>3955.4923</v>
+        <v>650</v>
       </c>
       <c r="G176" t="n">
-        <v>1003.5</v>
+        <v>1003.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6628,22 +7136,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>996</v>
+      </c>
+      <c r="C177" t="n">
         <v>998</v>
       </c>
-      <c r="C177" t="n">
-        <v>999</v>
-      </c>
       <c r="D177" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E177" t="n">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F177" t="n">
-        <v>2123.9837</v>
+        <v>3955.4923</v>
       </c>
       <c r="G177" t="n">
-        <v>1003.183333333333</v>
+        <v>1003.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6667,22 +7175,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>998</v>
+      </c>
+      <c r="C178" t="n">
         <v>999</v>
       </c>
-      <c r="C178" t="n">
-        <v>1002</v>
-      </c>
       <c r="D178" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E178" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F178" t="n">
-        <v>2854.94</v>
+        <v>2123.9837</v>
       </c>
       <c r="G178" t="n">
-        <v>1002.866666666667</v>
+        <v>1003.183333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6706,10 +7214,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C179" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D179" t="n">
         <v>1002</v>
@@ -6718,10 +7226,10 @@
         <v>999</v>
       </c>
       <c r="F179" t="n">
-        <v>2176</v>
+        <v>2854.94</v>
       </c>
       <c r="G179" t="n">
-        <v>1002.5</v>
+        <v>1002.866666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6745,22 +7253,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C180" t="n">
         <v>999</v>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>1002</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1003</v>
       </c>
       <c r="E180" t="n">
         <v>999</v>
       </c>
       <c r="F180" t="n">
-        <v>3306.7786</v>
+        <v>2176</v>
       </c>
       <c r="G180" t="n">
-        <v>1002.2</v>
+        <v>1002.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6787,19 +7295,19 @@
         <v>999</v>
       </c>
       <c r="C181" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E181" t="n">
         <v>999</v>
       </c>
-      <c r="D181" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E181" t="n">
-        <v>998</v>
-      </c>
       <c r="F181" t="n">
-        <v>3840.3673</v>
+        <v>3306.7786</v>
       </c>
       <c r="G181" t="n">
-        <v>1001.85</v>
+        <v>1002.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6829,16 +7337,16 @@
         <v>999</v>
       </c>
       <c r="D182" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E182" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F182" t="n">
-        <v>3955.5776</v>
+        <v>3840.3673</v>
       </c>
       <c r="G182" t="n">
-        <v>1001.483333333333</v>
+        <v>1001.85</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6862,22 +7370,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C183" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D183" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E183" t="n">
         <v>999</v>
       </c>
       <c r="F183" t="n">
-        <v>2997</v>
+        <v>3955.5776</v>
       </c>
       <c r="G183" t="n">
-        <v>1001.15</v>
+        <v>1001.483333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6901,22 +7409,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C184" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D184" t="n">
         <v>1010</v>
       </c>
       <c r="E184" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F184" t="n">
-        <v>2246</v>
+        <v>2997</v>
       </c>
       <c r="G184" t="n">
-        <v>1000.866666666667</v>
+        <v>1001.15</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6940,22 +7448,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C185" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D185" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E185" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F185" t="n">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="G185" t="n">
-        <v>1000.6</v>
+        <v>1000.866666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6979,22 +7487,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C186" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D186" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E186" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F186" t="n">
-        <v>1785</v>
+        <v>2252</v>
       </c>
       <c r="G186" t="n">
-        <v>1000.4</v>
+        <v>1000.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7021,19 +7529,19 @@
         <v>1004</v>
       </c>
       <c r="C187" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D187" t="n">
         <v>1004</v>
       </c>
       <c r="E187" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F187" t="n">
-        <v>2298</v>
+        <v>1785</v>
       </c>
       <c r="G187" t="n">
-        <v>1000.15</v>
+        <v>1000.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7057,22 +7565,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C188" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D188" t="n">
         <v>1004</v>
       </c>
       <c r="E188" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F188" t="n">
-        <v>2225</v>
+        <v>2298</v>
       </c>
       <c r="G188" t="n">
-        <v>999.8666666666667</v>
+        <v>1000.15</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7096,22 +7604,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C189" t="n">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D189" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E189" t="n">
         <v>1001</v>
       </c>
       <c r="F189" t="n">
-        <v>2240.5551</v>
+        <v>2225</v>
       </c>
       <c r="G189" t="n">
-        <v>999.7</v>
+        <v>999.8666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7135,22 +7643,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="C190" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D190" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E190" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F190" t="n">
-        <v>3608.1372</v>
+        <v>2240.5551</v>
       </c>
       <c r="G190" t="n">
-        <v>999.5166666666667</v>
+        <v>999.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7174,22 +7682,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C191" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D191" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E191" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F191" t="n">
-        <v>3886.8397</v>
+        <v>3608.1372</v>
       </c>
       <c r="G191" t="n">
-        <v>999.25</v>
+        <v>999.5166666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7213,22 +7721,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C192" t="n">
         <v>1001</v>
       </c>
-      <c r="C192" t="n">
-        <v>1007</v>
-      </c>
       <c r="D192" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E192" t="n">
         <v>1000</v>
       </c>
       <c r="F192" t="n">
-        <v>2042.4461</v>
+        <v>3886.8397</v>
       </c>
       <c r="G192" t="n">
-        <v>999.1166666666667</v>
+        <v>999.25</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7252,19 +7760,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C193" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D193" t="n">
         <v>1007</v>
       </c>
       <c r="E193" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F193" t="n">
-        <v>1408.3096</v>
+        <v>2042.4461</v>
       </c>
       <c r="G193" t="n">
         <v>999.1166666666667</v>
@@ -7291,22 +7799,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C194" t="n">
         <v>1006</v>
       </c>
       <c r="D194" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E194" t="n">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F194" t="n">
-        <v>593.1158</v>
+        <v>1408.3096</v>
       </c>
       <c r="G194" t="n">
-        <v>999.15</v>
+        <v>999.1166666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7342,10 +7850,10 @@
         <v>1006</v>
       </c>
       <c r="F195" t="n">
-        <v>221.1518</v>
+        <v>593.1158</v>
       </c>
       <c r="G195" t="n">
-        <v>999.1</v>
+        <v>999.15</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7361,6 +7869,45 @@
         </is>
       </c>
       <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F196" t="n">
+        <v>221.1518</v>
+      </c>
+      <c r="G196" t="n">
+        <v>999.1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>39.8144</v>
       </c>
       <c r="G2" t="n">
+        <v>991.3333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>990.65</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1651.0428</v>
       </c>
       <c r="G3" t="n">
+        <v>991.3333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>990.55</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
+        <v>991.3333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>990.4666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>397.0316</v>
       </c>
       <c r="G5" t="n">
+        <v>991.3333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>990.3833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>990.3833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>572.4732</v>
       </c>
       <c r="G7" t="n">
+        <v>991.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>990.3833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>59.9406</v>
       </c>
       <c r="G8" t="n">
+        <v>991.9333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>990.3666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1.0594</v>
       </c>
       <c r="G9" t="n">
+        <v>992.0666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>990.2166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1000</v>
       </c>
       <c r="G10" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>990.1333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>67.1747</v>
       </c>
       <c r="G11" t="n">
+        <v>991.2666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>990.0666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,25 @@
         <v>552.7843</v>
       </c>
       <c r="G12" t="n">
+        <v>990.9333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>989.95</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>987</v>
+      </c>
+      <c r="L12" t="n">
+        <v>987</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +875,29 @@
         <v>34.431</v>
       </c>
       <c r="G13" t="n">
+        <v>990.8666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>989.8833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>986</v>
+      </c>
+      <c r="L13" t="n">
+        <v>987</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,22 +921,29 @@
         <v>47.5559</v>
       </c>
       <c r="G14" t="n">
+        <v>990.6</v>
+      </c>
+      <c r="H14" t="n">
         <v>989.8166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>989</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>987</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -907,26 +967,25 @@
         <v>75.2475</v>
       </c>
       <c r="G15" t="n">
+        <v>990.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>989.7666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>989</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>989</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,24 +1009,29 @@
         <v>518.7525000000001</v>
       </c>
       <c r="G16" t="n">
+        <v>990</v>
+      </c>
+      <c r="H16" t="n">
         <v>989.7666666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="n">
+        <v>990</v>
+      </c>
+      <c r="L16" t="n">
         <v>989</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,22 +1055,29 @@
         <v>3.6914</v>
       </c>
       <c r="G17" t="n">
+        <v>990.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>989.8833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>990</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>989</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1030,24 +1101,25 @@
         <v>6.6914</v>
       </c>
       <c r="G18" t="n">
+        <v>990.1333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>989.8833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
-        <v>990</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+        <v>995</v>
+      </c>
+      <c r="L18" t="n">
+        <v>995</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1071,24 +1143,29 @@
         <v>8</v>
       </c>
       <c r="G19" t="n">
+        <v>990.4666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>989.9833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
-        <v>990</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>988</v>
+      </c>
+      <c r="L19" t="n">
+        <v>995</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1112,24 +1189,27 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
+        <v>990.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>990.0833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>990</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>995</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1153,24 +1233,27 @@
         <v>8.1502</v>
       </c>
       <c r="G21" t="n">
+        <v>990.6666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>990.1666666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>990</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>995</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1277,27 @@
         <v>1188.8908</v>
       </c>
       <c r="G22" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="H22" t="n">
         <v>990.15</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>990</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>995</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,21 +1324,24 @@
         <v>990.1333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>990.1333333333333</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>990</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>995</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1276,24 +1365,27 @@
         <v>2193.0012</v>
       </c>
       <c r="G24" t="n">
+        <v>990.3333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>990.2333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>990</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>995</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1317,24 +1409,27 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
+        <v>990.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>990.3666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>990</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>995</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,24 +1453,27 @@
         <v>1018.1634</v>
       </c>
       <c r="G26" t="n">
+        <v>991.1333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>990.4166666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>990</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>995</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1399,24 +1497,27 @@
         <v>1190.1534</v>
       </c>
       <c r="G27" t="n">
+        <v>991.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>990.5333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>990</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>995</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,24 +1541,27 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
+        <v>991.9333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>990.5666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>990</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>995</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,24 +1585,27 @@
         <v>104.5159</v>
       </c>
       <c r="G29" t="n">
+        <v>992.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>990.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>990</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>995</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,24 +1629,27 @@
         <v>68.7311</v>
       </c>
       <c r="G30" t="n">
+        <v>992.1333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>990.7166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>990</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>995</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1563,24 +1673,29 @@
         <v>1063.0363</v>
       </c>
       <c r="G31" t="n">
+        <v>992.1333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>990.75</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
-        <v>990</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>991</v>
+      </c>
+      <c r="L31" t="n">
+        <v>995</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1604,24 +1719,29 @@
         <v>1.008</v>
       </c>
       <c r="G32" t="n">
+        <v>991.9333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>990.8</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
         <v>990</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="n">
+        <v>995</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,24 +1765,29 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
+        <v>992.0666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>990.8166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
-        <v>990</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>992</v>
+      </c>
+      <c r="L33" t="n">
+        <v>995</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1686,24 +1811,29 @@
         <v>5</v>
       </c>
       <c r="G34" t="n">
+        <v>991.8666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>990.8666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="n">
         <v>990</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>995</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,24 +1857,29 @@
         <v>243.4011</v>
       </c>
       <c r="G35" t="n">
+        <v>991.7333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>990.9166666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
-        <v>990</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>992</v>
+      </c>
+      <c r="L35" t="n">
+        <v>995</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,24 +1903,29 @@
         <v>698.8681</v>
       </c>
       <c r="G36" t="n">
+        <v>991.4666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>990.9333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="n">
-        <v>990</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>992</v>
+      </c>
+      <c r="L36" t="n">
+        <v>995</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,24 +1949,29 @@
         <v>231.1437</v>
       </c>
       <c r="G37" t="n">
+        <v>991.5333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>990.9166666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
         <v>990</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>995</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,24 +1995,29 @@
         <v>1465.014</v>
       </c>
       <c r="G38" t="n">
+        <v>992.0666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>991.0166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="n">
-        <v>990</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>989</v>
+      </c>
+      <c r="L38" t="n">
+        <v>995</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1891,24 +2041,29 @@
         <v>229.8766</v>
       </c>
       <c r="G39" t="n">
+        <v>991.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>991</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
-        <v>990</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>996</v>
+      </c>
+      <c r="L39" t="n">
+        <v>995</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,24 +2087,27 @@
         <v>42.8536</v>
       </c>
       <c r="G40" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>991.0833333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>990</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>995</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,24 +2131,27 @@
         <v>391.0465</v>
       </c>
       <c r="G41" t="n">
+        <v>991.8</v>
+      </c>
+      <c r="H41" t="n">
         <v>991.15</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>990</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>995</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,24 +2175,27 @@
         <v>403.809</v>
       </c>
       <c r="G42" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>991.2166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>990</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>995</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2055,24 +2219,27 @@
         <v>1090.5341</v>
       </c>
       <c r="G43" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>991.2333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>990</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>995</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2096,24 +2263,27 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
+        <v>991.6666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>991.25</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>990</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>995</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2137,24 +2307,27 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
+        <v>991.8666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>991.3166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>990</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>995</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,24 +2351,27 @@
         <v>1732.6206</v>
       </c>
       <c r="G46" t="n">
+        <v>992.2666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>991.4166666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>990</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>995</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2219,24 +2395,27 @@
         <v>240.9727</v>
       </c>
       <c r="G47" t="n">
+        <v>992.5333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>991.5166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>990</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>995</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,24 +2439,27 @@
         <v>1896.2676</v>
       </c>
       <c r="G48" t="n">
+        <v>993</v>
+      </c>
+      <c r="H48" t="n">
         <v>991.6333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>990</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>995</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2301,24 +2483,27 @@
         <v>144.1545</v>
       </c>
       <c r="G49" t="n">
+        <v>993.3333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>991.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>990</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>995</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,24 +2527,27 @@
         <v>998.41</v>
       </c>
       <c r="G50" t="n">
+        <v>993.6666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>991.8666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>990</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>995</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,24 +2571,27 @@
         <v>283.58</v>
       </c>
       <c r="G51" t="n">
+        <v>994.2</v>
+      </c>
+      <c r="H51" t="n">
         <v>992</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>990</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>995</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,24 +2615,27 @@
         <v>2970.1779</v>
       </c>
       <c r="G52" t="n">
+        <v>994.8666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>992.15</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>990</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>995</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2465,24 +2659,27 @@
         <v>203.9399</v>
       </c>
       <c r="G53" t="n">
+        <v>995.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>992.3</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>990</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>995</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,24 +2703,27 @@
         <v>50.6789</v>
       </c>
       <c r="G54" t="n">
+        <v>995.8</v>
+      </c>
+      <c r="H54" t="n">
         <v>992.45</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>990</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>995</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,24 +2747,27 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
+        <v>996.0666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>992.55</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>990</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>995</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,24 +2791,27 @@
         <v>1.04204204</v>
       </c>
       <c r="G56" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>992.65</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>990</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>995</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2629,24 +2835,27 @@
         <v>175.33</v>
       </c>
       <c r="G57" t="n">
+        <v>996.3333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>992.6833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>990</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>995</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,24 +2879,27 @@
         <v>3420.6184</v>
       </c>
       <c r="G58" t="n">
+        <v>996.4666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>992.7333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>990</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>995</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2711,24 +2923,27 @@
         <v>100.1001</v>
       </c>
       <c r="G59" t="n">
+        <v>997</v>
+      </c>
+      <c r="H59" t="n">
         <v>992.8333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>990</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>995</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,24 +2967,27 @@
         <v>37.2686</v>
       </c>
       <c r="G60" t="n">
+        <v>997.3333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>992.9</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>990</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>995</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,24 +3011,27 @@
         <v>209.59</v>
       </c>
       <c r="G61" t="n">
+        <v>997.5333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>992.9833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>990</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>995</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,24 +3055,27 @@
         <v>100</v>
       </c>
       <c r="G62" t="n">
+        <v>997.7333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>993.1166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>990</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>995</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,24 +3099,27 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="H63" t="n">
         <v>993.2</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>990</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>995</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,24 +3143,27 @@
         <v>3210.9761</v>
       </c>
       <c r="G64" t="n">
+        <v>997.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>993.2833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>990</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>995</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2957,24 +3187,27 @@
         <v>360.1296</v>
       </c>
       <c r="G65" t="n">
+        <v>997.5333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>993.4166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>990</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>995</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,24 +3231,27 @@
         <v>1644.9222</v>
       </c>
       <c r="G66" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="H66" t="n">
         <v>993.4333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>990</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>995</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,24 +3275,27 @@
         <v>1020.6724</v>
       </c>
       <c r="G67" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="H67" t="n">
         <v>993.55</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>990</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>995</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,24 +3319,27 @@
         <v>528.9868</v>
       </c>
       <c r="G68" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>993.6666666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>990</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>995</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,24 +3363,27 @@
         <v>82.20820000000001</v>
       </c>
       <c r="G69" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>993.7833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>990</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>995</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,24 +3407,27 @@
         <v>130</v>
       </c>
       <c r="G70" t="n">
+        <v>997.4666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>994</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>990</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>995</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3203,24 +3451,27 @@
         <v>77.05410000000001</v>
       </c>
       <c r="G71" t="n">
+        <v>997.6666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>994.25</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>990</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>995</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,24 +3495,27 @@
         <v>1026.9564</v>
       </c>
       <c r="G72" t="n">
+        <v>998.4666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>994.5666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>990</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>995</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3285,24 +3539,27 @@
         <v>80.5911</v>
       </c>
       <c r="G73" t="n">
+        <v>999.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>994.8333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>990</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>995</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,24 +3583,27 @@
         <v>2077.4125</v>
       </c>
       <c r="G74" t="n">
+        <v>999.8666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>995.15</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>990</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>995</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3367,24 +3627,27 @@
         <v>306.4119</v>
       </c>
       <c r="G75" t="n">
+        <v>1000.466666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>995.45</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>990</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>995</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,24 +3671,27 @@
         <v>1025</v>
       </c>
       <c r="G76" t="n">
+        <v>1001.066666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>995.75</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>990</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>995</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,24 +3715,27 @@
         <v>7424.1231</v>
       </c>
       <c r="G77" t="n">
+        <v>1002.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>996.1</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>990</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>995</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,25 +3759,28 @@
         <v>3600.0957</v>
       </c>
       <c r="G78" t="n">
+        <v>1003.6</v>
+      </c>
+      <c r="H78" t="n">
         <v>996.5666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>990</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1.021262626262626</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>995</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3531,18 +3803,27 @@
         <v>406.3082</v>
       </c>
       <c r="G79" t="n">
+        <v>1004.933333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>996.9</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>995</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,18 +3847,27 @@
         <v>447.6918</v>
       </c>
       <c r="G80" t="n">
+        <v>1006.133333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>997.2666666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>995</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,18 +3891,27 @@
         <v>250</v>
       </c>
       <c r="G81" t="n">
+        <v>1007.8</v>
+      </c>
+      <c r="H81" t="n">
         <v>997.7166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>995</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,18 +3935,27 @@
         <v>415.5</v>
       </c>
       <c r="G82" t="n">
+        <v>1009.266666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>998.2666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>995</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,18 +3979,27 @@
         <v>557.9778</v>
       </c>
       <c r="G83" t="n">
+        <v>1010.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>998.8333333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>995</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,18 +4023,27 @@
         <v>125</v>
       </c>
       <c r="G84" t="n">
+        <v>1012.266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>999.2666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>995</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,18 +4067,27 @@
         <v>2254.2465</v>
       </c>
       <c r="G85" t="n">
+        <v>1013.666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>999.7166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>995</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,18 +4111,27 @@
         <v>1330.3155</v>
       </c>
       <c r="G86" t="n">
+        <v>1015</v>
+      </c>
+      <c r="H86" t="n">
         <v>1000.216666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>995</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,18 +4155,27 @@
         <v>1288.1455</v>
       </c>
       <c r="G87" t="n">
+        <v>1016.133333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1000.65</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>995</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,18 +4199,27 @@
         <v>1551.4001</v>
       </c>
       <c r="G88" t="n">
+        <v>1017.466666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1001.216666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>995</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,18 +4243,27 @@
         <v>945.8772</v>
       </c>
       <c r="G89" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="H89" t="n">
         <v>1001.783333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>995</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,19 +4287,28 @@
         <v>282.8058</v>
       </c>
       <c r="G90" t="n">
+        <v>1019.733333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>1002.35</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
+      <c r="L90" t="n">
+        <v>995</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1.025150753768844</v>
       </c>
     </row>
     <row r="91">
@@ -3951,18 +4331,21 @@
         <v>25.6282</v>
       </c>
       <c r="G91" t="n">
+        <v>1020.666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>1002.883333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,18 +4369,21 @@
         <v>560</v>
       </c>
       <c r="G92" t="n">
+        <v>1021.2</v>
+      </c>
+      <c r="H92" t="n">
         <v>1003.416666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,18 +4407,21 @@
         <v>280</v>
       </c>
       <c r="G93" t="n">
+        <v>1021.733333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>1003.983333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,18 +4445,21 @@
         <v>3652.7643</v>
       </c>
       <c r="G94" t="n">
+        <v>1022.333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>1004.516666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,18 +4483,21 @@
         <v>4949.3824</v>
       </c>
       <c r="G95" t="n">
+        <v>1022.533333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1004.966666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,18 +4521,21 @@
         <v>399.92</v>
       </c>
       <c r="G96" t="n">
+        <v>1022.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>1005.45</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,18 +4559,21 @@
         <v>347.1815</v>
       </c>
       <c r="G97" t="n">
+        <v>1022.2</v>
+      </c>
+      <c r="H97" t="n">
         <v>1005.933333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,18 +4597,21 @@
         <v>361.8779</v>
       </c>
       <c r="G98" t="n">
+        <v>1021.866666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>1006.283333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,18 +4635,21 @@
         <v>430.021</v>
       </c>
       <c r="G99" t="n">
+        <v>1021.6</v>
+      </c>
+      <c r="H99" t="n">
         <v>1006.766666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,18 +4673,21 @@
         <v>1467.7103</v>
       </c>
       <c r="G100" t="n">
+        <v>1021.666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>1007.216666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,18 +4711,21 @@
         <v>17.2875</v>
       </c>
       <c r="G101" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>1007.616666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,18 +4749,21 @@
         <v>1125.3224</v>
       </c>
       <c r="G102" t="n">
+        <v>1021.066666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>1008</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,18 +4787,21 @@
         <v>976.043</v>
       </c>
       <c r="G103" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>1008.45</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,18 +4825,21 @@
         <v>10553.0261</v>
       </c>
       <c r="G104" t="n">
+        <v>1020.2</v>
+      </c>
+      <c r="H104" t="n">
         <v>1008.916666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,18 +4863,21 @@
         <v>416.6747</v>
       </c>
       <c r="G105" t="n">
+        <v>1019.733333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1009.316666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,18 +4901,21 @@
         <v>2467.5417</v>
       </c>
       <c r="G106" t="n">
+        <v>1019.466666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>1009.683333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,18 +4939,21 @@
         <v>404.6194</v>
       </c>
       <c r="G107" t="n">
+        <v>1019.066666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>1010.05</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,18 +4977,21 @@
         <v>57.7541</v>
       </c>
       <c r="G108" t="n">
+        <v>1018.666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>1010.4</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,18 +5015,21 @@
         <v>101.45</v>
       </c>
       <c r="G109" t="n">
+        <v>1018.333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1010.766666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,18 +5053,21 @@
         <v>218.3092</v>
       </c>
       <c r="G110" t="n">
+        <v>1018.133333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1011.083333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,18 +5091,21 @@
         <v>150</v>
       </c>
       <c r="G111" t="n">
+        <v>1017.866666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>1011.366666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,18 +5129,21 @@
         <v>374.5641</v>
       </c>
       <c r="G112" t="n">
+        <v>1017.733333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>1011.65</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4721,18 +5167,21 @@
         <v>1489.041</v>
       </c>
       <c r="G113" t="n">
+        <v>1018</v>
+      </c>
+      <c r="H113" t="n">
         <v>1012.016666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,18 +5205,21 @@
         <v>870</v>
       </c>
       <c r="G114" t="n">
+        <v>1018.333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>1012.4</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,18 +5243,21 @@
         <v>26.779</v>
       </c>
       <c r="G115" t="n">
+        <v>1018.333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>1012.783333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,18 +5281,21 @@
         <v>166.8928</v>
       </c>
       <c r="G116" t="n">
+        <v>1018.6</v>
+      </c>
+      <c r="H116" t="n">
         <v>1013.166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4861,18 +5319,21 @@
         <v>842.93146947</v>
       </c>
       <c r="G117" t="n">
+        <v>1018.933333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>1013.65</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,18 +5357,21 @@
         <v>210</v>
       </c>
       <c r="G118" t="n">
+        <v>1018.933333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>1014.066666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,18 +5395,21 @@
         <v>20.2981</v>
       </c>
       <c r="G119" t="n">
+        <v>1019.066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1014.433333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,18 +5433,21 @@
         <v>0.3355</v>
       </c>
       <c r="G120" t="n">
+        <v>1019.266666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>1014.8</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,18 +5471,21 @@
         <v>10</v>
       </c>
       <c r="G121" t="n">
+        <v>1019.4</v>
+      </c>
+      <c r="H121" t="n">
         <v>1015.15</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,18 +5509,21 @@
         <v>209.9499</v>
       </c>
       <c r="G122" t="n">
+        <v>1019.533333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>1015.5</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,18 +5547,21 @@
         <v>466.8099</v>
       </c>
       <c r="G123" t="n">
+        <v>1019.733333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>1015.933333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,18 +5585,21 @@
         <v>1246.1353</v>
       </c>
       <c r="G124" t="n">
+        <v>1019.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>1016.35</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,18 +5623,21 @@
         <v>639.2755</v>
       </c>
       <c r="G125" t="n">
+        <v>1019.933333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>1016.683333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,18 +5661,21 @@
         <v>216.06</v>
       </c>
       <c r="G126" t="n">
+        <v>1020.2</v>
+      </c>
+      <c r="H126" t="n">
         <v>1017.066666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,18 +5699,21 @@
         <v>1532.6114</v>
       </c>
       <c r="G127" t="n">
+        <v>1020</v>
+      </c>
+      <c r="H127" t="n">
         <v>1017.3</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,18 +5737,21 @@
         <v>308.2787</v>
       </c>
       <c r="G128" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1017.633333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5281,18 +5775,21 @@
         <v>42.2498</v>
       </c>
       <c r="G129" t="n">
+        <v>1019.666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>1017.966666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,18 +5813,21 @@
         <v>47.9194</v>
       </c>
       <c r="G130" t="n">
+        <v>1019.466666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>1018.283333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,18 +5851,21 @@
         <v>181.2481</v>
       </c>
       <c r="G131" t="n">
+        <v>1019</v>
+      </c>
+      <c r="H131" t="n">
         <v>1018.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,18 +5889,21 @@
         <v>181.0448</v>
       </c>
       <c r="G132" t="n">
+        <v>1018.666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>1018.7</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5421,18 +5927,21 @@
         <v>280.2976</v>
       </c>
       <c r="G133" t="n">
+        <v>1018.466666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>1018.866666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,18 +5965,21 @@
         <v>626.9482</v>
       </c>
       <c r="G134" t="n">
+        <v>1017.466666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>1018.833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5491,18 +6003,21 @@
         <v>1413.4452</v>
       </c>
       <c r="G135" t="n">
+        <v>1016.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>1018.766666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,18 +6041,21 @@
         <v>67.12220000000001</v>
       </c>
       <c r="G136" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="H136" t="n">
         <v>1018.783333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,24 +6079,21 @@
         <v>962.3884</v>
       </c>
       <c r="G137" t="n">
+        <v>1014.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>1018.55</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5602,22 +6117,21 @@
         <v>25</v>
       </c>
       <c r="G138" t="n">
+        <v>1013.533333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>1018.416666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5641,24 +6155,21 @@
         <v>429.1526</v>
       </c>
       <c r="G139" t="n">
+        <v>1012.466666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>1018.233333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,22 +6193,21 @@
         <v>293.0333</v>
       </c>
       <c r="G140" t="n">
+        <v>1011.533333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>1018.033333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,22 +6231,21 @@
         <v>272.33</v>
       </c>
       <c r="G141" t="n">
+        <v>1010.6</v>
+      </c>
+      <c r="H141" t="n">
         <v>1017.766666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,22 +6269,21 @@
         <v>37.114</v>
       </c>
       <c r="G142" t="n">
+        <v>1010.066666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>1017.5</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5799,22 +6307,21 @@
         <v>647.2785</v>
       </c>
       <c r="G143" t="n">
+        <v>1009</v>
+      </c>
+      <c r="H143" t="n">
         <v>1017.183333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,22 +6345,21 @@
         <v>420</v>
       </c>
       <c r="G144" t="n">
+        <v>1007.866666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>1016.866666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5877,22 +6383,21 @@
         <v>6.3429</v>
       </c>
       <c r="G145" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="H145" t="n">
         <v>1016.566666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5916,22 +6421,21 @@
         <v>3914.1643</v>
       </c>
       <c r="G146" t="n">
+        <v>1006.066666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>1016.266666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5955,22 +6459,21 @@
         <v>738.8143</v>
       </c>
       <c r="G147" t="n">
+        <v>1004.733333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>1015.85</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,22 +6497,21 @@
         <v>41.6681</v>
       </c>
       <c r="G148" t="n">
+        <v>1003.733333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>1015.433333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6033,22 +6535,21 @@
         <v>31.7806</v>
       </c>
       <c r="G149" t="n">
+        <v>1003.333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>1015.016666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,22 +6573,21 @@
         <v>225.3699</v>
       </c>
       <c r="G150" t="n">
+        <v>1002.866666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>1014.55</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,22 +6611,21 @@
         <v>360.0486</v>
       </c>
       <c r="G151" t="n">
+        <v>1001.8</v>
+      </c>
+      <c r="H151" t="n">
         <v>1014.066666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,22 +6649,21 @@
         <v>301.5849</v>
       </c>
       <c r="G152" t="n">
+        <v>1001.2</v>
+      </c>
+      <c r="H152" t="n">
         <v>1013.55</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,24 +6687,21 @@
         <v>2041.6269</v>
       </c>
       <c r="G153" t="n">
+        <v>1000.2</v>
+      </c>
+      <c r="H153" t="n">
         <v>1013.033333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,22 +6725,21 @@
         <v>379.7424</v>
       </c>
       <c r="G154" t="n">
+        <v>999.5333333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>1012.533333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,24 +6763,21 @@
         <v>920.8681</v>
       </c>
       <c r="G155" t="n">
+        <v>999</v>
+      </c>
+      <c r="H155" t="n">
         <v>1012.15</v>
       </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,24 +6801,21 @@
         <v>1588</v>
       </c>
       <c r="G156" t="n">
+        <v>998.2</v>
+      </c>
+      <c r="H156" t="n">
         <v>1011.716666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,24 +6839,21 @@
         <v>2181.7309</v>
       </c>
       <c r="G157" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="H157" t="n">
         <v>1011.3</v>
       </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,24 +6877,21 @@
         <v>1998.2197</v>
       </c>
       <c r="G158" t="n">
+        <v>996.6666666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>1010.883333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,24 +6915,21 @@
         <v>1178.47</v>
       </c>
       <c r="G159" t="n">
+        <v>996.0666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>1010.483333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6474,24 +6953,21 @@
         <v>1541.1467</v>
       </c>
       <c r="G160" t="n">
+        <v>995.3333333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>1009.983333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,24 +6991,21 @@
         <v>1336</v>
       </c>
       <c r="G161" t="n">
+        <v>994.5333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>1009.55</v>
       </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,24 +7029,21 @@
         <v>2662.9746</v>
       </c>
       <c r="G162" t="n">
+        <v>994.2</v>
+      </c>
+      <c r="H162" t="n">
         <v>1009.133333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6597,24 +7067,21 @@
         <v>2598.57</v>
       </c>
       <c r="G163" t="n">
+        <v>994</v>
+      </c>
+      <c r="H163" t="n">
         <v>1008.783333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,24 +7105,21 @@
         <v>1594.7089</v>
       </c>
       <c r="G164" t="n">
+        <v>993.4666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>1008.333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,24 +7143,21 @@
         <v>2247</v>
       </c>
       <c r="G165" t="n">
+        <v>993.2666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>1007.933333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,24 +7181,21 @@
         <v>2607.161</v>
       </c>
       <c r="G166" t="n">
+        <v>993.6666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>1007.616666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6761,22 +7219,21 @@
         <v>2790</v>
       </c>
       <c r="G167" t="n">
+        <v>993.9333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>1007.266666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6800,22 +7257,21 @@
         <v>177.6519</v>
       </c>
       <c r="G168" t="n">
+        <v>994.0666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>1006.883333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6839,22 +7295,21 @@
         <v>397</v>
       </c>
       <c r="G169" t="n">
+        <v>994.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>1006.466666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6878,22 +7333,21 @@
         <v>1719</v>
       </c>
       <c r="G170" t="n">
+        <v>994.0666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>1006.133333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6917,22 +7371,21 @@
         <v>1884.8194</v>
       </c>
       <c r="G171" t="n">
+        <v>994.5333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>1005.883333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6956,22 +7409,21 @@
         <v>2240</v>
       </c>
       <c r="G172" t="n">
+        <v>994.7333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>1005.55</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6995,22 +7447,21 @@
         <v>2225</v>
       </c>
       <c r="G173" t="n">
+        <v>994.9333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>1005.116666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7034,22 +7485,21 @@
         <v>3200.046</v>
       </c>
       <c r="G174" t="n">
+        <v>995.4</v>
+      </c>
+      <c r="H174" t="n">
         <v>1004.75</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7073,22 +7523,21 @@
         <v>1569.5546</v>
       </c>
       <c r="G175" t="n">
+        <v>995.7333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>1004.333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7112,22 +7561,21 @@
         <v>650</v>
       </c>
       <c r="G176" t="n">
+        <v>996</v>
+      </c>
+      <c r="H176" t="n">
         <v>1003.9</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,22 +7599,21 @@
         <v>3955.4923</v>
       </c>
       <c r="G177" t="n">
+        <v>996.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>1003.5</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7190,22 +7637,21 @@
         <v>2123.9837</v>
       </c>
       <c r="G178" t="n">
+        <v>996.5333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>1003.183333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7229,22 +7675,21 @@
         <v>2854.94</v>
       </c>
       <c r="G179" t="n">
+        <v>997.2</v>
+      </c>
+      <c r="H179" t="n">
         <v>1002.866666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7268,22 +7713,21 @@
         <v>2176</v>
       </c>
       <c r="G180" t="n">
+        <v>997.5333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>1002.5</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,22 +7751,21 @@
         <v>3306.7786</v>
       </c>
       <c r="G181" t="n">
+        <v>997.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>1002.2</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7346,22 +7789,21 @@
         <v>3840.3673</v>
       </c>
       <c r="G182" t="n">
+        <v>997.8666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>1001.85</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7385,22 +7827,21 @@
         <v>3955.5776</v>
       </c>
       <c r="G183" t="n">
+        <v>998.1333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>1001.483333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7424,22 +7865,21 @@
         <v>2997</v>
       </c>
       <c r="G184" t="n">
+        <v>998.5333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>1001.15</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7463,22 +7903,21 @@
         <v>2246</v>
       </c>
       <c r="G185" t="n">
+        <v>998.8666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>1000.866666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7502,22 +7941,21 @@
         <v>2252</v>
       </c>
       <c r="G186" t="n">
+        <v>999.0666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>1000.6</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7541,22 +7979,21 @@
         <v>1785</v>
       </c>
       <c r="G187" t="n">
+        <v>999.4</v>
+      </c>
+      <c r="H187" t="n">
         <v>1000.4</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7580,22 +8017,21 @@
         <v>2298</v>
       </c>
       <c r="G188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H188" t="n">
         <v>1000.15</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7619,22 +8055,21 @@
         <v>2225</v>
       </c>
       <c r="G189" t="n">
+        <v>1000.133333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>999.8666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,22 +8093,21 @@
         <v>2240.5551</v>
       </c>
       <c r="G190" t="n">
+        <v>1000.933333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>999.7</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7697,22 +8131,21 @@
         <v>3608.1372</v>
       </c>
       <c r="G191" t="n">
+        <v>1001.466666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>999.5166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7736,22 +8169,21 @@
         <v>3886.8397</v>
       </c>
       <c r="G192" t="n">
+        <v>1001.666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>999.25</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7775,22 +8207,21 @@
         <v>2042.4461</v>
       </c>
       <c r="G193" t="n">
+        <v>1002.2</v>
+      </c>
+      <c r="H193" t="n">
         <v>999.1166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,22 +8245,21 @@
         <v>1408.3096</v>
       </c>
       <c r="G194" t="n">
+        <v>1002.466666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>999.1166666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,22 +8283,21 @@
         <v>593.1158</v>
       </c>
       <c r="G195" t="n">
+        <v>1002.933333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>999.15</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7892,22 +8321,401 @@
         <v>221.1518</v>
       </c>
       <c r="G196" t="n">
+        <v>1003.2</v>
+      </c>
+      <c r="H196" t="n">
         <v>999.1</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2802.664</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1004</v>
+      </c>
+      <c r="H197" t="n">
+        <v>999.25</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F198" t="n">
+        <v>516.6093</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1004.866666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>999.3166666666667</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F199" t="n">
+        <v>37.4169</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1005.666666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>999.45</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5713.3689</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1006.6</v>
+      </c>
+      <c r="H200" t="n">
+        <v>999.6333333333333</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F201" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1007.4</v>
+      </c>
+      <c r="H201" t="n">
+        <v>999.8</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F202" t="n">
+        <v>824.2116</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1008.466666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4557.5747</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1000.25</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1010.533333333333</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1000.533333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1019</v>
+      </c>
+      <c r="F205" t="n">
+        <v>915</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1000.8</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1019</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1855</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1001.05</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,19 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="J26" t="n">
+        <v>989</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1280,23 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="J27" t="n">
+        <v>989</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1323,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>989</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1360,19 @@
         <v>-3733.56721835</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>984</v>
+      </c>
+      <c r="J29" t="n">
+        <v>984</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1399,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>984</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,22 +1436,21 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>989</v>
-      </c>
-      <c r="K31" t="n">
-        <v>989</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>984</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1540,26 +1475,15 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>989</v>
-      </c>
-      <c r="K32" t="n">
-        <v>989</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1584,26 +1508,19 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J33" t="n">
         <v>989</v>
       </c>
-      <c r="K33" t="n">
-        <v>989</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,22 +1545,23 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J34" t="n">
         <v>989</v>
       </c>
-      <c r="K34" t="n">
-        <v>989</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1668,26 +1586,23 @@
         <v>337.6539816500003</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J35" t="n">
         <v>989</v>
       </c>
-      <c r="K35" t="n">
-        <v>989</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1712,24 +1627,23 @@
         <v>337.6539816500003</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>989</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>990</v>
+      </c>
+      <c r="J36" t="n">
+        <v>989</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1756,22 +1670,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>989</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>989</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1798,22 +1709,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>989</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>989</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1840,22 +1748,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>989</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>989</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,22 +1787,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>989</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>989</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1924,22 +1826,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>989</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>989</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1966,22 +1865,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>989</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>989</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2008,22 +1904,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>989</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>989</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2050,22 +1943,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>989</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>989</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2092,22 +1982,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>989</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>989</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2134,22 +2021,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>989</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>989</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2176,22 +2060,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>989</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>989</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2218,22 +2099,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>989</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>989</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2260,22 +2138,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>989</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>989</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2300,24 +2175,23 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>989</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>990</v>
+      </c>
+      <c r="J50" t="n">
+        <v>989</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2344,22 +2218,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>989</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>989</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2386,22 +2257,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>989</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>989</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2428,22 +2296,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>989</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>989</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2470,22 +2335,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>989</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>989</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2512,22 +2374,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>989</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>989</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,22 +2413,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>989</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>989</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2596,22 +2452,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>989</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>989</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2638,22 +2491,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>989</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>989</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2680,22 +2530,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>989</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>989</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2722,22 +2569,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>989</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>989</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2764,22 +2608,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>989</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>989</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2806,22 +2647,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>989</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>989</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2848,22 +2686,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>989</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>989</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2890,22 +2725,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>989</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>989</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2932,22 +2764,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>989</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>989</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,22 +2803,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>989</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>989</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3016,22 +2842,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>989</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>989</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3058,22 +2881,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>989</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>989</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3098,24 +2918,23 @@
         <v>-2145.295318349999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>989</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>987</v>
+      </c>
+      <c r="J69" t="n">
+        <v>989</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3140,26 +2959,23 @@
         <v>-2698.07961835</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="J70" t="n">
-        <v>987</v>
-      </c>
-      <c r="K70" t="n">
-        <v>989</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3184,26 +3000,23 @@
         <v>-2663.64861835</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="J71" t="n">
-        <v>986</v>
-      </c>
-      <c r="K71" t="n">
-        <v>989</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3228,26 +3041,23 @@
         <v>-2663.64861835</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J72" t="n">
         <v>989</v>
       </c>
-      <c r="K72" t="n">
-        <v>989</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3272,26 +3082,23 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J73" t="n">
         <v>989</v>
       </c>
-      <c r="K73" t="n">
-        <v>989</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3316,26 +3123,23 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="J74" t="n">
-        <v>990</v>
-      </c>
-      <c r="K74" t="n">
-        <v>989</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3360,26 +3164,23 @@
         <v>-2584.70971835</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="J75" t="n">
-        <v>990</v>
-      </c>
-      <c r="K75" t="n">
-        <v>989</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3404,26 +3205,23 @@
         <v>-2591.40111835</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="J76" t="n">
-        <v>995</v>
-      </c>
-      <c r="K76" t="n">
-        <v>989</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3448,26 +3246,21 @@
         <v>-2583.40111835</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>988</v>
-      </c>
-      <c r="K77" t="n">
-        <v>989</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3492,26 +3285,23 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="J78" t="n">
-        <v>995</v>
-      </c>
-      <c r="K78" t="n">
-        <v>989</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3536,26 +3326,23 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J79" t="n">
-        <v>994</v>
-      </c>
-      <c r="K79" t="n">
-        <v>989</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3580,26 +3367,23 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J80" t="n">
-        <v>994</v>
-      </c>
-      <c r="K80" t="n">
-        <v>989</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3624,26 +3408,21 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>988</v>
-      </c>
-      <c r="K81" t="n">
-        <v>989</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3668,26 +3447,23 @@
         <v>-1581.29071835</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="J82" t="n">
-        <v>988</v>
-      </c>
-      <c r="K82" t="n">
-        <v>989</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3712,26 +3488,23 @@
         <v>-1582.29071835</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="J83" t="n">
-        <v>995</v>
-      </c>
-      <c r="K83" t="n">
-        <v>989</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3758,22 +3531,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>989</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>989</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3800,22 +3570,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>989</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>989</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3842,22 +3609,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>989</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>989</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3884,22 +3648,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>989</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>989</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3926,22 +3687,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>989</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>989</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3968,22 +3726,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>989</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>989</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4008,26 +3763,23 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="J90" t="n">
-        <v>990</v>
-      </c>
-      <c r="K90" t="n">
-        <v>989</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4052,24 +3804,23 @@
         <v>-2479.32901835</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>989</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>992</v>
+      </c>
+      <c r="J91" t="n">
+        <v>989</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4094,26 +3845,23 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="J92" t="n">
-        <v>990</v>
-      </c>
-      <c r="K92" t="n">
-        <v>989</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4138,24 +3886,23 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>989</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>992</v>
+      </c>
+      <c r="J93" t="n">
+        <v>989</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4182,22 +3929,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>989</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>989</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4222,26 +3966,21 @@
         <v>-3404.34081835</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>990</v>
-      </c>
-      <c r="K95" t="n">
-        <v>989</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4266,26 +4005,21 @@
         <v>-1939.32681835</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>989</v>
       </c>
-      <c r="K96" t="n">
-        <v>989</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4312,22 +4046,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>989</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>989</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4352,26 +4083,23 @@
         <v>-2126.34981835</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="J98" t="n">
-        <v>988</v>
-      </c>
-      <c r="K98" t="n">
-        <v>989</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4398,22 +4126,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>989</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>989</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4440,22 +4165,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>989</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>989</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4482,22 +4204,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>989</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>989</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4524,22 +4243,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>989</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>989</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4566,22 +4282,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>989</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>989</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4608,22 +4321,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>989</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>989</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4650,22 +4360,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>989</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>989</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4692,22 +4399,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>989</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>989</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4734,22 +4438,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>989</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>989</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4776,22 +4477,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>989</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>989</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4818,22 +4516,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>989</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>989</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4860,22 +4555,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>989</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>989</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4902,22 +4594,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>989</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>989</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4944,22 +4633,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>989</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>989</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4986,22 +4672,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>989</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>989</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5028,22 +4711,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>989</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>989</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5070,22 +4750,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>989</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>989</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5112,22 +4789,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>989</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>989</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5154,22 +4828,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>989</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>989</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5196,22 +4867,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>989</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>989</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5238,22 +4906,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>989</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>989</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5280,22 +4945,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>989</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>989</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5322,22 +4984,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>989</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>989</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5364,22 +5023,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>989</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>989</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5406,22 +5062,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>989</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>989</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5448,22 +5101,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>989</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>989</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5490,22 +5140,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>989</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>989</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5532,22 +5179,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>989</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>989</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5574,22 +5218,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>989</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>989</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5616,22 +5257,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>989</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>989</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5658,22 +5296,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>989</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>989</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5700,22 +5335,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>989</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>989</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5742,22 +5374,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>989</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>989</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5784,22 +5413,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>989</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>989</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5826,22 +5452,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>989</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>989</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5868,22 +5491,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>989</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>989</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5910,22 +5530,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>989</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>989</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5952,22 +5569,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>989</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>989</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5992,24 +5606,21 @@
         <v>13362.60348165</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>989</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>989</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6034,24 +5645,21 @@
         <v>13810.29528165</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>989</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>989</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6076,24 +5684,21 @@
         <v>14060.29528165</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>989</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>989</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6120,22 +5725,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>989</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>989</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6162,22 +5764,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>989</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>989</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6202,24 +5801,21 @@
         <v>14493.27308165</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>989</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>989</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.027355915065723</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6244,24 +5840,15 @@
         <v>14493.27308165</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>989</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6286,24 +5873,15 @@
         <v>15823.58858165</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>989</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6328,24 +5906,15 @@
         <v>15823.58858165</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>989</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6372,22 +5941,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>989</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6414,22 +5974,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>989</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6454,24 +6005,15 @@
         <v>17374.98868165</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>989</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6496,24 +6038,15 @@
         <v>17349.36048165</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>989</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6538,24 +6071,15 @@
         <v>17909.36048165</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>989</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6580,24 +6104,15 @@
         <v>17909.36048165</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>989</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6622,24 +6137,15 @@
         <v>17909.36048165</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>989</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6664,24 +6170,15 @@
         <v>12959.97808165</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>989</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6706,24 +6203,15 @@
         <v>12959.97808165</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>989</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6748,24 +6236,15 @@
         <v>12612.79658165</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>989</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6790,24 +6269,15 @@
         <v>12250.91868165</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>989</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6834,22 +6304,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>989</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6874,24 +6335,15 @@
         <v>13718.62898165</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>989</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6916,24 +6368,15 @@
         <v>13701.34148165</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>989</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6958,24 +6401,15 @@
         <v>12576.01908165</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>989</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7002,22 +6436,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>989</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7044,22 +6469,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>989</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7084,24 +6500,15 @@
         <v>23688.41348165</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>989</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7128,22 +6535,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>989</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7170,22 +6568,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>989</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7212,22 +6601,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>989</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7254,22 +6634,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>989</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7296,22 +6667,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>989</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7338,22 +6700,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>989</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7380,22 +6733,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>989</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7422,22 +6766,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>989</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7464,22 +6799,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>989</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7506,22 +6832,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>989</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7548,22 +6865,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>989</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7590,22 +6898,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>989</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7632,22 +6931,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>989</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7674,22 +6964,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>989</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7716,22 +6997,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>989</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7758,22 +7030,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>989</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7800,22 +7063,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>989</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7842,22 +7096,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>989</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7884,22 +7129,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>989</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7926,22 +7162,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>989</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7968,22 +7195,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>989</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8008,24 +7226,15 @@
         <v>23220.30518165</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>989</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8052,22 +7261,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>989</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8094,22 +7294,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>989</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8136,22 +7327,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>989</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8178,22 +7360,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>989</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8220,22 +7393,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>989</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8262,22 +7426,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>989</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8304,22 +7459,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>989</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8346,22 +7492,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>989</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8388,22 +7525,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>989</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8430,22 +7558,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>989</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8472,22 +7591,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>989</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8514,22 +7624,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>989</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8556,22 +7657,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>989</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8598,22 +7690,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>989</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8640,22 +7723,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>989</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8682,22 +7756,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>989</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8724,22 +7789,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>989</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8766,22 +7822,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>989</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8808,22 +7855,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>989</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8850,22 +7888,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>989</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8892,22 +7921,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>989</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8934,22 +7954,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>989</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8976,22 +7987,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>989</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9018,22 +8020,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>989</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9060,22 +8053,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>989</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9102,22 +8086,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>989</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9144,22 +8119,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>989</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9186,22 +8152,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>989</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9228,22 +8185,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>989</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9270,22 +8218,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>989</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9312,22 +8251,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>989</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9354,22 +8284,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>989</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9396,22 +8317,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>989</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9438,22 +8350,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>989</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9480,22 +8383,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>989</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9522,22 +8416,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>989</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9564,22 +8449,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>989</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9606,22 +8482,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>989</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9648,22 +8515,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>989</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9690,22 +8548,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>989</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9732,22 +8581,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>989</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9774,22 +8614,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>989</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9816,22 +8647,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>989</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9858,22 +8680,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>989</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9900,22 +8713,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>989</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9942,22 +8746,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>989</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9984,22 +8779,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>989</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10026,22 +8812,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>989</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10068,22 +8845,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>989</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10110,22 +8878,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>989</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10152,22 +8911,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>989</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10194,22 +8944,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>989</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10236,22 +8977,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>989</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10278,22 +9010,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>989</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10320,22 +9043,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>989</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10362,22 +9076,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>989</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10404,22 +9109,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>989</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10446,22 +9142,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>989</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10488,22 +9175,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>989</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10530,22 +9208,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>989</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10572,22 +9241,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>989</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10614,22 +9274,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>989</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10656,22 +9307,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>989</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10698,22 +9340,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>989</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10740,22 +9373,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>989</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10782,22 +9406,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>989</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10824,22 +9439,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>989</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10866,22 +9472,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>989</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10908,22 +9505,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>989</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10950,22 +9538,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>989</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10992,22 +9571,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>989</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11032,24 +9602,15 @@
         <v>32422.47518164999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>989</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11074,24 +9635,15 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>989</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11116,24 +9668,15 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>989</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11158,24 +9701,15 @@
         <v>38960.05568165</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>989</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11200,24 +9734,15 @@
         <v>43517.63038164999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>989</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1.024322548028312</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11242,18 +9767,15 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11278,18 +9800,15 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11314,20 +9833,17 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,10 +1144,14 @@
         <v>-4899.11601835</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>989</v>
+      </c>
+      <c r="J23" t="n">
+        <v>989</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1181,19 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>986</v>
+      </c>
+      <c r="J24" t="n">
+        <v>989</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1225,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>989</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,7 +1261,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>989</v>
@@ -1251,7 +1269,11 @@
       <c r="J26" t="n">
         <v>989</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>989</v>
@@ -1290,7 +1312,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1321,15 +1343,17 @@
         <v>-4373.507118349999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>989</v>
+      </c>
       <c r="J28" t="n">
         <v>989</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1360,15 +1384,19 @@
         <v>-3733.56721835</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>984</v>
       </c>
       <c r="J29" t="n">
-        <v>984</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1397,15 +1425,17 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>988</v>
+      </c>
       <c r="J30" t="n">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1436,15 +1466,17 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>989</v>
+      </c>
       <c r="J31" t="n">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1475,11 +1507,19 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>989</v>
+      </c>
+      <c r="J32" t="n">
+        <v>989</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1548,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>989</v>
@@ -1516,7 +1556,11 @@
       <c r="J33" t="n">
         <v>989</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1545,7 +1589,7 @@
         <v>-3242.34601835</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>989</v>
@@ -1555,7 +1599,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1586,7 +1630,7 @@
         <v>337.6539816500003</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>989</v>
@@ -1596,7 +1640,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1627,7 +1671,7 @@
         <v>337.6539816500003</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>990</v>
@@ -1707,9 +1751,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>989</v>
+      </c>
       <c r="J38" t="n">
         <v>989</v>
       </c>
@@ -1785,9 +1831,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>990</v>
+      </c>
       <c r="J40" t="n">
         <v>989</v>
       </c>
@@ -1902,9 +1950,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>990</v>
+      </c>
       <c r="J43" t="n">
         <v>989</v>
       </c>
@@ -1941,9 +1991,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>990</v>
+      </c>
       <c r="J44" t="n">
         <v>989</v>
       </c>
@@ -1980,9 +2032,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>990</v>
+      </c>
       <c r="J45" t="n">
         <v>989</v>
       </c>
@@ -2019,9 +2073,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>990</v>
+      </c>
       <c r="J46" t="n">
         <v>989</v>
       </c>
@@ -2058,9 +2114,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>990</v>
+      </c>
       <c r="J47" t="n">
         <v>989</v>
       </c>
@@ -2097,9 +2155,11 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>990</v>
+      </c>
       <c r="J48" t="n">
         <v>989</v>
       </c>
@@ -2175,11 +2235,9 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>989</v>
       </c>
@@ -2918,11 +2976,9 @@
         <v>-2145.295318349999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>989</v>
       </c>
@@ -2959,7 +3015,7 @@
         <v>-2698.07961835</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>987</v>
@@ -3000,7 +3056,7 @@
         <v>-2663.64861835</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>986</v>
@@ -3041,7 +3097,7 @@
         <v>-2663.64861835</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>989</v>
@@ -3082,7 +3138,7 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>989</v>
@@ -3123,7 +3179,7 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>990</v>
@@ -3164,7 +3220,7 @@
         <v>-2584.70971835</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>990</v>
@@ -3205,7 +3261,7 @@
         <v>-2591.40111835</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>995</v>
@@ -3285,11 +3341,9 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>989</v>
       </c>
@@ -3326,11 +3380,9 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>989</v>
       </c>
@@ -3367,11 +3419,9 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>989</v>
       </c>
@@ -3447,7 +3497,7 @@
         <v>-1581.29071835</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>988</v>
@@ -3488,7 +3538,7 @@
         <v>-1582.29071835</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>995</v>
@@ -3529,9 +3579,11 @@
         <v>-2600.45411835</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>994</v>
+      </c>
       <c r="J84" t="n">
         <v>989</v>
       </c>
@@ -3607,9 +3659,11 @@
         <v>-1412.30071835</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>996</v>
+      </c>
       <c r="J86" t="n">
         <v>989</v>
       </c>
@@ -3685,9 +3739,11 @@
         <v>-1412.30071835</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>991</v>
+      </c>
       <c r="J88" t="n">
         <v>989</v>
       </c>
@@ -3724,9 +3780,11 @@
         <v>-2475.33701835</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>991</v>
+      </c>
       <c r="J89" t="n">
         <v>989</v>
       </c>
@@ -3763,7 +3821,7 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>990</v>
@@ -3804,7 +3862,7 @@
         <v>-2479.32901835</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>992</v>
@@ -3845,7 +3903,7 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>990</v>
@@ -3886,7 +3944,7 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>992</v>
@@ -3966,9 +4024,11 @@
         <v>-3404.34081835</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>990</v>
+      </c>
       <c r="J95" t="n">
         <v>989</v>
       </c>
@@ -4005,9 +4065,11 @@
         <v>-1939.32681835</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>989</v>
+      </c>
       <c r="J96" t="n">
         <v>989</v>
       </c>
@@ -4044,9 +4106,11 @@
         <v>-2169.20341835</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>996</v>
+      </c>
       <c r="J97" t="n">
         <v>989</v>
       </c>
@@ -4083,7 +4147,7 @@
         <v>-2126.34981835</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>988</v>
@@ -5606,7 +5670,7 @@
         <v>13362.60348165</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
@@ -5645,7 +5709,7 @@
         <v>13810.29528165</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
@@ -5684,7 +5748,7 @@
         <v>14060.29528165</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
@@ -5801,7 +5865,7 @@
         <v>14493.27308165</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
@@ -5809,11 +5873,11 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.027355915065723</v>
+        <v>1</v>
       </c>
       <c r="M142" t="inlineStr"/>
     </row>
@@ -5840,11 +5904,17 @@
         <v>14493.27308165</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>989</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5873,11 +5943,17 @@
         <v>15823.58858165</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>989</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5906,11 +5982,17 @@
         <v>15823.58858165</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>989</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5942,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>989</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +6063,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>989</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +6099,17 @@
         <v>17374.98868165</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>989</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6038,11 +6138,17 @@
         <v>17349.36048165</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>989</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6071,11 +6177,17 @@
         <v>17909.36048165</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>989</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6104,11 +6216,17 @@
         <v>17909.36048165</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>989</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6137,11 +6255,17 @@
         <v>17909.36048165</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>989</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +6294,17 @@
         <v>12959.97808165</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>989</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6203,11 +6333,17 @@
         <v>12959.97808165</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>989</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6236,11 +6372,17 @@
         <v>12612.79658165</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>989</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6269,11 +6411,17 @@
         <v>12250.91868165</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>989</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6305,8 +6453,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>989</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6335,11 +6489,17 @@
         <v>13718.62898165</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>989</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6368,11 +6528,17 @@
         <v>13701.34148165</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>989</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6401,11 +6567,17 @@
         <v>12576.01908165</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>989</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6437,8 +6609,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>989</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6470,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>989</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +6684,17 @@
         <v>23688.41348165</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>989</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6536,8 +6726,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>989</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6569,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>989</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6602,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>989</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6635,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>989</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6668,8 +6882,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>989</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6701,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>989</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6734,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>989</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6767,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>989</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6797,13 +7035,19 @@
         <v>26155.15938165</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>989</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>1.028367037411527</v>
       </c>
       <c r="M172" t="inlineStr"/>
     </row>
@@ -6830,7 +7074,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6863,7 +7107,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6896,7 +7140,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6929,7 +7173,7 @@
         <v>25945.15938165</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6962,7 +7206,7 @@
         <v>25965.45748165</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6995,7 +7239,7 @@
         <v>25965.45748165</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7028,7 +7272,7 @@
         <v>25955.45748165</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7061,7 +7305,7 @@
         <v>25955.45748165</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7094,7 +7338,7 @@
         <v>26422.26738165</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7127,7 +7371,7 @@
         <v>25176.13208165</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7160,7 +7404,7 @@
         <v>24536.85658165</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7193,7 +7437,7 @@
         <v>24752.91658165</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7226,7 +7470,7 @@
         <v>23220.30518165</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7259,7 +7503,7 @@
         <v>23528.58388165</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7292,7 +7536,7 @@
         <v>23528.58388165</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7325,7 +7569,7 @@
         <v>23528.58388165</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7358,7 +7602,7 @@
         <v>23347.33578165</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7391,7 +7635,7 @@
         <v>23528.38058165</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7424,7 +7668,7 @@
         <v>23248.08298165</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7457,7 +7701,7 @@
         <v>22621.13478165</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7490,7 +7734,7 @@
         <v>21207.68958165</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7523,7 +7767,7 @@
         <v>21274.81178165</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7556,7 +7800,7 @@
         <v>20312.42338165</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7589,7 +7833,7 @@
         <v>20337.42338165</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7622,7 +7866,7 @@
         <v>19908.27078165</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7655,7 +7899,7 @@
         <v>19908.27078165</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7688,7 +7932,7 @@
         <v>20180.60078165</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7721,7 +7965,7 @@
         <v>20180.60078165</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7754,7 +7998,7 @@
         <v>19533.32228165</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7787,7 +8031,7 @@
         <v>19113.32228165</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7820,7 +8064,7 @@
         <v>19119.66518165</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7886,7 +8130,7 @@
         <v>22295.01518165</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -9602,7 +9846,7 @@
         <v>32422.47518164999</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9635,7 +9879,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9668,7 +9912,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9701,7 +9945,7 @@
         <v>38960.05568165</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9734,7 +9978,7 @@
         <v>43517.63038164999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9767,7 +10011,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9800,7 +10044,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9833,7 +10077,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9844,6 +10088,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,11 +880,17 @@
         <v>-5606.22341835</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>990</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +923,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +960,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +997,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1034,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1071,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1108,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1145,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,15 +1178,15 @@
         <v>-4899.11601835</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>989</v>
-      </c>
-      <c r="J23" t="n">
-        <v>989</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1186,12 +1220,10 @@
       <c r="I24" t="n">
         <v>986</v>
       </c>
-      <c r="J24" t="n">
-        <v>989</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1222,12 +1254,12 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>989</v>
       </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1261,14 +1293,10 @@
         <v>-3760.66161835</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>989</v>
-      </c>
-      <c r="J26" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1307,9 +1335,7 @@
       <c r="I27" t="n">
         <v>989</v>
       </c>
-      <c r="J27" t="n">
-        <v>989</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1348,9 +1374,7 @@
       <c r="I28" t="n">
         <v>989</v>
       </c>
-      <c r="J28" t="n">
-        <v>989</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1389,9 +1413,7 @@
       <c r="I29" t="n">
         <v>984</v>
       </c>
-      <c r="J29" t="n">
-        <v>989</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,9 +1452,7 @@
       <c r="I30" t="n">
         <v>988</v>
       </c>
-      <c r="J30" t="n">
-        <v>989</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1471,9 +1491,7 @@
       <c r="I31" t="n">
         <v>989</v>
       </c>
-      <c r="J31" t="n">
-        <v>989</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1512,9 +1530,7 @@
       <c r="I32" t="n">
         <v>989</v>
       </c>
-      <c r="J32" t="n">
-        <v>989</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1553,9 +1569,7 @@
       <c r="I33" t="n">
         <v>989</v>
       </c>
-      <c r="J33" t="n">
-        <v>989</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1594,9 +1608,7 @@
       <c r="I34" t="n">
         <v>989</v>
       </c>
-      <c r="J34" t="n">
-        <v>989</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,14 +1642,10 @@
         <v>337.6539816500003</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>989</v>
-      </c>
-      <c r="J35" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,14 +1679,10 @@
         <v>337.6539816500003</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>990</v>
-      </c>
-      <c r="J36" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,9 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>989</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,14 +1753,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>989</v>
-      </c>
-      <c r="J38" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,9 +1793,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>989</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1831,14 +1827,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>990</v>
-      </c>
-      <c r="J40" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1875,9 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>989</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1914,9 +1904,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>989</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1950,14 +1938,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>990</v>
-      </c>
-      <c r="J43" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,14 +1975,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>990</v>
-      </c>
-      <c r="J44" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2032,14 +2012,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>990</v>
-      </c>
-      <c r="J45" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2073,14 +2049,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>990</v>
-      </c>
-      <c r="J46" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2114,14 +2086,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>990</v>
-      </c>
-      <c r="J47" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,14 +2123,10 @@
         <v>406.7995816500004</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>990</v>
-      </c>
-      <c r="J48" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2199,9 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>989</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2238,9 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>989</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2277,9 +2237,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>989</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,9 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>989</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,9 +2311,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>989</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,9 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>989</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2433,9 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>989</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,9 +2422,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>989</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,9 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>989</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,9 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>989</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2589,9 +2533,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>989</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,9 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>989</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2667,9 +2607,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>989</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>989</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,9 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>989</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,9 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>989</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,9 +2755,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>989</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,9 +2792,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>989</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,9 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>989</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,9 +2866,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>989</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,9 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>989</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,9 +2942,7 @@
       <c r="I70" t="n">
         <v>987</v>
       </c>
-      <c r="J70" t="n">
-        <v>989</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,9 +2981,7 @@
       <c r="I71" t="n">
         <v>986</v>
       </c>
-      <c r="J71" t="n">
-        <v>989</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,9 +3020,7 @@
       <c r="I72" t="n">
         <v>989</v>
       </c>
-      <c r="J72" t="n">
-        <v>989</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3143,9 +3059,7 @@
       <c r="I73" t="n">
         <v>989</v>
       </c>
-      <c r="J73" t="n">
-        <v>989</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3179,14 +3093,10 @@
         <v>-2588.40111835</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>990</v>
-      </c>
-      <c r="J74" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,14 +3130,10 @@
         <v>-2584.70971835</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>990</v>
-      </c>
-      <c r="J75" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,14 +3167,10 @@
         <v>-2591.40111835</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>995</v>
-      </c>
-      <c r="J76" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,9 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>989</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,9 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>989</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,9 +3281,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>989</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>989</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,9 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>989</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,14 +3389,10 @@
         <v>-1581.29071835</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>988</v>
-      </c>
-      <c r="J82" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,14 +3426,10 @@
         <v>-1582.29071835</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>995</v>
-      </c>
-      <c r="J83" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,14 +3463,10 @@
         <v>-2600.45411835</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>994</v>
-      </c>
-      <c r="J84" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,9 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>989</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,14 +3537,10 @@
         <v>-1412.30071835</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>996</v>
-      </c>
-      <c r="J86" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,9 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>989</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,14 +3611,10 @@
         <v>-1412.30071835</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>991</v>
-      </c>
-      <c r="J88" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,14 +3648,10 @@
         <v>-2475.33701835</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>991</v>
-      </c>
-      <c r="J89" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,14 +3685,10 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>990</v>
-      </c>
-      <c r="J90" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,14 +3722,10 @@
         <v>-2479.32901835</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>992</v>
-      </c>
-      <c r="J91" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,14 +3759,10 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>990</v>
-      </c>
-      <c r="J92" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,14 +3796,10 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>992</v>
-      </c>
-      <c r="J93" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3988,9 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>989</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,14 +3870,10 @@
         <v>-3404.34081835</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>990</v>
-      </c>
-      <c r="J95" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,14 +3907,10 @@
         <v>-1939.32681835</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>989</v>
-      </c>
-      <c r="J96" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,14 +3944,10 @@
         <v>-2169.20341835</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>996</v>
-      </c>
-      <c r="J97" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,14 +3981,10 @@
         <v>-2126.34981835</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>988</v>
-      </c>
-      <c r="J98" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,9 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>989</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,9 +4058,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>989</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,9 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>989</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,9 +4132,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>989</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,9 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>989</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,9 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>989</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,9 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>989</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>989</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,9 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>989</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,9 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>989</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,9 +4391,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>989</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,9 +4428,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>989</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,9 +4465,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>989</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4698,9 +4502,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>989</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,9 +4539,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>989</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4776,9 +4576,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>989</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,9 +4613,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>989</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,9 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>989</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4893,9 +4687,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>989</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,9 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>989</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,9 +4761,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>989</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,9 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>989</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,9 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>989</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,9 +4872,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>989</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,9 +4909,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>989</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,9 +4946,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>989</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,9 +4983,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>989</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,9 +5020,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>989</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,9 +5057,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>989</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,9 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>989</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,9 +5131,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>989</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,9 +5168,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>989</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,9 +5205,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>989</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5478,9 +5242,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>989</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,9 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>989</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,20 +5313,16 @@
         <v>6344.78858165</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>989</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -5592,17 +5348,11 @@
         <v>13768.91168165</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>989</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5631,17 +5381,11 @@
         <v>13768.91168165</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>989</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5670,17 +5414,11 @@
         <v>13362.60348165</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>989</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5709,17 +5447,11 @@
         <v>13810.29528165</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>989</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5748,17 +5480,11 @@
         <v>14060.29528165</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>989</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5790,14 +5516,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>989</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5829,14 +5549,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>989</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5582,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>989</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5907,14 +5615,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>989</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5648,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>989</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5985,14 +5681,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>989</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5714,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>989</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5747,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>989</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6102,14 +5780,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>989</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6141,14 +5813,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>989</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6180,14 +5846,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>989</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5879,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>989</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6258,14 +5912,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>989</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6297,14 +5945,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>989</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6336,14 +5978,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>989</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +6011,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>989</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +6044,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>989</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +6077,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>989</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +6110,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>989</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>989</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6570,14 +6176,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>989</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +6209,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>989</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6648,14 +6242,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>989</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6687,14 +6275,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>989</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6726,14 +6308,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>989</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6765,14 +6341,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>989</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6804,14 +6374,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>989</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>989</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6882,14 +6440,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>989</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6921,14 +6473,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>989</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +6506,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>989</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +6539,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>989</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7035,19 +6569,13 @@
         <v>26155.15938165</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>989</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>1.028367037411527</v>
+        <v>1</v>
       </c>
       <c r="M172" t="inlineStr"/>
     </row>
@@ -7074,7 +6602,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7107,7 +6635,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7140,7 +6668,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7173,7 +6701,7 @@
         <v>25945.15938165</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7206,7 +6734,7 @@
         <v>25965.45748165</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7239,7 +6767,7 @@
         <v>25965.45748165</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7272,7 +6800,7 @@
         <v>25955.45748165</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7305,7 +6833,7 @@
         <v>25955.45748165</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7338,7 +6866,7 @@
         <v>26422.26738165</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7371,7 +6899,7 @@
         <v>25176.13208165</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7404,7 +6932,7 @@
         <v>24536.85658165</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7437,7 +6965,7 @@
         <v>24752.91658165</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7470,7 +6998,7 @@
         <v>23220.30518165</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7503,7 +7031,7 @@
         <v>23528.58388165</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7536,7 +7064,7 @@
         <v>23528.58388165</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7569,7 +7097,7 @@
         <v>23528.58388165</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7602,7 +7130,7 @@
         <v>23347.33578165</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7635,7 +7163,7 @@
         <v>23528.38058165</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7668,7 +7196,7 @@
         <v>23248.08298165</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7701,7 +7229,7 @@
         <v>22621.13478165</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7734,7 +7262,7 @@
         <v>21207.68958165</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7767,7 +7295,7 @@
         <v>21274.81178165</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7800,7 +7328,7 @@
         <v>20312.42338165</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7833,7 +7361,7 @@
         <v>20337.42338165</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7866,7 +7394,7 @@
         <v>19908.27078165</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7899,7 +7427,7 @@
         <v>19908.27078165</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7932,7 +7460,7 @@
         <v>20180.60078165</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7965,7 +7493,7 @@
         <v>20180.60078165</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7998,7 +7526,7 @@
         <v>19533.32228165</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8031,7 +7559,7 @@
         <v>19113.32228165</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8064,7 +7592,7 @@
         <v>19119.66518165</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8130,7 +7658,7 @@
         <v>22295.01518165</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8757,11 +8285,17 @@
         <v>24961.00098165</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>994</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8794,7 +8328,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8827,7 +8365,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8860,7 +8402,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +8439,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8926,7 +8476,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8959,7 +8513,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8992,7 +8550,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9025,7 +8587,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9058,7 +8624,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9091,7 +8661,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9124,7 +8698,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9157,7 +8735,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9190,7 +8772,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9223,7 +8809,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9256,7 +8846,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9289,7 +8883,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9322,7 +8920,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9355,7 +8957,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9388,7 +8994,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9421,7 +9031,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9454,7 +9068,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9487,7 +9105,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9520,7 +9142,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9553,7 +9179,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9586,7 +9216,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9619,7 +9253,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9652,7 +9290,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9685,7 +9327,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9718,7 +9364,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9751,7 +9401,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9784,7 +9438,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9817,7 +9475,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9850,7 +9512,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9879,14 +9545,16 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -9912,7 +9580,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9945,7 +9613,7 @@
         <v>38960.05568165</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9978,7 +9646,7 @@
         <v>43517.63038164999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10011,7 +9679,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10044,7 +9712,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10077,7 +9745,7 @@
         <v>44897.63038164999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10088,6 +9756,6 @@
       <c r="M264" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -880,2339 +880,2109 @@
         <v>-5606.22341835</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>990</v>
+      </c>
+      <c r="C16" t="n">
+        <v>988</v>
+      </c>
+      <c r="D16" t="n">
+        <v>990</v>
+      </c>
+      <c r="E16" t="n">
+        <v>987</v>
+      </c>
+      <c r="F16" t="n">
+        <v>817.5176</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-5606.22341835</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>989</v>
+      </c>
+      <c r="C17" t="n">
+        <v>989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>988</v>
+      </c>
+      <c r="F17" t="n">
+        <v>538.4299999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-5067.793418349999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>988</v>
+      </c>
+      <c r="C18" t="n">
+        <v>988</v>
+      </c>
+      <c r="D18" t="n">
+        <v>988</v>
+      </c>
+      <c r="E18" t="n">
+        <v>988</v>
+      </c>
+      <c r="F18" t="n">
+        <v>183.714</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-5251.507418349999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>989</v>
+      </c>
+      <c r="C19" t="n">
+        <v>989</v>
+      </c>
+      <c r="D19" t="n">
+        <v>989</v>
+      </c>
+      <c r="E19" t="n">
+        <v>989</v>
+      </c>
+      <c r="F19" t="n">
+        <v>353.44</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4898.06741835</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>989</v>
+      </c>
+      <c r="C20" t="n">
+        <v>989</v>
+      </c>
+      <c r="D20" t="n">
+        <v>989</v>
+      </c>
+      <c r="E20" t="n">
+        <v>989</v>
+      </c>
+      <c r="F20" t="n">
+        <v>686.4824</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4898.06741835</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>989</v>
+      </c>
+      <c r="C21" t="n">
+        <v>989</v>
+      </c>
+      <c r="D21" t="n">
+        <v>989</v>
+      </c>
+      <c r="E21" t="n">
+        <v>989</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-4898.06741835</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>989</v>
+      </c>
+      <c r="C22" t="n">
+        <v>989</v>
+      </c>
+      <c r="D22" t="n">
+        <v>990</v>
+      </c>
+      <c r="E22" t="n">
+        <v>989</v>
+      </c>
+      <c r="F22" t="n">
+        <v>599.796</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4898.06741835</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>986</v>
+      </c>
+      <c r="C23" t="n">
+        <v>986</v>
+      </c>
+      <c r="D23" t="n">
+        <v>986</v>
+      </c>
+      <c r="E23" t="n">
+        <v>986</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.0486</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4899.11601835</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>986</v>
+      </c>
+      <c r="C24" t="n">
+        <v>989</v>
+      </c>
+      <c r="D24" t="n">
+        <v>989</v>
+      </c>
+      <c r="E24" t="n">
+        <v>986</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1138.4544</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-3760.66161835</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>989</v>
+      </c>
+      <c r="C25" t="n">
+        <v>989</v>
+      </c>
+      <c r="D25" t="n">
+        <v>989</v>
+      </c>
+      <c r="E25" t="n">
+        <v>989</v>
+      </c>
+      <c r="F25" t="n">
+        <v>121.4646</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3760.66161835</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>989</v>
+      </c>
+      <c r="C26" t="n">
+        <v>989</v>
+      </c>
+      <c r="D26" t="n">
+        <v>989</v>
+      </c>
+      <c r="E26" t="n">
+        <v>989</v>
+      </c>
+      <c r="F26" t="n">
+        <v>297.66</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3760.66161835</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>989</v>
+      </c>
+      <c r="C27" t="n">
+        <v>989</v>
+      </c>
+      <c r="D27" t="n">
+        <v>989</v>
+      </c>
+      <c r="E27" t="n">
+        <v>989</v>
+      </c>
+      <c r="F27" t="n">
+        <v>589.0174</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3760.66161835</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>984</v>
+      </c>
+      <c r="C28" t="n">
+        <v>984</v>
+      </c>
+      <c r="D28" t="n">
+        <v>984</v>
+      </c>
+      <c r="E28" t="n">
+        <v>984</v>
+      </c>
+      <c r="F28" t="n">
+        <v>612.8455</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4373.507118349999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>987</v>
+      </c>
+      <c r="C29" t="n">
+        <v>988</v>
+      </c>
+      <c r="D29" t="n">
+        <v>988</v>
+      </c>
+      <c r="E29" t="n">
+        <v>987</v>
+      </c>
+      <c r="F29" t="n">
+        <v>639.9399</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3733.56721835</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>988</v>
+      </c>
+      <c r="C30" t="n">
+        <v>989</v>
+      </c>
+      <c r="D30" t="n">
+        <v>989</v>
+      </c>
+      <c r="E30" t="n">
+        <v>988</v>
+      </c>
+      <c r="F30" t="n">
+        <v>491.2212</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-3242.34601835</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>989</v>
+      </c>
+      <c r="C31" t="n">
+        <v>989</v>
+      </c>
+      <c r="D31" t="n">
+        <v>989</v>
+      </c>
+      <c r="E31" t="n">
+        <v>989</v>
+      </c>
+      <c r="F31" t="n">
+        <v>510.48</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-3242.34601835</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>989</v>
+      </c>
+      <c r="C32" t="n">
+        <v>989</v>
+      </c>
+      <c r="D32" t="n">
+        <v>989</v>
+      </c>
+      <c r="E32" t="n">
+        <v>989</v>
+      </c>
+      <c r="F32" t="n">
+        <v>41.8243</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-3242.34601835</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>989</v>
+      </c>
+      <c r="C33" t="n">
+        <v>989</v>
+      </c>
+      <c r="D33" t="n">
+        <v>989</v>
+      </c>
+      <c r="E33" t="n">
+        <v>989</v>
+      </c>
+      <c r="F33" t="n">
+        <v>419.1143</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-3242.34601835</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>989</v>
+      </c>
+      <c r="C34" t="n">
+        <v>989</v>
+      </c>
+      <c r="D34" t="n">
+        <v>989</v>
+      </c>
+      <c r="E34" t="n">
+        <v>989</v>
+      </c>
+      <c r="F34" t="n">
+        <v>220.1999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-3242.34601835</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>989</v>
+      </c>
+      <c r="C35" t="n">
+        <v>990</v>
+      </c>
+      <c r="D35" t="n">
+        <v>990</v>
+      </c>
+      <c r="E35" t="n">
+        <v>989</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3580</v>
+      </c>
+      <c r="G35" t="n">
+        <v>337.6539816500003</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>990</v>
+      </c>
+      <c r="C36" t="n">
+        <v>990</v>
+      </c>
+      <c r="D36" t="n">
+        <v>990</v>
+      </c>
+      <c r="E36" t="n">
+        <v>990</v>
+      </c>
+      <c r="F36" t="n">
+        <v>60.65</v>
+      </c>
+      <c r="G36" t="n">
+        <v>337.6539816500003</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>989</v>
+      </c>
+      <c r="C37" t="n">
+        <v>989</v>
+      </c>
+      <c r="D37" t="n">
+        <v>989</v>
+      </c>
+      <c r="E37" t="n">
+        <v>989</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50.9444</v>
+      </c>
+      <c r="G37" t="n">
+        <v>286.7095816500004</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>990</v>
+      </c>
+      <c r="C38" t="n">
+        <v>990</v>
+      </c>
+      <c r="D38" t="n">
+        <v>990</v>
+      </c>
+      <c r="E38" t="n">
+        <v>990</v>
+      </c>
+      <c r="F38" t="n">
+        <v>120.09</v>
+      </c>
+      <c r="G38" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>990</v>
+      </c>
+      <c r="C39" t="n">
+        <v>990</v>
+      </c>
+      <c r="D39" t="n">
+        <v>990</v>
+      </c>
+      <c r="E39" t="n">
+        <v>990</v>
+      </c>
+      <c r="F39" t="n">
+        <v>525</v>
+      </c>
+      <c r="G39" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>990</v>
+      </c>
+      <c r="C40" t="n">
+        <v>990</v>
+      </c>
+      <c r="D40" t="n">
+        <v>990</v>
+      </c>
+      <c r="E40" t="n">
+        <v>990</v>
+      </c>
+      <c r="F40" t="n">
+        <v>569.71</v>
+      </c>
+      <c r="G40" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>990</v>
+      </c>
+      <c r="C41" t="n">
+        <v>990</v>
+      </c>
+      <c r="D41" t="n">
+        <v>990</v>
+      </c>
+      <c r="E41" t="n">
+        <v>990</v>
+      </c>
+      <c r="F41" t="n">
+        <v>795</v>
+      </c>
+      <c r="G41" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>990</v>
+      </c>
+      <c r="C42" t="n">
+        <v>990</v>
+      </c>
+      <c r="D42" t="n">
+        <v>990</v>
+      </c>
+      <c r="E42" t="n">
+        <v>990</v>
+      </c>
+      <c r="F42" t="n">
+        <v>501.06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>990</v>
+      </c>
+      <c r="C43" t="n">
+        <v>990</v>
+      </c>
+      <c r="D43" t="n">
+        <v>990</v>
+      </c>
+      <c r="E43" t="n">
+        <v>990</v>
+      </c>
+      <c r="F43" t="n">
+        <v>303.0303</v>
+      </c>
+      <c r="G43" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>990</v>
+      </c>
+      <c r="C44" t="n">
+        <v>990</v>
+      </c>
+      <c r="D44" t="n">
+        <v>990</v>
+      </c>
+      <c r="E44" t="n">
+        <v>990</v>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>990</v>
+      </c>
+      <c r="C45" t="n">
+        <v>990</v>
+      </c>
+      <c r="D45" t="n">
+        <v>990</v>
+      </c>
+      <c r="E45" t="n">
+        <v>990</v>
+      </c>
+      <c r="F45" t="n">
+        <v>216.0837</v>
+      </c>
+      <c r="G45" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>990</v>
+      </c>
+      <c r="C46" t="n">
+        <v>990</v>
+      </c>
+      <c r="D46" t="n">
+        <v>990</v>
+      </c>
+      <c r="E46" t="n">
+        <v>990</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1102.5861</v>
+      </c>
+      <c r="G46" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>990</v>
+      </c>
+      <c r="C47" t="n">
+        <v>990</v>
+      </c>
+      <c r="D47" t="n">
+        <v>990</v>
+      </c>
+      <c r="E47" t="n">
+        <v>990</v>
+      </c>
+      <c r="F47" t="n">
+        <v>50</v>
+      </c>
+      <c r="G47" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>990</v>
+      </c>
+      <c r="C48" t="n">
+        <v>990</v>
+      </c>
+      <c r="D48" t="n">
+        <v>990</v>
+      </c>
+      <c r="E48" t="n">
+        <v>990</v>
+      </c>
+      <c r="F48" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>990</v>
+      </c>
+      <c r="C49" t="n">
+        <v>990</v>
+      </c>
+      <c r="D49" t="n">
+        <v>990</v>
+      </c>
+      <c r="E49" t="n">
+        <v>990</v>
+      </c>
+      <c r="F49" t="n">
+        <v>46.8599</v>
+      </c>
+      <c r="G49" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>990</v>
+      </c>
+      <c r="C50" t="n">
+        <v>990</v>
+      </c>
+      <c r="D50" t="n">
+        <v>990</v>
+      </c>
+      <c r="E50" t="n">
+        <v>990</v>
+      </c>
+      <c r="F50" t="n">
+        <v>204.129</v>
+      </c>
+      <c r="G50" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>987</v>
+      </c>
+      <c r="C51" t="n">
+        <v>990</v>
+      </c>
+      <c r="D51" t="n">
+        <v>990</v>
+      </c>
+      <c r="E51" t="n">
+        <v>987</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3989.0796</v>
+      </c>
+      <c r="G51" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>990</v>
+      </c>
+      <c r="C52" t="n">
+        <v>990</v>
+      </c>
+      <c r="D52" t="n">
+        <v>990</v>
+      </c>
+      <c r="E52" t="n">
+        <v>990</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1669.7972</v>
+      </c>
+      <c r="G52" t="n">
+        <v>406.7995816500004</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>993</v>
+      </c>
+      <c r="C53" t="n">
+        <v>993</v>
+      </c>
+      <c r="D53" t="n">
+        <v>993</v>
+      </c>
+      <c r="E53" t="n">
+        <v>993</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20.1409</v>
+      </c>
+      <c r="G53" t="n">
+        <v>426.9404816500004</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>993</v>
+      </c>
+      <c r="C54" t="n">
+        <v>993</v>
+      </c>
+      <c r="D54" t="n">
+        <v>993</v>
+      </c>
+      <c r="E54" t="n">
+        <v>993</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10.0704</v>
+      </c>
+      <c r="G54" t="n">
+        <v>426.9404816500004</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>991</v>
+      </c>
+      <c r="C55" t="n">
+        <v>991</v>
+      </c>
+      <c r="D55" t="n">
+        <v>991</v>
+      </c>
+      <c r="E55" t="n">
+        <v>991</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1876.2676</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1449.32711835</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>990</v>
+      </c>
+      <c r="C56" t="n">
+        <v>990</v>
+      </c>
+      <c r="D56" t="n">
+        <v>990</v>
+      </c>
+      <c r="E56" t="n">
+        <v>990</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10.0452</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1459.37231835</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>993</v>
+      </c>
+      <c r="C57" t="n">
+        <v>993</v>
+      </c>
+      <c r="D57" t="n">
+        <v>993</v>
+      </c>
+      <c r="E57" t="n">
+        <v>993</v>
+      </c>
+      <c r="F57" t="n">
+        <v>330.6086</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1128.76371835</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>995</v>
+      </c>
+      <c r="C58" t="n">
+        <v>995</v>
+      </c>
+      <c r="D58" t="n">
+        <v>995</v>
+      </c>
+      <c r="E58" t="n">
+        <v>990</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2251.9758</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1123.212081650001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>994</v>
+      </c>
+      <c r="C59" t="n">
+        <v>994</v>
+      </c>
+      <c r="D59" t="n">
+        <v>994</v>
+      </c>
+      <c r="E59" t="n">
+        <v>994</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1116.035081650001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>991</v>
+      </c>
+      <c r="C60" t="n">
+        <v>991</v>
+      </c>
+      <c r="D60" t="n">
+        <v>991</v>
+      </c>
+      <c r="E60" t="n">
+        <v>991</v>
+      </c>
+      <c r="F60" t="n">
+        <v>39.8144</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1076.220681650001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>990</v>
+      </c>
+      <c r="C61" t="n">
+        <v>990</v>
+      </c>
+      <c r="D61" t="n">
+        <v>990</v>
+      </c>
+      <c r="E61" t="n">
+        <v>990</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1651.0428</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-574.8221183499993</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>990</v>
+      </c>
+      <c r="C62" t="n">
+        <v>990</v>
+      </c>
+      <c r="D62" t="n">
+        <v>990</v>
+      </c>
+      <c r="E62" t="n">
+        <v>990</v>
+      </c>
+      <c r="F62" t="n">
+        <v>200</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-574.8221183499993</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>990</v>
+      </c>
+      <c r="C63" t="n">
+        <v>990</v>
+      </c>
+      <c r="D63" t="n">
+        <v>990</v>
+      </c>
+      <c r="E63" t="n">
+        <v>990</v>
+      </c>
+      <c r="F63" t="n">
+        <v>397.0316</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-574.8221183499993</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>995</v>
+      </c>
+      <c r="C64" t="n">
+        <v>995</v>
+      </c>
+      <c r="D64" t="n">
+        <v>995</v>
+      </c>
+      <c r="E64" t="n">
+        <v>995</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-572.8221183499993</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>992</v>
+      </c>
+      <c r="C65" t="n">
+        <v>992</v>
+      </c>
+      <c r="D65" t="n">
+        <v>993</v>
+      </c>
+      <c r="E65" t="n">
+        <v>988</v>
+      </c>
+      <c r="F65" t="n">
+        <v>572.4732</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1145.295318349999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>992</v>
+      </c>
+      <c r="C66" t="n">
+        <v>992</v>
+      </c>
+      <c r="D66" t="n">
+        <v>992</v>
+      </c>
+      <c r="E66" t="n">
+        <v>992</v>
+      </c>
+      <c r="F66" t="n">
+        <v>59.9406</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1145.295318349999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>992</v>
+      </c>
+      <c r="C67" t="n">
+        <v>992</v>
+      </c>
+      <c r="D67" t="n">
+        <v>992</v>
+      </c>
+      <c r="E67" t="n">
+        <v>992</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0594</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1145.295318349999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>989</v>
+      </c>
+      <c r="C68" t="n">
+        <v>987</v>
+      </c>
+      <c r="D68" t="n">
+        <v>989</v>
+      </c>
+      <c r="E68" t="n">
+        <v>987</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2145.295318349999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>987</v>
+      </c>
+      <c r="C69" t="n">
+        <v>987</v>
+      </c>
+      <c r="D69" t="n">
+        <v>987</v>
+      </c>
+      <c r="E69" t="n">
+        <v>987</v>
+      </c>
+      <c r="F69" t="n">
+        <v>67.1747</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-2145.295318349999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>986</v>
+      </c>
+      <c r="C70" t="n">
+        <v>986</v>
+      </c>
+      <c r="D70" t="n">
+        <v>986</v>
+      </c>
+      <c r="E70" t="n">
+        <v>986</v>
+      </c>
+      <c r="F70" t="n">
+        <v>552.7843</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2698.07961835</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>987</v>
+      </c>
+      <c r="J70" t="n">
+        <v>987</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>989</v>
+      </c>
+      <c r="C71" t="n">
+        <v>989</v>
+      </c>
+      <c r="D71" t="n">
+        <v>989</v>
+      </c>
+      <c r="E71" t="n">
+        <v>989</v>
+      </c>
+      <c r="F71" t="n">
+        <v>34.431</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2663.64861835</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>986</v>
+      </c>
+      <c r="J71" t="n">
+        <v>987</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>989</v>
+      </c>
+      <c r="C72" t="n">
+        <v>989</v>
+      </c>
+      <c r="D72" t="n">
+        <v>989</v>
+      </c>
+      <c r="E72" t="n">
+        <v>989</v>
+      </c>
+      <c r="F72" t="n">
+        <v>47.5559</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2663.64861835</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>989</v>
+      </c>
+      <c r="J72" t="n">
+        <v>987</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>990</v>
+      </c>
+      <c r="C73" t="n">
+        <v>990</v>
+      </c>
+      <c r="D73" t="n">
+        <v>990</v>
+      </c>
+      <c r="E73" t="n">
+        <v>990</v>
+      </c>
+      <c r="F73" t="n">
+        <v>75.2475</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2588.40111835</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>989</v>
+      </c>
+      <c r="J73" t="n">
+        <v>989</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>990</v>
+      </c>
+      <c r="C74" t="n">
+        <v>990</v>
+      </c>
+      <c r="D74" t="n">
+        <v>990</v>
+      </c>
+      <c r="E74" t="n">
+        <v>990</v>
+      </c>
+      <c r="F74" t="n">
+        <v>518.7525000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2588.40111835</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>990</v>
+      </c>
+      <c r="J74" t="n">
+        <v>989</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>995</v>
+      </c>
+      <c r="C75" t="n">
+        <v>995</v>
+      </c>
+      <c r="D75" t="n">
+        <v>995</v>
+      </c>
+      <c r="E75" t="n">
+        <v>995</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.6914</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2584.70971835</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>990</v>
+      </c>
+      <c r="J75" t="n">
+        <v>989</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>988</v>
+      </c>
+      <c r="C76" t="n">
+        <v>988</v>
+      </c>
+      <c r="D76" t="n">
+        <v>988</v>
+      </c>
+      <c r="E76" t="n">
+        <v>988</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.6914</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2591.40111835</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>995</v>
+      </c>
+      <c r="J76" t="n">
+        <v>995</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>995</v>
+      </c>
+      <c r="C77" t="n">
+        <v>995</v>
+      </c>
+      <c r="D77" t="n">
+        <v>995</v>
+      </c>
+      <c r="E77" t="n">
+        <v>988</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2583.40111835</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>988</v>
+      </c>
+      <c r="J77" t="n">
+        <v>995</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>990</v>
-      </c>
-      <c r="C16" t="n">
-        <v>988</v>
-      </c>
-      <c r="D16" t="n">
-        <v>990</v>
-      </c>
-      <c r="E16" t="n">
-        <v>987</v>
-      </c>
-      <c r="F16" t="n">
-        <v>817.5176</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-5606.22341835</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>989</v>
-      </c>
-      <c r="C17" t="n">
-        <v>989</v>
-      </c>
-      <c r="D17" t="n">
-        <v>989</v>
-      </c>
-      <c r="E17" t="n">
-        <v>988</v>
-      </c>
-      <c r="F17" t="n">
-        <v>538.4299999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-5067.793418349999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>988</v>
-      </c>
-      <c r="C18" t="n">
-        <v>988</v>
-      </c>
-      <c r="D18" t="n">
-        <v>988</v>
-      </c>
-      <c r="E18" t="n">
-        <v>988</v>
-      </c>
-      <c r="F18" t="n">
-        <v>183.714</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-5251.507418349999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>989</v>
-      </c>
-      <c r="C19" t="n">
-        <v>989</v>
-      </c>
-      <c r="D19" t="n">
-        <v>989</v>
-      </c>
-      <c r="E19" t="n">
-        <v>989</v>
-      </c>
-      <c r="F19" t="n">
-        <v>353.44</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-4898.06741835</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>989</v>
-      </c>
-      <c r="C20" t="n">
-        <v>989</v>
-      </c>
-      <c r="D20" t="n">
-        <v>989</v>
-      </c>
-      <c r="E20" t="n">
-        <v>989</v>
-      </c>
-      <c r="F20" t="n">
-        <v>686.4824</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-4898.06741835</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>989</v>
-      </c>
-      <c r="C21" t="n">
-        <v>989</v>
-      </c>
-      <c r="D21" t="n">
-        <v>989</v>
-      </c>
-      <c r="E21" t="n">
-        <v>989</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-4898.06741835</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>989</v>
-      </c>
-      <c r="C22" t="n">
-        <v>989</v>
-      </c>
-      <c r="D22" t="n">
-        <v>990</v>
-      </c>
-      <c r="E22" t="n">
-        <v>989</v>
-      </c>
-      <c r="F22" t="n">
-        <v>599.796</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-4898.06741835</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>986</v>
-      </c>
-      <c r="C23" t="n">
-        <v>986</v>
-      </c>
-      <c r="D23" t="n">
-        <v>986</v>
-      </c>
-      <c r="E23" t="n">
-        <v>986</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.0486</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-4899.11601835</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>986</v>
-      </c>
-      <c r="C24" t="n">
-        <v>989</v>
-      </c>
-      <c r="D24" t="n">
-        <v>989</v>
-      </c>
-      <c r="E24" t="n">
-        <v>986</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1138.4544</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-3760.66161835</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>986</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>989</v>
-      </c>
-      <c r="C25" t="n">
-        <v>989</v>
-      </c>
-      <c r="D25" t="n">
-        <v>989</v>
-      </c>
-      <c r="E25" t="n">
-        <v>989</v>
-      </c>
-      <c r="F25" t="n">
-        <v>121.4646</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-3760.66161835</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>989</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>989</v>
-      </c>
-      <c r="C26" t="n">
-        <v>989</v>
-      </c>
-      <c r="D26" t="n">
-        <v>989</v>
-      </c>
-      <c r="E26" t="n">
-        <v>989</v>
-      </c>
-      <c r="F26" t="n">
-        <v>297.66</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-3760.66161835</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>989</v>
-      </c>
-      <c r="C27" t="n">
-        <v>989</v>
-      </c>
-      <c r="D27" t="n">
-        <v>989</v>
-      </c>
-      <c r="E27" t="n">
-        <v>989</v>
-      </c>
-      <c r="F27" t="n">
-        <v>589.0174</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-3760.66161835</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>989</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>984</v>
-      </c>
-      <c r="C28" t="n">
-        <v>984</v>
-      </c>
-      <c r="D28" t="n">
-        <v>984</v>
-      </c>
-      <c r="E28" t="n">
-        <v>984</v>
-      </c>
-      <c r="F28" t="n">
-        <v>612.8455</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-4373.507118349999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>989</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>987</v>
-      </c>
-      <c r="C29" t="n">
-        <v>988</v>
-      </c>
-      <c r="D29" t="n">
-        <v>988</v>
-      </c>
-      <c r="E29" t="n">
-        <v>987</v>
-      </c>
-      <c r="F29" t="n">
-        <v>639.9399</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-3733.56721835</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>984</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>988</v>
-      </c>
-      <c r="C30" t="n">
-        <v>989</v>
-      </c>
-      <c r="D30" t="n">
-        <v>989</v>
-      </c>
-      <c r="E30" t="n">
-        <v>988</v>
-      </c>
-      <c r="F30" t="n">
-        <v>491.2212</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-3242.34601835</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>988</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>989</v>
-      </c>
-      <c r="C31" t="n">
-        <v>989</v>
-      </c>
-      <c r="D31" t="n">
-        <v>989</v>
-      </c>
-      <c r="E31" t="n">
-        <v>989</v>
-      </c>
-      <c r="F31" t="n">
-        <v>510.48</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-3242.34601835</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>989</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>989</v>
-      </c>
-      <c r="C32" t="n">
-        <v>989</v>
-      </c>
-      <c r="D32" t="n">
-        <v>989</v>
-      </c>
-      <c r="E32" t="n">
-        <v>989</v>
-      </c>
-      <c r="F32" t="n">
-        <v>41.8243</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-3242.34601835</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>989</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>989</v>
-      </c>
-      <c r="C33" t="n">
-        <v>989</v>
-      </c>
-      <c r="D33" t="n">
-        <v>989</v>
-      </c>
-      <c r="E33" t="n">
-        <v>989</v>
-      </c>
-      <c r="F33" t="n">
-        <v>419.1143</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-3242.34601835</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>989</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>989</v>
-      </c>
-      <c r="C34" t="n">
-        <v>989</v>
-      </c>
-      <c r="D34" t="n">
-        <v>989</v>
-      </c>
-      <c r="E34" t="n">
-        <v>989</v>
-      </c>
-      <c r="F34" t="n">
-        <v>220.1999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-3242.34601835</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>989</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>989</v>
-      </c>
-      <c r="C35" t="n">
-        <v>990</v>
-      </c>
-      <c r="D35" t="n">
-        <v>990</v>
-      </c>
-      <c r="E35" t="n">
-        <v>989</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3580</v>
-      </c>
-      <c r="G35" t="n">
-        <v>337.6539816500003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>990</v>
-      </c>
-      <c r="C36" t="n">
-        <v>990</v>
-      </c>
-      <c r="D36" t="n">
-        <v>990</v>
-      </c>
-      <c r="E36" t="n">
-        <v>990</v>
-      </c>
-      <c r="F36" t="n">
-        <v>60.65</v>
-      </c>
-      <c r="G36" t="n">
-        <v>337.6539816500003</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>989</v>
-      </c>
-      <c r="C37" t="n">
-        <v>989</v>
-      </c>
-      <c r="D37" t="n">
-        <v>989</v>
-      </c>
-      <c r="E37" t="n">
-        <v>989</v>
-      </c>
-      <c r="F37" t="n">
-        <v>50.9444</v>
-      </c>
-      <c r="G37" t="n">
-        <v>286.7095816500004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>990</v>
-      </c>
-      <c r="C38" t="n">
-        <v>990</v>
-      </c>
-      <c r="D38" t="n">
-        <v>990</v>
-      </c>
-      <c r="E38" t="n">
-        <v>990</v>
-      </c>
-      <c r="F38" t="n">
-        <v>120.09</v>
-      </c>
-      <c r="G38" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>990</v>
-      </c>
-      <c r="C39" t="n">
-        <v>990</v>
-      </c>
-      <c r="D39" t="n">
-        <v>990</v>
-      </c>
-      <c r="E39" t="n">
-        <v>990</v>
-      </c>
-      <c r="F39" t="n">
-        <v>525</v>
-      </c>
-      <c r="G39" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>990</v>
-      </c>
-      <c r="C40" t="n">
-        <v>990</v>
-      </c>
-      <c r="D40" t="n">
-        <v>990</v>
-      </c>
-      <c r="E40" t="n">
-        <v>990</v>
-      </c>
-      <c r="F40" t="n">
-        <v>569.71</v>
-      </c>
-      <c r="G40" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>990</v>
-      </c>
-      <c r="C41" t="n">
-        <v>990</v>
-      </c>
-      <c r="D41" t="n">
-        <v>990</v>
-      </c>
-      <c r="E41" t="n">
-        <v>990</v>
-      </c>
-      <c r="F41" t="n">
-        <v>795</v>
-      </c>
-      <c r="G41" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>990</v>
-      </c>
-      <c r="C42" t="n">
-        <v>990</v>
-      </c>
-      <c r="D42" t="n">
-        <v>990</v>
-      </c>
-      <c r="E42" t="n">
-        <v>990</v>
-      </c>
-      <c r="F42" t="n">
-        <v>501.06</v>
-      </c>
-      <c r="G42" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>990</v>
-      </c>
-      <c r="C43" t="n">
-        <v>990</v>
-      </c>
-      <c r="D43" t="n">
-        <v>990</v>
-      </c>
-      <c r="E43" t="n">
-        <v>990</v>
-      </c>
-      <c r="F43" t="n">
-        <v>303.0303</v>
-      </c>
-      <c r="G43" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>990</v>
-      </c>
-      <c r="C44" t="n">
-        <v>990</v>
-      </c>
-      <c r="D44" t="n">
-        <v>990</v>
-      </c>
-      <c r="E44" t="n">
-        <v>990</v>
-      </c>
-      <c r="F44" t="n">
-        <v>50</v>
-      </c>
-      <c r="G44" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>990</v>
-      </c>
-      <c r="C45" t="n">
-        <v>990</v>
-      </c>
-      <c r="D45" t="n">
-        <v>990</v>
-      </c>
-      <c r="E45" t="n">
-        <v>990</v>
-      </c>
-      <c r="F45" t="n">
-        <v>216.0837</v>
-      </c>
-      <c r="G45" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>990</v>
-      </c>
-      <c r="C46" t="n">
-        <v>990</v>
-      </c>
-      <c r="D46" t="n">
-        <v>990</v>
-      </c>
-      <c r="E46" t="n">
-        <v>990</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1102.5861</v>
-      </c>
-      <c r="G46" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>990</v>
-      </c>
-      <c r="C47" t="n">
-        <v>990</v>
-      </c>
-      <c r="D47" t="n">
-        <v>990</v>
-      </c>
-      <c r="E47" t="n">
-        <v>990</v>
-      </c>
-      <c r="F47" t="n">
-        <v>50</v>
-      </c>
-      <c r="G47" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>990</v>
-      </c>
-      <c r="C48" t="n">
-        <v>990</v>
-      </c>
-      <c r="D48" t="n">
-        <v>990</v>
-      </c>
-      <c r="E48" t="n">
-        <v>990</v>
-      </c>
-      <c r="F48" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>990</v>
-      </c>
-      <c r="C49" t="n">
-        <v>990</v>
-      </c>
-      <c r="D49" t="n">
-        <v>990</v>
-      </c>
-      <c r="E49" t="n">
-        <v>990</v>
-      </c>
-      <c r="F49" t="n">
-        <v>46.8599</v>
-      </c>
-      <c r="G49" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>990</v>
-      </c>
-      <c r="C50" t="n">
-        <v>990</v>
-      </c>
-      <c r="D50" t="n">
-        <v>990</v>
-      </c>
-      <c r="E50" t="n">
-        <v>990</v>
-      </c>
-      <c r="F50" t="n">
-        <v>204.129</v>
-      </c>
-      <c r="G50" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>987</v>
-      </c>
-      <c r="C51" t="n">
-        <v>990</v>
-      </c>
-      <c r="D51" t="n">
-        <v>990</v>
-      </c>
-      <c r="E51" t="n">
-        <v>987</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3989.0796</v>
-      </c>
-      <c r="G51" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>990</v>
-      </c>
-      <c r="C52" t="n">
-        <v>990</v>
-      </c>
-      <c r="D52" t="n">
-        <v>990</v>
-      </c>
-      <c r="E52" t="n">
-        <v>990</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1669.7972</v>
-      </c>
-      <c r="G52" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>993</v>
-      </c>
-      <c r="C53" t="n">
-        <v>993</v>
-      </c>
-      <c r="D53" t="n">
-        <v>993</v>
-      </c>
-      <c r="E53" t="n">
-        <v>993</v>
-      </c>
-      <c r="F53" t="n">
-        <v>20.1409</v>
-      </c>
-      <c r="G53" t="n">
-        <v>426.9404816500004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>993</v>
-      </c>
-      <c r="C54" t="n">
-        <v>993</v>
-      </c>
-      <c r="D54" t="n">
-        <v>993</v>
-      </c>
-      <c r="E54" t="n">
-        <v>993</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10.0704</v>
-      </c>
-      <c r="G54" t="n">
-        <v>426.9404816500004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>991</v>
-      </c>
-      <c r="C55" t="n">
-        <v>991</v>
-      </c>
-      <c r="D55" t="n">
-        <v>991</v>
-      </c>
-      <c r="E55" t="n">
-        <v>991</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1876.2676</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1449.32711835</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>990</v>
-      </c>
-      <c r="C56" t="n">
-        <v>990</v>
-      </c>
-      <c r="D56" t="n">
-        <v>990</v>
-      </c>
-      <c r="E56" t="n">
-        <v>990</v>
-      </c>
-      <c r="F56" t="n">
-        <v>10.0452</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1459.37231835</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>993</v>
-      </c>
-      <c r="C57" t="n">
-        <v>993</v>
-      </c>
-      <c r="D57" t="n">
-        <v>993</v>
-      </c>
-      <c r="E57" t="n">
-        <v>993</v>
-      </c>
-      <c r="F57" t="n">
-        <v>330.6086</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1128.76371835</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>995</v>
-      </c>
-      <c r="C58" t="n">
-        <v>995</v>
-      </c>
-      <c r="D58" t="n">
-        <v>995</v>
-      </c>
-      <c r="E58" t="n">
-        <v>990</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2251.9758</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1123.212081650001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>994</v>
-      </c>
-      <c r="C59" t="n">
-        <v>994</v>
-      </c>
-      <c r="D59" t="n">
-        <v>994</v>
-      </c>
-      <c r="E59" t="n">
-        <v>994</v>
-      </c>
-      <c r="F59" t="n">
-        <v>7.177</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1116.035081650001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>991</v>
-      </c>
-      <c r="C60" t="n">
-        <v>991</v>
-      </c>
-      <c r="D60" t="n">
-        <v>991</v>
-      </c>
-      <c r="E60" t="n">
-        <v>991</v>
-      </c>
-      <c r="F60" t="n">
-        <v>39.8144</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1076.220681650001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>990</v>
-      </c>
-      <c r="C61" t="n">
-        <v>990</v>
-      </c>
-      <c r="D61" t="n">
-        <v>990</v>
-      </c>
-      <c r="E61" t="n">
-        <v>990</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1651.0428</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-574.8221183499993</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>990</v>
-      </c>
-      <c r="C62" t="n">
-        <v>990</v>
-      </c>
-      <c r="D62" t="n">
-        <v>990</v>
-      </c>
-      <c r="E62" t="n">
-        <v>990</v>
-      </c>
-      <c r="F62" t="n">
-        <v>200</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-574.8221183499993</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>990</v>
-      </c>
-      <c r="C63" t="n">
-        <v>990</v>
-      </c>
-      <c r="D63" t="n">
-        <v>990</v>
-      </c>
-      <c r="E63" t="n">
-        <v>990</v>
-      </c>
-      <c r="F63" t="n">
-        <v>397.0316</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-574.8221183499993</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>995</v>
-      </c>
-      <c r="C64" t="n">
-        <v>995</v>
-      </c>
-      <c r="D64" t="n">
-        <v>995</v>
-      </c>
-      <c r="E64" t="n">
-        <v>995</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-572.8221183499993</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>992</v>
-      </c>
-      <c r="C65" t="n">
-        <v>992</v>
-      </c>
-      <c r="D65" t="n">
-        <v>993</v>
-      </c>
-      <c r="E65" t="n">
-        <v>988</v>
-      </c>
-      <c r="F65" t="n">
-        <v>572.4732</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1145.295318349999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>992</v>
-      </c>
-      <c r="C66" t="n">
-        <v>992</v>
-      </c>
-      <c r="D66" t="n">
-        <v>992</v>
-      </c>
-      <c r="E66" t="n">
-        <v>992</v>
-      </c>
-      <c r="F66" t="n">
-        <v>59.9406</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1145.295318349999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>992</v>
-      </c>
-      <c r="C67" t="n">
-        <v>992</v>
-      </c>
-      <c r="D67" t="n">
-        <v>992</v>
-      </c>
-      <c r="E67" t="n">
-        <v>992</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1.0594</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1145.295318349999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>989</v>
-      </c>
-      <c r="C68" t="n">
-        <v>987</v>
-      </c>
-      <c r="D68" t="n">
-        <v>989</v>
-      </c>
-      <c r="E68" t="n">
-        <v>987</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2145.295318349999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>987</v>
-      </c>
-      <c r="C69" t="n">
-        <v>987</v>
-      </c>
-      <c r="D69" t="n">
-        <v>987</v>
-      </c>
-      <c r="E69" t="n">
-        <v>987</v>
-      </c>
-      <c r="F69" t="n">
-        <v>67.1747</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-2145.295318349999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>986</v>
-      </c>
-      <c r="C70" t="n">
-        <v>986</v>
-      </c>
-      <c r="D70" t="n">
-        <v>986</v>
-      </c>
-      <c r="E70" t="n">
-        <v>986</v>
-      </c>
-      <c r="F70" t="n">
-        <v>552.7843</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2698.07961835</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>987</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>989</v>
-      </c>
-      <c r="C71" t="n">
-        <v>989</v>
-      </c>
-      <c r="D71" t="n">
-        <v>989</v>
-      </c>
-      <c r="E71" t="n">
-        <v>989</v>
-      </c>
-      <c r="F71" t="n">
-        <v>34.431</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-2663.64861835</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>986</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>989</v>
-      </c>
-      <c r="C72" t="n">
-        <v>989</v>
-      </c>
-      <c r="D72" t="n">
-        <v>989</v>
-      </c>
-      <c r="E72" t="n">
-        <v>989</v>
-      </c>
-      <c r="F72" t="n">
-        <v>47.5559</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-2663.64861835</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>989</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>990</v>
-      </c>
-      <c r="C73" t="n">
-        <v>990</v>
-      </c>
-      <c r="D73" t="n">
-        <v>990</v>
-      </c>
-      <c r="E73" t="n">
-        <v>990</v>
-      </c>
-      <c r="F73" t="n">
-        <v>75.2475</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-2588.40111835</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>989</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>990</v>
-      </c>
-      <c r="C74" t="n">
-        <v>990</v>
-      </c>
-      <c r="D74" t="n">
-        <v>990</v>
-      </c>
-      <c r="E74" t="n">
-        <v>990</v>
-      </c>
-      <c r="F74" t="n">
-        <v>518.7525000000001</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-2588.40111835</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>995</v>
-      </c>
-      <c r="C75" t="n">
-        <v>995</v>
-      </c>
-      <c r="D75" t="n">
-        <v>995</v>
-      </c>
-      <c r="E75" t="n">
-        <v>995</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3.6914</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-2584.70971835</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>988</v>
-      </c>
-      <c r="C76" t="n">
-        <v>988</v>
-      </c>
-      <c r="D76" t="n">
-        <v>988</v>
-      </c>
-      <c r="E76" t="n">
-        <v>988</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6.6914</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-2591.40111835</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>995</v>
-      </c>
-      <c r="C77" t="n">
-        <v>995</v>
-      </c>
-      <c r="D77" t="n">
-        <v>995</v>
-      </c>
-      <c r="E77" t="n">
-        <v>988</v>
-      </c>
-      <c r="F77" t="n">
-        <v>8</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-2583.40111835</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3241,10 +3011,14 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>995</v>
+      </c>
+      <c r="J78" t="n">
+        <v>995</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,10 +3052,14 @@
         <v>-2585.40111835</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>994</v>
+      </c>
+      <c r="J79" t="n">
+        <v>995</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3315,10 +3093,14 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>994</v>
+      </c>
+      <c r="J80" t="n">
+        <v>995</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,10 +3134,14 @@
         <v>-3774.29191835</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>988</v>
+      </c>
+      <c r="J81" t="n">
+        <v>995</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,10 +3175,14 @@
         <v>-1581.29071835</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>988</v>
+      </c>
+      <c r="J82" t="n">
+        <v>995</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,10 +3216,14 @@
         <v>-1582.29071835</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>995</v>
+      </c>
+      <c r="J83" t="n">
+        <v>995</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,7 +3260,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>995</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,7 +3299,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>995</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3540,7 +3338,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>995</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,7 +3377,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>995</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,7 +3416,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>995</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,10 +3452,14 @@
         <v>-2475.33701835</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>991</v>
+      </c>
+      <c r="J89" t="n">
+        <v>995</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,10 +3493,14 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>990</v>
+      </c>
+      <c r="J90" t="n">
+        <v>995</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,10 +3534,14 @@
         <v>-2479.32901835</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>992</v>
+      </c>
+      <c r="J91" t="n">
+        <v>995</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,10 +3575,14 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>990</v>
+      </c>
+      <c r="J92" t="n">
+        <v>995</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,10 +3616,14 @@
         <v>-2474.32901835</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>992</v>
+      </c>
+      <c r="J93" t="n">
+        <v>995</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,7 +3660,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>995</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,10 +3696,14 @@
         <v>-3404.34081835</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>990</v>
+      </c>
+      <c r="J95" t="n">
+        <v>995</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3907,10 +3737,14 @@
         <v>-1939.32681835</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>989</v>
+      </c>
+      <c r="J96" t="n">
+        <v>995</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,10 +3778,14 @@
         <v>-2169.20341835</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>996</v>
+      </c>
+      <c r="J97" t="n">
+        <v>995</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,10 +3819,14 @@
         <v>-2126.34981835</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>988</v>
+      </c>
+      <c r="J98" t="n">
+        <v>995</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,7 +3863,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>995</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,7 +3902,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>995</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,7 +3941,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>995</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,7 +3980,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>995</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,7 +4019,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>995</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,7 +4058,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>995</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4243,7 +4097,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>995</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,7 +4136,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>995</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,7 +4175,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>995</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,7 +4214,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>995</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,7 +4253,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>995</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,7 +4292,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>995</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,7 +4331,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>995</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,7 +4370,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>995</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,7 +4409,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>995</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,7 +4448,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>995</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4613,7 +4487,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>995</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,7 +4526,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>995</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,7 +4565,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>995</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,7 +4604,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>995</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,7 +4643,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>995</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,7 +4682,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>995</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,7 +4721,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>995</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,7 +4760,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>995</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,7 +4799,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>995</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,7 +4838,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>995</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,7 +4877,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>995</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,7 +4916,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>995</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,7 +4955,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>995</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,7 +4994,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>995</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,7 +5033,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>995</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,7 +5072,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>995</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,7 +5111,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>995</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,7 +5150,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>995</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,7 +5189,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>995</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5313,477 +5225,565 @@
         <v>6344.78858165</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>995</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7424.1231</v>
+      </c>
+      <c r="G135" t="n">
+        <v>13768.91168165</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>995</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3600.0957</v>
+      </c>
+      <c r="G136" t="n">
+        <v>13768.91168165</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>995</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F137" t="n">
+        <v>406.3082</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13362.60348165</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>995</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F138" t="n">
+        <v>447.6918</v>
+      </c>
+      <c r="G138" t="n">
+        <v>13810.29528165</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>995</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F139" t="n">
+        <v>250</v>
+      </c>
+      <c r="G139" t="n">
+        <v>14060.29528165</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>995</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F140" t="n">
+        <v>415.5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>14060.29528165</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>995</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F141" t="n">
+        <v>557.9778</v>
+      </c>
+      <c r="G141" t="n">
+        <v>14618.27308165</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>995</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F142" t="n">
+        <v>125</v>
+      </c>
+      <c r="G142" t="n">
+        <v>14493.27308165</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>995</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2254.2465</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14493.27308165</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>995</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1330.3155</v>
+      </c>
+      <c r="G144" t="n">
+        <v>15823.58858165</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>995</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1288.1455</v>
+      </c>
+      <c r="G145" t="n">
+        <v>15823.58858165</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>995</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1551.4001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>17374.98868165</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>995</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F147" t="n">
+        <v>945.8772</v>
+      </c>
+      <c r="G147" t="n">
+        <v>17374.98868165</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>995</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F148" t="n">
+        <v>282.8058</v>
+      </c>
+      <c r="G148" t="n">
+        <v>17374.98868165</v>
+      </c>
+      <c r="H148" t="n">
         <v>2</v>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>995</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1016</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1016</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F135" t="n">
-        <v>7424.1231</v>
-      </c>
-      <c r="G135" t="n">
-        <v>13768.91168165</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1016</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1016</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1016</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3600.0957</v>
-      </c>
-      <c r="G136" t="n">
-        <v>13768.91168165</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1015</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1015</v>
-      </c>
-      <c r="F137" t="n">
-        <v>406.3082</v>
-      </c>
-      <c r="G137" t="n">
-        <v>13362.60348165</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1016</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1016</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1015</v>
-      </c>
-      <c r="F138" t="n">
-        <v>447.6918</v>
-      </c>
-      <c r="G138" t="n">
-        <v>13810.29528165</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F139" t="n">
-        <v>250</v>
-      </c>
-      <c r="G139" t="n">
-        <v>14060.29528165</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F140" t="n">
-        <v>415.5</v>
-      </c>
-      <c r="G140" t="n">
-        <v>14060.29528165</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F141" t="n">
-        <v>557.9778</v>
-      </c>
-      <c r="G141" t="n">
-        <v>14618.27308165</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F142" t="n">
-        <v>125</v>
-      </c>
-      <c r="G142" t="n">
-        <v>14493.27308165</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2254.2465</v>
-      </c>
-      <c r="G143" t="n">
-        <v>14493.27308165</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1330.3155</v>
-      </c>
-      <c r="G144" t="n">
-        <v>15823.58858165</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1022</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1022</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1288.1455</v>
-      </c>
-      <c r="G145" t="n">
-        <v>15823.58858165</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1026</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1022</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1551.4001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>17374.98868165</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F147" t="n">
-        <v>945.8772</v>
-      </c>
-      <c r="G147" t="n">
-        <v>17374.98868165</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F148" t="n">
-        <v>282.8058</v>
-      </c>
-      <c r="G148" t="n">
-        <v>17374.98868165</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>1.025150753768844</v>
       </c>
       <c r="M148" t="inlineStr"/>
     </row>
@@ -5810,7 +5810,7 @@
         <v>17349.36048165</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5876,7 +5876,7 @@
         <v>17909.36048165</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5909,7 +5909,7 @@
         <v>17909.36048165</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5942,7 +5942,7 @@
         <v>12959.97808165</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6668,7 +6668,7 @@
         <v>26155.15938165</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6701,7 +6701,7 @@
         <v>25945.15938165</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7130,7 +7130,7 @@
         <v>23347.33578165</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8285,17 +8285,11 @@
         <v>24961.00098165</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8328,11 +8322,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8355,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8402,11 +8388,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8439,11 +8421,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +8454,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8513,11 +8487,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8550,11 +8520,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8553,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +8586,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8619,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8698,11 +8652,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8735,11 +8685,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8772,11 +8718,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8809,11 +8751,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8846,11 +8784,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +8817,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8850,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +8883,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8916,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +8949,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +8982,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9105,11 +9015,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +9048,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9179,11 +9081,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9216,11 +9114,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9253,11 +9147,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9290,11 +9180,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9327,11 +9213,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +9246,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9401,11 +9279,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9438,11 +9312,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9475,11 +9345,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9512,11 +9378,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9545,16 +9407,14 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
       <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -9580,7 +9440,7 @@
         <v>38135.84408164999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9613,7 +9473,7 @@
         <v>38960.05568165</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9646,7 +9506,7 @@
         <v>43517.63038164999</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>

--- a/BackTest/2019-10-14 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-14 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>221.3199</v>
       </c>
       <c r="G2" t="n">
-        <v>5414.22278165</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>479.278</v>
       </c>
       <c r="G3" t="n">
-        <v>5414.22278165</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>163.808</v>
       </c>
       <c r="G4" t="n">
-        <v>5414.22278165</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>861.4508</v>
       </c>
       <c r="G5" t="n">
-        <v>4552.77198165</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>46.63</v>
       </c>
       <c r="G6" t="n">
-        <v>4599.40198165</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>668.1405999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>5267.54258165</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>916.5229</v>
       </c>
       <c r="G8" t="n">
-        <v>4351.01968165</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>4151.01968165</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>183</v>
       </c>
       <c r="G10" t="n">
-        <v>4334.01968165</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>176.0299</v>
       </c>
       <c r="G11" t="n">
-        <v>4334.01968165</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>49.3766</v>
       </c>
       <c r="G12" t="n">
-        <v>4334.01968165</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>252.07</v>
       </c>
       <c r="G13" t="n">
-        <v>4334.01968165</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1210</v>
       </c>
       <c r="G14" t="n">
-        <v>3124.01968165</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8730.2431</v>
       </c>
       <c r="G15" t="n">
-        <v>-5606.22341835</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>817.5176</v>
       </c>
       <c r="G16" t="n">
-        <v>-5606.22341835</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,21 @@
         <v>538.4299999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-5067.793418349999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +929,21 @@
         <v>183.714</v>
       </c>
       <c r="G18" t="n">
-        <v>-5251.507418349999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +965,21 @@
         <v>353.44</v>
       </c>
       <c r="G19" t="n">
-        <v>-4898.06741835</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1001,19 @@
         <v>686.4824</v>
       </c>
       <c r="G20" t="n">
-        <v>-4898.06741835</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1035,21 @@
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-4898.06741835</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1071,19 @@
         <v>599.796</v>
       </c>
       <c r="G22" t="n">
-        <v>-4898.06741835</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1105,19 @@
         <v>1.0486</v>
       </c>
       <c r="G23" t="n">
-        <v>-4899.11601835</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1139,21 @@
         <v>1138.4544</v>
       </c>
       <c r="G24" t="n">
-        <v>-3760.66161835</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1175,21 @@
         <v>121.4646</v>
       </c>
       <c r="G25" t="n">
-        <v>-3760.66161835</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1211,21 @@
         <v>297.66</v>
       </c>
       <c r="G26" t="n">
-        <v>-3760.66161835</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1247,21 @@
         <v>589.0174</v>
       </c>
       <c r="G27" t="n">
-        <v>-3760.66161835</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1283,21 @@
         <v>612.8455</v>
       </c>
       <c r="G28" t="n">
-        <v>-4373.507118349999</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1319,21 @@
         <v>639.9399</v>
       </c>
       <c r="G29" t="n">
-        <v>-3733.56721835</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1355,21 @@
         <v>491.2212</v>
       </c>
       <c r="G30" t="n">
-        <v>-3242.34601835</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1391,21 @@
         <v>510.48</v>
       </c>
       <c r="G31" t="n">
-        <v>-3242.34601835</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1427,21 @@
         <v>41.8243</v>
       </c>
       <c r="G32" t="n">
-        <v>-3242.34601835</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1463,21 @@
         <v>419.1143</v>
       </c>
       <c r="G33" t="n">
-        <v>-3242.34601835</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1499,21 @@
         <v>220.1999</v>
       </c>
       <c r="G34" t="n">
-        <v>-3242.34601835</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1535,21 @@
         <v>3580</v>
       </c>
       <c r="G35" t="n">
-        <v>337.6539816500003</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1571,21 @@
         <v>60.65</v>
       </c>
       <c r="G36" t="n">
-        <v>337.6539816500003</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1607,21 @@
         <v>50.9444</v>
       </c>
       <c r="G37" t="n">
-        <v>286.7095816500004</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1643,21 @@
         <v>120.09</v>
       </c>
       <c r="G38" t="n">
-        <v>406.7995816500004</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1679,21 @@
         <v>525</v>
       </c>
       <c r="G39" t="n">
-        <v>406.7995816500004</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1715,21 @@
         <v>569.71</v>
       </c>
       <c r="G40" t="n">
-        <v>406.7995816500004</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1751,21 @@
         <v>795</v>
       </c>
       <c r="G41" t="n">
-        <v>406.7995816500004</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1787,19 @@
         <v>501.06</v>
       </c>
       <c r="G42" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1821,19 @@
         <v>303.0303</v>
       </c>
       <c r="G43" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1855,19 @@
         <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1889,19 @@
         <v>216.0837</v>
       </c>
       <c r="G45" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1923,19 @@
         <v>1102.5861</v>
       </c>
       <c r="G46" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1957,19 @@
         <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1991,19 @@
         <v>99.9999</v>
       </c>
       <c r="G48" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2025,19 @@
         <v>46.8599</v>
       </c>
       <c r="G49" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2059,19 @@
         <v>204.129</v>
       </c>
       <c r="G50" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2093,19 @@
         <v>3989.0796</v>
       </c>
       <c r="G51" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2127,19 @@
         <v>1669.7972</v>
       </c>
       <c r="G52" t="n">
-        <v>406.7995816500004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2161,19 @@
         <v>20.1409</v>
       </c>
       <c r="G53" t="n">
-        <v>426.9404816500004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2195,19 @@
         <v>10.0704</v>
       </c>
       <c r="G54" t="n">
-        <v>426.9404816500004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2229,19 @@
         <v>1876.2676</v>
       </c>
       <c r="G55" t="n">
-        <v>-1449.32711835</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2263,19 @@
         <v>10.0452</v>
       </c>
       <c r="G56" t="n">
-        <v>-1459.37231835</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2297,19 @@
         <v>330.6086</v>
       </c>
       <c r="G57" t="n">
-        <v>-1128.76371835</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2331,19 @@
         <v>2251.9758</v>
       </c>
       <c r="G58" t="n">
-        <v>1123.212081650001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2365,19 @@
         <v>7.177</v>
       </c>
       <c r="G59" t="n">
-        <v>1116.035081650001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2399,19 @@
         <v>39.8144</v>
       </c>
       <c r="G60" t="n">
-        <v>1076.220681650001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2433,19 @@
         <v>1651.0428</v>
       </c>
       <c r="G61" t="n">
-        <v>-574.8221183499993</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2467,19 @@
         <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>-574.8221183499993</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2501,19 @@
         <v>397.0316</v>
       </c>
       <c r="G63" t="n">
-        <v>-574.8221183499993</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2535,19 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>-572.8221183499993</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2569,19 @@
         <v>572.4732</v>
       </c>
       <c r="G65" t="n">
-        <v>-1145.295318349999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2603,19 @@
         <v>59.9406</v>
       </c>
       <c r="G66" t="n">
-        <v>-1145.295318349999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2637,19 @@
         <v>1.0594</v>
       </c>
       <c r="G67" t="n">
-        <v>-1145.295318349999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2671,19 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>-2145.295318349999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2705,19 @@
         <v>67.1747</v>
       </c>
       <c r="G69" t="n">
-        <v>-2145.295318349999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,22 +2739,19 @@
         <v>552.7843</v>
       </c>
       <c r="G70" t="n">
-        <v>-2698.07961835</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>987</v>
-      </c>
-      <c r="J70" t="n">
-        <v>987</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2729,26 +2773,19 @@
         <v>34.431</v>
       </c>
       <c r="G71" t="n">
-        <v>-2663.64861835</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>986</v>
-      </c>
-      <c r="J71" t="n">
-        <v>987</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2770,26 +2807,19 @@
         <v>47.5559</v>
       </c>
       <c r="G72" t="n">
-        <v>-2663.64861835</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>989</v>
-      </c>
-      <c r="J72" t="n">
-        <v>987</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2811,22 +2841,19 @@
         <v>75.2475</v>
       </c>
       <c r="G73" t="n">
-        <v>-2588.40111835</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>989</v>
-      </c>
-      <c r="J73" t="n">
-        <v>989</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2848,26 +2875,19 @@
         <v>518.7525000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>-2588.40111835</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>990</v>
-      </c>
-      <c r="J74" t="n">
-        <v>989</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2889,26 +2909,19 @@
         <v>3.6914</v>
       </c>
       <c r="G75" t="n">
-        <v>-2584.70971835</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>990</v>
-      </c>
-      <c r="J75" t="n">
-        <v>989</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2930,22 +2943,19 @@
         <v>6.6914</v>
       </c>
       <c r="G76" t="n">
-        <v>-2591.40111835</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>995</v>
-      </c>
-      <c r="J76" t="n">
-        <v>995</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2967,26 +2977,19 @@
         <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>-2583.40111835</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>988</v>
-      </c>
-      <c r="J77" t="n">
-        <v>995</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3008,26 +3011,19 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>-2585.40111835</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>995</v>
-      </c>
-      <c r="J78" t="n">
-        <v>995</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3049,26 +3045,19 @@
         <v>8.1502</v>
       </c>
       <c r="G79" t="n">
-        <v>-2585.40111835</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>994</v>
-      </c>
-      <c r="J79" t="n">
-        <v>995</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3090,26 +3079,19 @@
         <v>1188.8908</v>
       </c>
       <c r="G80" t="n">
-        <v>-3774.29191835</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>994</v>
-      </c>
-      <c r="J80" t="n">
-        <v>995</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3131,26 +3113,19 @@
         <v>414.6776</v>
       </c>
       <c r="G81" t="n">
-        <v>-3774.29191835</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>988</v>
-      </c>
-      <c r="J81" t="n">
-        <v>995</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3172,26 +3147,19 @@
         <v>2193.0012</v>
       </c>
       <c r="G82" t="n">
-        <v>-1581.29071835</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>988</v>
-      </c>
-      <c r="J82" t="n">
-        <v>995</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3213,26 +3181,19 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-1582.29071835</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>995</v>
-      </c>
-      <c r="J83" t="n">
-        <v>995</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3254,24 +3215,19 @@
         <v>1018.1634</v>
       </c>
       <c r="G84" t="n">
-        <v>-2600.45411835</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>995</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3293,24 +3249,19 @@
         <v>1190.1534</v>
       </c>
       <c r="G85" t="n">
-        <v>-1410.30071835</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>995</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3332,24 +3283,19 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-1412.30071835</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>995</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3371,24 +3317,19 @@
         <v>104.5159</v>
       </c>
       <c r="G87" t="n">
-        <v>-1412.30071835</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>995</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3410,24 +3351,19 @@
         <v>68.7311</v>
       </c>
       <c r="G88" t="n">
-        <v>-1412.30071835</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>995</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3449,26 +3385,19 @@
         <v>1063.0363</v>
       </c>
       <c r="G89" t="n">
-        <v>-2475.33701835</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>991</v>
-      </c>
-      <c r="J89" t="n">
-        <v>995</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3490,26 +3419,19 @@
         <v>1.008</v>
       </c>
       <c r="G90" t="n">
-        <v>-2474.32901835</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>990</v>
-      </c>
-      <c r="J90" t="n">
-        <v>995</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3531,26 +3453,19 @@
         <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>-2479.32901835</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>992</v>
-      </c>
-      <c r="J91" t="n">
-        <v>995</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3572,26 +3487,19 @@
         <v>5</v>
       </c>
       <c r="G92" t="n">
-        <v>-2474.32901835</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>990</v>
-      </c>
-      <c r="J92" t="n">
-        <v>995</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3613,26 +3521,19 @@
         <v>243.4011</v>
       </c>
       <c r="G93" t="n">
-        <v>-2474.32901835</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>992</v>
-      </c>
-      <c r="J93" t="n">
-        <v>995</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3654,24 +3555,19 @@
         <v>698.8681</v>
       </c>
       <c r="G94" t="n">
-        <v>-3173.19711835</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>995</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3693,26 +3589,19 @@
         <v>231.1437</v>
       </c>
       <c r="G95" t="n">
-        <v>-3404.34081835</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>990</v>
-      </c>
-      <c r="J95" t="n">
-        <v>995</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3734,26 +3623,19 @@
         <v>1465.014</v>
       </c>
       <c r="G96" t="n">
-        <v>-1939.32681835</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>989</v>
-      </c>
-      <c r="J96" t="n">
-        <v>995</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3775,26 +3657,19 @@
         <v>229.8766</v>
       </c>
       <c r="G97" t="n">
-        <v>-2169.20341835</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>996</v>
-      </c>
-      <c r="J97" t="n">
-        <v>995</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3816,26 +3691,19 @@
         <v>42.8536</v>
       </c>
       <c r="G98" t="n">
-        <v>-2126.34981835</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>988</v>
-      </c>
-      <c r="J98" t="n">
-        <v>995</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,24 +3725,19 @@
         <v>391.0465</v>
       </c>
       <c r="G99" t="n">
-        <v>-2517.39631835</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>995</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3896,24 +3759,19 @@
         <v>403.809</v>
       </c>
       <c r="G100" t="n">
-        <v>-2517.39631835</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>995</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3935,24 +3793,19 @@
         <v>1090.5341</v>
       </c>
       <c r="G101" t="n">
-        <v>-3607.93041835</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>995</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3974,24 +3827,19 @@
         <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>-3607.93041835</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>995</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4013,24 +3861,19 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>-3507.93041835</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>995</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4052,24 +3895,19 @@
         <v>1732.6206</v>
       </c>
       <c r="G104" t="n">
-        <v>-1775.30981835</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>995</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4091,24 +3929,19 @@
         <v>240.9727</v>
       </c>
       <c r="G105" t="n">
-        <v>-1775.30981835</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>995</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4130,24 +3963,19 @@
         <v>1896.2676</v>
       </c>
       <c r="G106" t="n">
-        <v>120.95778165</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>995</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4169,24 +3997,19 @@
         <v>144.1545</v>
       </c>
       <c r="G107" t="n">
-        <v>120.95778165</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>995</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4208,24 +4031,19 @@
         <v>998.41</v>
       </c>
       <c r="G108" t="n">
-        <v>120.95778165</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>995</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4247,24 +4065,19 @@
         <v>283.58</v>
       </c>
       <c r="G109" t="n">
-        <v>404.53778165</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>995</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4286,24 +4099,19 @@
         <v>2970.1779</v>
       </c>
       <c r="G110" t="n">
-        <v>3374.71568165</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>995</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4325,24 +4133,19 @@
         <v>203.9399</v>
       </c>
       <c r="G111" t="n">
-        <v>3374.71568165</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>995</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4364,24 +4167,19 @@
         <v>50.6789</v>
       </c>
       <c r="G112" t="n">
-        <v>3374.71568165</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>995</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4403,24 +4201,19 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>3374.71568165</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>995</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4442,24 +4235,19 @@
         <v>1.04204204</v>
       </c>
       <c r="G114" t="n">
-        <v>3374.71568165</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>995</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4481,24 +4269,19 @@
         <v>175.33</v>
       </c>
       <c r="G115" t="n">
-        <v>3199.38568165</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>995</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4520,24 +4303,19 @@
         <v>3420.6184</v>
       </c>
       <c r="G116" t="n">
-        <v>3199.38568165</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>995</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4559,24 +4337,19 @@
         <v>100.1001</v>
       </c>
       <c r="G117" t="n">
-        <v>3299.48578165</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>995</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4598,24 +4371,19 @@
         <v>37.2686</v>
       </c>
       <c r="G118" t="n">
-        <v>3299.48578165</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>995</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4637,24 +4405,19 @@
         <v>209.59</v>
       </c>
       <c r="G119" t="n">
-        <v>3299.48578165</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>995</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4676,24 +4439,19 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>3299.48578165</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>995</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4715,24 +4473,19 @@
         <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>3297.48578165</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>995</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4754,24 +4507,19 @@
         <v>3210.9761</v>
       </c>
       <c r="G122" t="n">
-        <v>3297.48578165</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>995</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4793,24 +4541,19 @@
         <v>360.1296</v>
       </c>
       <c r="G123" t="n">
-        <v>3657.61538165</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>995</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4832,24 +4575,19 @@
         <v>1644.9222</v>
       </c>
       <c r="G124" t="n">
-        <v>2012.69318165</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>995</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4871,24 +4609,19 @@
         <v>1020.6724</v>
       </c>
       <c r="G125" t="n">
-        <v>3033.36558165</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>995</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4910,24 +4643,19 @@
         <v>528.9868</v>
       </c>
       <c r="G126" t="n">
-        <v>3033.36558165</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>995</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4949,24 +4677,19 @@
         <v>82.20820000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>3033.36558165</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>995</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4988,24 +4711,19 @@
         <v>130</v>
       </c>
       <c r="G128" t="n">
-        <v>3163.36558165</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>995</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5027,24 +4745,19 @@
         <v>77.05410000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>3240.41968165</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>995</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,24 +4779,19 @@
         <v>1026.9564</v>
       </c>
       <c r="G130" t="n">
-        <v>4267.37608165</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>995</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5105,24 +4813,19 @@
         <v>80.5911</v>
       </c>
       <c r="G131" t="n">
-        <v>4267.37608165</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>995</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5144,24 +4847,19 @@
         <v>2077.4125</v>
       </c>
       <c r="G132" t="n">
-        <v>6344.78858165</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>995</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5183,24 +4881,19 @@
         <v>306.4119</v>
       </c>
       <c r="G133" t="n">
-        <v>6344.78858165</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>995</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5222,24 +4915,19 @@
         <v>1025</v>
       </c>
       <c r="G134" t="n">
-        <v>6344.78858165</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>995</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5261,24 +4949,19 @@
         <v>7424.1231</v>
       </c>
       <c r="G135" t="n">
-        <v>13768.91168165</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>995</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5300,24 +4983,19 @@
         <v>3600.0957</v>
       </c>
       <c r="G136" t="n">
-        <v>13768.91168165</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>995</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5339,24 +5017,19 @@
         <v>406.3082</v>
       </c>
       <c r="G137" t="n">
-        <v>13362.60348165</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>995</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5378,24 +5051,19 @@
         <v>447.6918</v>
       </c>
       <c r="G138" t="n">
-        <v>13810.29528165</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>995</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5417,24 +5085,19 @@
         <v>250</v>
       </c>
       <c r="G139" t="n">
-        <v>14060.29528165</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>995</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5456,24 +5119,19 @@
         <v>415.5</v>
       </c>
       <c r="G140" t="n">
-        <v>14060.29528165</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>995</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5495,24 +5153,19 @@
         <v>557.9778</v>
       </c>
       <c r="G141" t="n">
-        <v>14618.27308165</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>995</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5534,24 +5187,19 @@
         <v>125</v>
       </c>
       <c r="G142" t="n">
-        <v>14493.27308165</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>995</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5573,24 +5221,19 @@
         <v>2254.2465</v>
       </c>
       <c r="G143" t="n">
-        <v>14493.27308165</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>995</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5612,24 +5255,19 @@
         <v>1330.3155</v>
       </c>
       <c r="G144" t="n">
-        <v>15823.58858165</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>995</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5651,24 +5289,19 @@
         <v>1288.1455</v>
       </c>
       <c r="G145" t="n">
-        <v>15823.58858165</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>995</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5690,24 +5323,19 @@
         <v>1551.4001</v>
       </c>
       <c r="G146" t="n">
-        <v>17374.98868165</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>995</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5729,24 +5357,19 @@
         <v>945.8772</v>
       </c>
       <c r="G147" t="n">
-        <v>17374.98868165</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>995</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5768,24 +5391,17 @@
         <v>282.8058</v>
       </c>
       <c r="G148" t="n">
-        <v>17374.98868165</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>995</v>
-      </c>
-      <c r="K148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1.025150753768844</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5807,18 +5423,15 @@
         <v>25.6282</v>
       </c>
       <c r="G149" t="n">
-        <v>17349.36048165</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5840,18 +5453,15 @@
         <v>560</v>
       </c>
       <c r="G150" t="n">
-        <v>17909.36048165</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5873,18 +5483,15 @@
         <v>280</v>
       </c>
       <c r="G151" t="n">
-        <v>17909.36048165</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5906,18 +5513,15 @@
         <v>3652.7643</v>
       </c>
       <c r="G152" t="n">
-        <v>17909.36048165</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5939,18 +5543,15 @@
         <v>4949.3824</v>
       </c>
       <c r="G153" t="n">
-        <v>12959.97808165</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5972,18 +5573,15 @@
         <v>399.92</v>
       </c>
       <c r="G154" t="n">
-        <v>12959.97808165</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6005,18 +5603,15 @@
         <v>347.1815</v>
       </c>
       <c r="G155" t="n">
-        <v>12612.79658165</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6038,18 +5633,15 @@
         <v>361.8779</v>
       </c>
       <c r="G156" t="n">
-        <v>12250.91868165</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6071,18 +5663,15 @@
         <v>430.021</v>
       </c>
       <c r="G157" t="n">
-        <v>12250.91868165</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6104,18 +5693,15 @@
         <v>1467.7103</v>
       </c>
       <c r="G158" t="n">
-        <v>13718.62898165</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6137,18 +5723,15 @@
         <v>17.2875</v>
       </c>
       <c r="G159" t="n">
-        <v>13701.34148165</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6170,18 +5753,15 @@
         <v>1125.3224</v>
       </c>
       <c r="G160" t="n">
-        <v>12576.01908165</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6203,18 +5783,15 @@
         <v>976.043</v>
       </c>
       <c r="G161" t="n">
-        <v>13552.06208165</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6236,18 +5813,15 @@
         <v>10553.0261</v>
       </c>
       <c r="G162" t="n">
-        <v>24105.08818165</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6269,18 +5843,15 @@
         <v>416.6747</v>
       </c>
       <c r="G163" t="n">
-        <v>23688.41348165</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6302,18 +5873,15 @@
         <v>2467.5417</v>
       </c>
       <c r="G164" t="n">
-        <v>23688.41348165</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6335,18 +5903,15 @@
         <v>404.6194</v>
       </c>
       <c r="G165" t="n">
-        <v>23688.41348165</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6368,18 +5933,15 @@
         <v>57.7541</v>
       </c>
       <c r="G166" t="n">
-        <v>23688.41348165</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6401,18 +5963,15 @@
         <v>101.45</v>
       </c>
       <c r="G167" t="n">
-        <v>23789.86348165</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,18 +5993,15 @@
         <v>218.3092</v>
       </c>
       <c r="G168" t="n">
-        <v>23571.55428165</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6467,18 +6023,15 @@
         <v>150</v>
       </c>
       <c r="G169" t="n">
-        <v>23421.55428165</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6500,18 +6053,15 @@
         <v>374.5641</v>
       </c>
       <c r="G170" t="n">
-        <v>23796.11838165</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6533,18 +6083,15 @@
         <v>1489.041</v>
       </c>
       <c r="G171" t="n">
-        <v>25285.15938165</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6566,18 +6113,15 @@
         <v>870</v>
       </c>
       <c r="G172" t="n">
-        <v>26155.15938165</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6599,18 +6143,15 @@
         <v>26.779</v>
       </c>
       <c r="G173" t="n">
-        <v>26155.15938165</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6632,18 +6173,15 @@
         <v>166.8928</v>
       </c>
       <c r="G174" t="n">
-        <v>26155.15938165</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6665,18 +6203,15 @@
         <v>842.93146947</v>
       </c>
       <c r="G175" t="n">
-        <v>26155.15938165</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6698,18 +6233,15 @@
         <v>210</v>
       </c>
       <c r="G176" t="n">
-        <v>25945.15938165</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6731,18 +6263,15 @@
         <v>20.2981</v>
       </c>
       <c r="G177" t="n">
-        <v>25965.45748165</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6764,18 +6293,15 @@
         <v>0.3355</v>
       </c>
       <c r="G178" t="n">
-        <v>25965.45748165</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6797,18 +6323,15 @@
         <v>10</v>
       </c>
       <c r="G179" t="n">
-        <v>25955.45748165</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6830,18 +6353,15 @@
         <v>209.9499</v>
       </c>
       <c r="G180" t="n">
-        <v>25955.45748165</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6863,18 +6383,15 @@
         <v>466.8099</v>
       </c>
       <c r="G181" t="n">
-        <v>26422.26738165</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6896,18 +6413,15 @@
         <v>1246.1353</v>
       </c>
       <c r="G182" t="n">
-        <v>25176.13208165</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6929,18 +6443,15 @@
         <v>639.2755</v>
       </c>
       <c r="G183" t="n">
-        <v>24536.85658165</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6962,18 +6473,15 @@
         <v>216.06</v>
       </c>
       <c r="G184" t="n">
-        <v>24752.91658165</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6995,18 +6503,15 @@
         <v>1532.6114</v>
       </c>
       <c r="G185" t="n">
-        <v>23220.30518165</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7028,18 +6533,15 @@
         <v>308.2787</v>
       </c>
       <c r="G186" t="n">
-        <v>23528.58388165</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7061,18 +6563,15 @@
         <v>42.2498</v>
       </c>
       <c r="G187" t="n">
-        <v>23528.58388165</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7094,18 +6593,15 @@
         <v>47.9194</v>
       </c>
       <c r="G188" t="n">
-        <v>23528.58388165</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7127,18 +6623,15 @@
         <v>181.2481</v>
       </c>
       <c r="G189" t="n">
-        <v>23347.33578165</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7160,18 +6653,15 @@
         <v>181.0448</v>
       </c>
       <c r="G190" t="n">
-        <v>23528.38058165</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7193,18 +6683,15 @@
         <v>280.2976</v>
       </c>
       <c r="G191" t="n">
-        <v>23248.08298165</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7226,18 +6713,15 @@
         <v>626.9482</v>
       </c>
       <c r="G192" t="n">
-        <v>22621.13478165</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7259,18 +6743,15 @@
         <v>1413.4452</v>
       </c>
       <c r="G193" t="n">
-        <v>21207.68958165</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7292,18 +6773,15 @@
         <v>67.12220000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>21274.81178165</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7325,18 +6803,15 @@
         <v>962.3884</v>
       </c>
       <c r="G195" t="n">
-        <v>20312.42338165</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7358,18 +6833,15 @@
         <v>25</v>
       </c>
       <c r="G196" t="n">
-        <v>20337.42338165</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7391,18 +6863,15 @@
         <v>429.1526</v>
       </c>
       <c r="G197" t="n">
-        <v>19908.27078165</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7424,18 +6893,15 @@
         <v>293.0333</v>
       </c>
       <c r="G198" t="n">
-        <v>19908.27078165</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7457,18 +6923,15 @@
         <v>272.33</v>
       </c>
       <c r="G199" t="n">
-        <v>20180.60078165</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7490,18 +6953,15 @@
         <v>37.114</v>
       </c>
       <c r="G200" t="n">
-        <v>20180.60078165</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7523,18 +6983,15 @@
         <v>647.2785</v>
       </c>
       <c r="G201" t="n">
-        <v>19533.32228165</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7556,18 +7013,15 @@
         <v>420</v>
       </c>
       <c r="G202" t="n">
-        <v>19113.32228165</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7589,18 +7043,15 @@
         <v>6.3429</v>
       </c>
       <c r="G203" t="n">
-        <v>19119.66518165</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7622,18 +7073,15 @@
         <v>3914.1643</v>
       </c>
       <c r="G204" t="n">
-        <v>23033.82948165</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7655,18 +7103,15 @@
         <v>738.8143</v>
       </c>
       <c r="G205" t="n">
-        <v>22295.01518165</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7688,18 +7133,15 @@
         <v>41.6681</v>
       </c>
       <c r="G206" t="n">
-        <v>22336.68328165</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7721,18 +7163,15 @@
         <v>31.7806</v>
       </c>
       <c r="G207" t="n">
-        <v>22336.68328165</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7754,18 +7193,15 @@
         <v>225.3699</v>
       </c>
       <c r="G208" t="n">
-        <v>22111.31338165</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7787,18 +7223,15 @@
         <v>360.0486</v>
       </c>
       <c r="G209" t="n">
-        <v>21751.26478165</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7820,18 +7253,15 @@
         <v>301.5849</v>
       </c>
       <c r="G210" t="n">
-        <v>21751.26478165</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7853,18 +7283,15 @@
         <v>2041.6269</v>
       </c>
       <c r="G211" t="n">
-        <v>21751.26478165</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7886,18 +7313,15 @@
         <v>379.7424</v>
       </c>
       <c r="G212" t="n">
-        <v>22131.00718165</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7919,18 +7343,15 @@
         <v>920.8681</v>
       </c>
       <c r="G213" t="n">
-        <v>23051.87528165</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7952,18 +7373,15 @@
         <v>1588</v>
       </c>
       <c r="G214" t="n">
-        <v>21463.87528165</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7985,18 +7403,15 @@
         <v>2181.7309</v>
       </c>
       <c r="G215" t="n">
-        <v>21463.87528165</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8018,18 +7433,15 @@
         <v>1998.2197</v>
       </c>
       <c r="G216" t="n">
-        <v>19465.65558165</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8051,18 +7463,15 @@
         <v>1178.47</v>
       </c>
       <c r="G217" t="n">
-        <v>20644.12558165</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8084,18 +7493,15 @@
         <v>1541.1467</v>
       </c>
       <c r="G218" t="n">
-        <v>19102.97888165</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8117,18 +7523,15 @@
         <v>1336</v>
       </c>
       <c r="G219" t="n">
-        <v>19102.97888165</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8150,18 +7553,15 @@
         <v>2662.9746</v>
       </c>
       <c r="G220" t="n">
-        <v>19102.97888165</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8183,18 +7583,21 @@
         <v>2598.57</v>
       </c>
       <c r="G221" t="n">
-        <v>21701.54888165</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8216,18 +7619,19 @@
         <v>1594.7089</v>
       </c>
       <c r="G222" t="n">
-        <v>20106.83998165</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8249,18 +7653,19 @@
         <v>2247</v>
       </c>
       <c r="G223" t="n">
-        <v>22353.83998165</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8282,18 +7687,21 @@
         <v>2607.161</v>
       </c>
       <c r="G224" t="n">
-        <v>24961.00098165</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8315,18 +7723,19 @@
         <v>2790</v>
       </c>
       <c r="G225" t="n">
-        <v>22171.00098165</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8348,18 +7757,19 @@
         <v>177.6519</v>
       </c>
       <c r="G226" t="n">
-        <v>21993.34908164999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8381,18 +7791,21 @@
         <v>397</v>
       </c>
       <c r="G227" t="n">
-        <v>21596.34908164999</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8414,18 +7827,21 @@
         <v>1719</v>
       </c>
       <c r="G228" t="n">
-        <v>23315.34908164999</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8447,18 +7863,21 @@
         <v>1884.8194</v>
       </c>
       <c r="G229" t="n">
-        <v>25200.16848164999</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8480,18 +7899,19 @@
         <v>2240</v>
       </c>
       <c r="G230" t="n">
-        <v>22960.16848164999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8513,18 +7933,19 @@
         <v>2225</v>
       </c>
       <c r="G231" t="n">
-        <v>20735.16848164999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8546,18 +7967,19 @@
         <v>3200.046</v>
       </c>
       <c r="G232" t="n">
-        <v>23935.21448164999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8579,18 +8001,19 @@
         <v>1569.5546</v>
       </c>
       <c r="G233" t="n">
-        <v>22365.65988164999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8612,18 +8035,19 @@
         <v>650</v>
       </c>
       <c r="G234" t="n">
-        <v>21715.65988164999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8645,18 +8069,19 @@
         <v>3955.4923</v>
       </c>
       <c r="G235" t="n">
-        <v>25671.15218165</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8678,18 +8103,19 @@
         <v>2123.9837</v>
       </c>
       <c r="G236" t="n">
-        <v>27795.13588165</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8711,18 +8137,19 @@
         <v>2854.94</v>
       </c>
       <c r="G237" t="n">
-        <v>30650.07588164999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8744,18 +8171,19 @@
         <v>2176</v>
       </c>
       <c r="G238" t="n">
-        <v>28474.07588164999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8777,18 +8205,19 @@
         <v>3306.7786</v>
       </c>
       <c r="G239" t="n">
-        <v>31780.85448165</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8810,18 +8239,19 @@
         <v>3840.3673</v>
       </c>
       <c r="G240" t="n">
-        <v>27940.48718164999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8843,18 +8273,19 @@
         <v>3955.5776</v>
       </c>
       <c r="G241" t="n">
-        <v>27940.48718164999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8876,18 +8307,19 @@
         <v>2997</v>
       </c>
       <c r="G242" t="n">
-        <v>30937.48718164999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8909,18 +8341,19 @@
         <v>2246</v>
       </c>
       <c r="G243" t="n">
-        <v>33183.48718164999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8942,18 +8375,19 @@
         <v>2252</v>
       </c>
       <c r="G244" t="n">
-        <v>35435.48718164999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8975,18 +8409,19 @@
         <v>1785</v>
       </c>
       <c r="G245" t="n">
-        <v>33650.48718164999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9008,18 +8443,19 @@
         <v>2298</v>
       </c>
       <c r="G246" t="n">
-        <v>35948.48718164999</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9041,18 +8477,19 @@
         <v>2225</v>
       </c>
       <c r="G247" t="n">
-        <v>33723.48718164999</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9074,18 +8511,19 @@
         <v>2240.5551</v>
       </c>
       <c r="G248" t="n">
-        <v>35964.04228164999</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9107,18 +8545,19 @@
         <v>3608.1372</v>
       </c>
       <c r="G249" t="n">
-        <v>32355.90508164999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9140,18 +8579,19 @@
         <v>3886.8397</v>
       </c>
       <c r="G250" t="n">
-        <v>28469.06538164999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9173,18 +8613,19 @@
         <v>2042.4461</v>
       </c>
       <c r="G251" t="n">
-        <v>30511.51148164999</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9206,18 +8647,19 @@
         <v>1408.3096</v>
       </c>
       <c r="G252" t="n">
-        <v>29103.20188164999</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9239,18 +8681,19 @@
         <v>593.1158</v>
       </c>
       <c r="G253" t="n">
-        <v>29103.20188164999</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9272,18 +8715,19 @@
         <v>221.1518</v>
       </c>
       <c r="G254" t="n">
-        <v>29103.20188164999</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9305,18 +8749,19 @@
         <v>2802.664</v>
       </c>
       <c r="G255" t="n">
-        <v>31905.86588164999</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9338,18 +8783,19 @@
         <v>516.6093</v>
       </c>
       <c r="G256" t="n">
-        <v>32422.47518164999</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9371,18 +8817,19 @@
         <v>37.4169</v>
       </c>
       <c r="G257" t="n">
-        <v>32422.47518164999</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9404,18 +8851,19 @@
         <v>5713.3689</v>
       </c>
       <c r="G258" t="n">
-        <v>38135.84408164999</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9437,18 +8885,19 @@
         <v>129.2</v>
       </c>
       <c r="G259" t="n">
-        <v>38135.84408164999</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9470,18 +8919,19 @@
         <v>824.2116</v>
       </c>
       <c r="G260" t="n">
-        <v>38960.05568165</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9503,18 +8953,19 @@
         <v>4557.5747</v>
       </c>
       <c r="G261" t="n">
-        <v>43517.63038164999</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9536,18 +8987,19 @@
         <v>1380</v>
       </c>
       <c r="G262" t="n">
-        <v>44897.63038164999</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9569,18 +9021,19 @@
         <v>915</v>
       </c>
       <c r="G263" t="n">
-        <v>44897.63038164999</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9602,18 +9055,19 @@
         <v>1855</v>
       </c>
       <c r="G264" t="n">
-        <v>44897.63038164999</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
